--- a/Epsilon_Inversion/EpsilonRegression.xlsx
+++ b/Epsilon_Inversion/EpsilonRegression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahshi/Documents/GitHub/PyIRoGlass/Epsilon_Inversion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FAE90E-BD5C-664C-91CA-9F40199C6F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4695F1DF-C0D0-4A45-8B55-EF000BB74DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="760" windowWidth="31920" windowHeight="20380" activeTab="1" xr2:uid="{FEE6C955-F107-534A-8F98-4BC8B7F4190E}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="31920" windowHeight="20380" activeTab="3" xr2:uid="{FEE6C955-F107-534A-8F98-4BC8B7F4190E}"/>
   </bookViews>
   <sheets>
     <sheet name="NIRRegress" sheetId="4" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1376,79 +1376,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1460,16 +1395,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,17 +1408,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1814,7 +1746,7 @@
     <col min="1" max="5" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="129" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" s="106" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +1961,7 @@
       <c r="BV1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" s="128" t="s">
+      <c r="BW1" s="105" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2406,7 +2338,7 @@
       <c r="BJ4" s="12">
         <v>1.4392139013095928</v>
       </c>
-      <c r="BK4" s="127"/>
+      <c r="BK4" s="104"/>
       <c r="BL4" s="12"/>
       <c r="BM4" s="12">
         <v>1.0840406057580296</v>
@@ -2569,7 +2501,7 @@
       <c r="BJ5" s="12">
         <v>1.5241519469767977</v>
       </c>
-      <c r="BK5" s="127"/>
+      <c r="BK5" s="104"/>
       <c r="BL5" s="12"/>
       <c r="BM5" s="12">
         <v>1.1402895656515226</v>
@@ -2703,7 +2635,7 @@
       <c r="AS6" s="97">
         <v>96.24</v>
       </c>
-      <c r="AT6" s="122"/>
+      <c r="AT6" s="102"/>
       <c r="AU6" s="97">
         <v>0.62682687850579211</v>
       </c>
@@ -2711,7 +2643,7 @@
         <v>0.23157895182099122</v>
       </c>
       <c r="AW6" s="97"/>
-      <c r="AX6" s="122"/>
+      <c r="AX6" s="102"/>
       <c r="AY6" s="97">
         <v>0.79289399234481606</v>
       </c>
@@ -2724,7 +2656,7 @@
       <c r="BB6" s="97">
         <v>0.10003479471120391</v>
       </c>
-      <c r="BC6" s="122"/>
+      <c r="BC6" s="102"/>
       <c r="BD6" s="97">
         <v>9.1626726811389915E-4</v>
       </c>
@@ -2746,8 +2678,8 @@
       <c r="BJ6" s="97">
         <v>1.4839195586917615</v>
       </c>
-      <c r="BK6" s="122"/>
-      <c r="BL6" s="122"/>
+      <c r="BK6" s="102"/>
+      <c r="BL6" s="102"/>
       <c r="BM6" s="97">
         <v>0.79289399234481606</v>
       </c>
@@ -2919,7 +2851,7 @@
       <c r="BJ7" s="12">
         <v>1.4814506640315077</v>
       </c>
-      <c r="BK7" s="127"/>
+      <c r="BK7" s="104"/>
       <c r="BL7" s="12"/>
       <c r="BM7" s="12">
         <v>0.98918289232817436</v>
@@ -3092,7 +3024,7 @@
       <c r="BJ8" s="12">
         <v>1.4673603841834066</v>
       </c>
-      <c r="BK8" s="127"/>
+      <c r="BK8" s="104"/>
       <c r="BL8" s="12"/>
       <c r="BM8" s="12">
         <v>0.99828035724191488</v>
@@ -7807,8 +7739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D56AC5-DAA9-8140-A576-6658D6B454A7}">
   <dimension ref="A1:BW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7817,7 +7749,7 @@
     <col min="4" max="5" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="129" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" s="106" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8032,7 +7964,7 @@
       <c r="BV1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" s="128" t="s">
+      <c r="BW1" s="105" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8299,7 +8231,7 @@
       <c r="AS3" s="97">
         <v>96.24</v>
       </c>
-      <c r="AT3" s="122"/>
+      <c r="AT3" s="102"/>
       <c r="AU3" s="97">
         <v>0.62682687850579211</v>
       </c>
@@ -8307,7 +8239,7 @@
         <v>0.23157895182099122</v>
       </c>
       <c r="AW3" s="97"/>
-      <c r="AX3" s="122"/>
+      <c r="AX3" s="102"/>
       <c r="AY3" s="97">
         <v>0.79289399234481606</v>
       </c>
@@ -8320,7 +8252,7 @@
       <c r="BB3" s="97">
         <v>0.10003479471120391</v>
       </c>
-      <c r="BC3" s="122"/>
+      <c r="BC3" s="102"/>
       <c r="BD3" s="97">
         <v>9.1626726811389915E-4</v>
       </c>
@@ -8342,8 +8274,8 @@
       <c r="BJ3" s="97">
         <v>1.4839195586917615</v>
       </c>
-      <c r="BK3" s="122"/>
-      <c r="BL3" s="122"/>
+      <c r="BK3" s="102"/>
+      <c r="BL3" s="102"/>
       <c r="BM3" s="97">
         <v>0.79289399234481606</v>
       </c>
@@ -10722,7 +10654,7 @@
       <c r="BV18" s="60"/>
       <c r="BW18" s="59"/>
     </row>
-    <row r="19" spans="1:75" s="121" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>217</v>
       </c>
@@ -10738,89 +10670,89 @@
       <c r="E19" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="111">
+      <c r="F19" s="10">
         <v>0.64822650199999998</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="34">
         <v>0.235588467666666</v>
       </c>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="110">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="T19" s="110">
-        <v>3.9</v>
-      </c>
-      <c r="U19" s="109"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="116">
-        <v>305</v>
-      </c>
-      <c r="AA19" s="110">
-        <v>8</v>
-      </c>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="116">
-        <v>305</v>
-      </c>
-      <c r="AD19" s="110">
-        <v>8</v>
-      </c>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="119" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="15">
+        <v>63.027000000000001</v>
+      </c>
+      <c r="T19" s="16">
+        <v>4.4649999999999999</v>
+      </c>
+      <c r="U19" s="21"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="15">
+        <v>303.435</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>9.1959999999999997</v>
+      </c>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="15">
+        <v>303.435</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>9.1959999999999997</v>
+      </c>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="AG19" s="119"/>
-      <c r="AH19" s="120">
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="11">
         <v>46.637999999999998</v>
       </c>
-      <c r="AI19" s="113">
+      <c r="AI19" s="12">
         <v>0.72</v>
       </c>
-      <c r="AJ19" s="113">
+      <c r="AJ19" s="12">
         <v>14.448000000000002</v>
       </c>
-      <c r="AK19" s="113">
+      <c r="AK19" s="12">
         <v>8.2219999999999995</v>
       </c>
-      <c r="AL19" s="113">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="113">
+      <c r="AL19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="12">
         <v>0.13999999999999999</v>
       </c>
-      <c r="AN19" s="113">
+      <c r="AN19" s="12">
         <v>8.3659999999999997</v>
       </c>
-      <c r="AO19" s="113">
+      <c r="AO19" s="12">
         <v>12.916</v>
       </c>
-      <c r="AP19" s="113">
+      <c r="AP19" s="12">
         <v>2.2060000000000004</v>
       </c>
-      <c r="AQ19" s="113">
+      <c r="AQ19" s="12">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AR19" s="113">
+      <c r="AR19" s="12">
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="AS19" s="113">
+      <c r="AS19" s="12">
         <v>93.9</v>
       </c>
-      <c r="AT19" s="113"/>
+      <c r="AT19" s="12"/>
       <c r="AU19" s="97">
         <f>(AY19+BA19)/BJ19</f>
         <v>0.60425890020906592</v>
@@ -10829,8 +10761,8 @@
         <f>BU19/(BU19+BT19)</f>
         <v>0.23609667599030759</v>
       </c>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="113"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
       <c r="AY19" s="97">
         <f>AH19/60.08</f>
         <v>0.77626498002663114</v>
@@ -10876,8 +10808,6 @@
         <f>SUM(AY19:BI19)</f>
         <v>1.5191627433055328</v>
       </c>
-      <c r="BK19"/>
-      <c r="BL19"/>
       <c r="BM19" s="97">
         <f>AY19</f>
         <v>0.77626498002663114</v>
@@ -13761,7 +13691,7 @@
     <col min="1" max="5" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="129" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" s="106" customFormat="1" ht="55" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13976,7 +13906,7 @@
       <c r="BV1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" s="128" t="s">
+      <c r="BW1" s="105" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13984,13 +13914,13 @@
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="32" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -14002,25 +13932,25 @@
       <c r="G2" s="34">
         <v>0.29723339168791352</v>
       </c>
-      <c r="H2" s="102">
+      <c r="H2" s="12">
         <v>0.62</v>
       </c>
-      <c r="I2" s="102">
+      <c r="I2" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J2" s="103">
+      <c r="J2" s="13">
         <v>5200</v>
       </c>
-      <c r="K2" s="104">
+      <c r="K2" s="14">
         <v>0.11290322580645162</v>
       </c>
       <c r="L2" s="15">
         <v>0.67</v>
       </c>
-      <c r="M2" s="105">
+      <c r="M2" s="16">
         <v>0.03</v>
       </c>
-      <c r="N2" s="105">
+      <c r="N2" s="16">
         <v>4500</v>
       </c>
       <c r="O2" s="17">
@@ -14029,28 +13959,28 @@
       <c r="P2" s="15">
         <v>25</v>
       </c>
-      <c r="Q2" s="105">
+      <c r="Q2" s="16">
         <v>3</v>
       </c>
       <c r="R2" s="18">
         <v>1630</v>
       </c>
-      <c r="S2" s="105">
+      <c r="S2" s="16">
         <v>63</v>
       </c>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105">
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16">
         <v>3</v>
       </c>
-      <c r="Y2" s="105"/>
+      <c r="Y2" s="16"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="105"/>
+      <c r="AA2" s="16"/>
       <c r="AB2" s="18"/>
       <c r="AC2" s="15"/>
-      <c r="AD2" s="105"/>
+      <c r="AD2" s="16"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="19" t="s">
         <v>39</v>
@@ -14059,108 +13989,108 @@
       <c r="AH2" s="11">
         <v>50.8</v>
       </c>
-      <c r="AI2" s="102">
+      <c r="AI2" s="12">
         <v>1.84</v>
       </c>
-      <c r="AJ2" s="102">
+      <c r="AJ2" s="12">
         <v>13.7</v>
       </c>
-      <c r="AK2" s="102">
+      <c r="AK2" s="12">
         <v>12.4</v>
       </c>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12">
         <v>0.22</v>
       </c>
-      <c r="AN2" s="102">
+      <c r="AN2" s="12">
         <v>6.67</v>
       </c>
-      <c r="AO2" s="102">
+      <c r="AO2" s="12">
         <v>11.5</v>
       </c>
-      <c r="AP2" s="102">
+      <c r="AP2" s="12">
         <v>2.68</v>
       </c>
-      <c r="AQ2" s="102">
+      <c r="AQ2" s="12">
         <v>0.15</v>
       </c>
-      <c r="AR2" s="102">
+      <c r="AR2" s="12">
         <v>0.19</v>
       </c>
-      <c r="AS2" s="102">
+      <c r="AS2" s="12">
         <v>100.15000000000002</v>
       </c>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102">
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12">
         <v>0.62733751154247608</v>
       </c>
-      <c r="AV2" s="102">
+      <c r="AV2" s="12">
         <v>0.29723339168791352</v>
       </c>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102">
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12">
         <v>0.84539856881344644</v>
       </c>
-      <c r="AZ2" s="102">
+      <c r="AZ2" s="12">
         <v>2.3028785982478098E-2</v>
       </c>
-      <c r="BA2" s="102">
+      <c r="BA2" s="12">
         <v>0.13436641820321696</v>
       </c>
-      <c r="BB2" s="102">
+      <c r="BB2" s="12">
         <v>0.17258176757132918</v>
       </c>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102">
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12">
         <v>3.1012122920778123E-3</v>
       </c>
-      <c r="BE2" s="102">
+      <c r="BE2" s="12">
         <v>0.16546762589928057</v>
       </c>
-      <c r="BF2" s="102">
+      <c r="BF2" s="12">
         <v>0.20506419400855921</v>
       </c>
-      <c r="BG2" s="102">
+      <c r="BG2" s="12">
         <v>4.3365695792880264E-2</v>
       </c>
-      <c r="BH2" s="102">
+      <c r="BH2" s="12">
         <v>1.592356687898089E-3</v>
       </c>
-      <c r="BI2" s="102">
+      <c r="BI2" s="12">
         <v>1.3384994716449455E-3</v>
       </c>
-      <c r="BJ2" s="102">
+      <c r="BJ2" s="12">
         <v>1.5939666252511668</v>
       </c>
-      <c r="BK2" s="102"/>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102">
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12">
         <v>0.84539856881344644</v>
       </c>
-      <c r="BN2" s="102">
+      <c r="BN2" s="12">
         <v>2.3028785982478098E-2</v>
       </c>
-      <c r="BO2" s="102">
+      <c r="BO2" s="12">
         <v>0.26873283640643392</v>
       </c>
-      <c r="BP2" s="102">
+      <c r="BP2" s="12">
         <v>0.17258176757132918</v>
       </c>
-      <c r="BQ2" s="102"/>
-      <c r="BR2" s="102">
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12">
         <v>3.1012122920778123E-3</v>
       </c>
-      <c r="BS2" s="102">
+      <c r="BS2" s="12">
         <v>0.16546762589928057</v>
       </c>
-      <c r="BT2" s="102">
+      <c r="BT2" s="12">
         <v>0.20506419400855921</v>
       </c>
-      <c r="BU2" s="102">
+      <c r="BU2" s="12">
         <v>8.6731391585760528E-2</v>
       </c>
-      <c r="BV2" s="102">
+      <c r="BV2" s="12">
         <v>3.1847133757961781E-3</v>
       </c>
       <c r="BW2" s="35">
@@ -14171,13 +14101,13 @@
       <c r="A3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="36" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="37" t="s">
@@ -14187,116 +14117,116 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="G3" s="34"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="17"/>
       <c r="P3" s="15">
         <v>56</v>
       </c>
-      <c r="Q3" s="105"/>
+      <c r="Q3" s="16"/>
       <c r="R3" s="18"/>
-      <c r="S3" s="105">
+      <c r="S3" s="16">
         <v>90</v>
       </c>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="106"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="105"/>
+      <c r="AA3" s="16"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="15"/>
-      <c r="AD3" s="105"/>
+      <c r="AD3" s="16"/>
       <c r="AE3" s="18"/>
       <c r="AF3" s="19" t="s">
         <v>60</v>
       </c>
       <c r="AG3" s="19"/>
       <c r="AH3" s="11"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="102"/>
-      <c r="AU3" s="102"/>
-      <c r="AV3" s="102"/>
-      <c r="AW3" s="102"/>
-      <c r="AX3" s="102"/>
-      <c r="AY3" s="102"/>
-      <c r="AZ3" s="102"/>
-      <c r="BA3" s="102"/>
-      <c r="BB3" s="102"/>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="102"/>
-      <c r="BK3" s="102"/>
-      <c r="BL3" s="102"/>
-      <c r="BM3" s="102"/>
-      <c r="BN3" s="102"/>
-      <c r="BO3" s="102"/>
-      <c r="BP3" s="102"/>
-      <c r="BQ3" s="102"/>
-      <c r="BR3" s="102"/>
-      <c r="BS3" s="102"/>
-      <c r="BT3" s="102"/>
-      <c r="BU3" s="102"/>
-      <c r="BV3" s="102"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
       <c r="BW3" s="35"/>
     </row>
     <row r="4" spans="1:75" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="37"/>
       <c r="F4" s="10">
         <v>0.86</v>
       </c>
       <c r="G4" s="34"/>
-      <c r="H4" s="102">
+      <c r="H4" s="12">
         <v>1.86</v>
       </c>
-      <c r="I4" s="102">
+      <c r="I4" s="12">
         <v>0.05</v>
       </c>
-      <c r="J4" s="103">
+      <c r="J4" s="13">
         <v>5225</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="14">
         <v>2.6881720430107527E-2</v>
       </c>
       <c r="L4" s="15">
         <v>1.5</v>
       </c>
-      <c r="M4" s="105">
+      <c r="M4" s="16">
         <v>0.1</v>
       </c>
-      <c r="N4" s="105">
+      <c r="N4" s="16">
         <v>4503</v>
       </c>
       <c r="O4" s="17">
@@ -14305,85 +14235,85 @@
       <c r="P4" s="15">
         <v>55</v>
       </c>
-      <c r="Q4" s="105">
+      <c r="Q4" s="16">
         <v>2</v>
       </c>
       <c r="R4" s="18"/>
-      <c r="S4" s="105">
+      <c r="S4" s="16">
         <v>80</v>
       </c>
-      <c r="T4" s="105"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106">
+      <c r="T4" s="16"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21">
         <v>4</v>
       </c>
-      <c r="Y4" s="106"/>
+      <c r="Y4" s="21"/>
       <c r="Z4" s="15"/>
-      <c r="AA4" s="105"/>
+      <c r="AA4" s="16"/>
       <c r="AB4" s="18"/>
       <c r="AC4" s="15"/>
-      <c r="AD4" s="105"/>
+      <c r="AD4" s="16"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="19" t="s">
         <v>66</v>
       </c>
       <c r="AG4" s="19"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="102"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="102"/>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
-      <c r="BJ4" s="102"/>
-      <c r="BK4" s="102"/>
-      <c r="BL4" s="102"/>
-      <c r="BM4" s="102"/>
-      <c r="BN4" s="102"/>
-      <c r="BO4" s="102"/>
-      <c r="BP4" s="102"/>
-      <c r="BQ4" s="102"/>
-      <c r="BR4" s="102"/>
-      <c r="BS4" s="102"/>
-      <c r="BT4" s="102"/>
-      <c r="BU4" s="102"/>
-      <c r="BV4" s="102"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12"/>
       <c r="BW4" s="35"/>
     </row>
     <row r="5" spans="1:75" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="32" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -14395,51 +14325,51 @@
       <c r="G5" s="34">
         <v>0.50738925282880565</v>
       </c>
-      <c r="H5" s="102">
+      <c r="H5" s="12">
         <v>1.25</v>
       </c>
-      <c r="I5" s="102">
+      <c r="I5" s="12">
         <v>0.05</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104">
+      <c r="J5" s="13"/>
+      <c r="K5" s="14">
         <v>0.04</v>
       </c>
       <c r="L5" s="15">
         <v>0.95</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="16">
         <v>0.1</v>
       </c>
-      <c r="N5" s="105"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="17">
         <v>0.10526315789473685</v>
       </c>
       <c r="P5" s="15">
         <v>42</v>
       </c>
-      <c r="Q5" s="105">
+      <c r="Q5" s="16">
         <v>2</v>
       </c>
       <c r="R5" s="18"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
       <c r="Z5" s="15">
         <v>180</v>
       </c>
-      <c r="AA5" s="105">
+      <c r="AA5" s="16">
         <v>15</v>
       </c>
       <c r="AB5" s="18"/>
       <c r="AC5" s="15">
         <v>190</v>
       </c>
-      <c r="AD5" s="105">
+      <c r="AD5" s="16">
         <v>15</v>
       </c>
       <c r="AE5" s="18"/>
@@ -14450,107 +14380,107 @@
       <c r="AH5" s="11">
         <v>54.55</v>
       </c>
-      <c r="AI5" s="102">
+      <c r="AI5" s="12">
         <v>2.02</v>
       </c>
-      <c r="AJ5" s="102">
+      <c r="AJ5" s="12">
         <v>14.5</v>
       </c>
-      <c r="AK5" s="102">
+      <c r="AK5" s="12">
         <v>12.17</v>
       </c>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102">
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12">
         <v>0.27</v>
       </c>
-      <c r="AN5" s="102">
+      <c r="AN5" s="12">
         <v>2.95</v>
       </c>
-      <c r="AO5" s="102">
+      <c r="AO5" s="12">
         <v>6.96</v>
       </c>
-      <c r="AP5" s="102">
+      <c r="AP5" s="12">
         <v>3.95</v>
       </c>
-      <c r="AQ5" s="102">
+      <c r="AQ5" s="12">
         <v>1.28</v>
       </c>
-      <c r="AR5" s="102">
+      <c r="AR5" s="12">
         <v>1.02</v>
       </c>
-      <c r="AS5" s="102">
+      <c r="AS5" s="12">
         <v>99.669999999999987</v>
       </c>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102">
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12">
         <v>0.67841771052078004</v>
       </c>
-      <c r="AV5" s="102">
+      <c r="AV5" s="12">
         <v>0.50738925282880565</v>
       </c>
-      <c r="AW5" s="102"/>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102">
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12">
         <v>0.90780495922782478</v>
       </c>
-      <c r="AZ5" s="102">
+      <c r="AZ5" s="12">
         <v>2.5281602002503126E-2</v>
       </c>
-      <c r="BA5" s="102">
+      <c r="BA5" s="12">
         <v>0.14221263240486468</v>
       </c>
-      <c r="BB5" s="102">
+      <c r="BB5" s="12">
         <v>0.16938065414057066</v>
       </c>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102">
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12">
         <v>3.8060332675500428E-3</v>
       </c>
-      <c r="BE5" s="102">
+      <c r="BE5" s="12">
         <v>7.3182833043909698E-2</v>
       </c>
-      <c r="BF5" s="102">
+      <c r="BF5" s="12">
         <v>0.12410841654778888</v>
       </c>
-      <c r="BG5" s="102">
+      <c r="BG5" s="12">
         <v>6.3915857605177998E-2</v>
       </c>
-      <c r="BH5" s="102">
+      <c r="BH5" s="12">
         <v>1.3588110403397028E-2</v>
       </c>
-      <c r="BI5" s="102">
+      <c r="BI5" s="12">
         <v>7.1856287425149708E-3</v>
       </c>
-      <c r="BJ5" s="102">
+      <c r="BJ5" s="12">
         <v>1.5232810986435867</v>
       </c>
-      <c r="BL5" s="102"/>
-      <c r="BM5" s="102">
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12">
         <v>0.90780495922782478</v>
       </c>
-      <c r="BN5" s="102">
+      <c r="BN5" s="12">
         <v>2.5281602002503126E-2</v>
       </c>
-      <c r="BO5" s="102">
+      <c r="BO5" s="12">
         <v>0.28442526480972935</v>
       </c>
-      <c r="BP5" s="102">
+      <c r="BP5" s="12">
         <v>0.16938065414057066</v>
       </c>
-      <c r="BQ5" s="102"/>
-      <c r="BR5" s="102">
+      <c r="BQ5" s="12"/>
+      <c r="BR5" s="12">
         <v>3.8060332675500428E-3</v>
       </c>
-      <c r="BS5" s="102">
+      <c r="BS5" s="12">
         <v>7.3182833043909698E-2</v>
       </c>
-      <c r="BT5" s="102">
+      <c r="BT5" s="12">
         <v>0.12410841654778888</v>
       </c>
-      <c r="BU5" s="102">
+      <c r="BU5" s="12">
         <v>0.127831715210356</v>
       </c>
-      <c r="BV5" s="102">
+      <c r="BV5" s="12">
         <v>2.7176220806794056E-2</v>
       </c>
       <c r="BW5" s="35">
@@ -14561,13 +14491,13 @@
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="36" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="37" t="s">
@@ -14579,25 +14509,25 @@
       <c r="G6" s="34">
         <v>0.53080798161757692</v>
       </c>
-      <c r="H6" s="102">
+      <c r="H6" s="12">
         <v>1.08</v>
       </c>
-      <c r="I6" s="102">
+      <c r="I6" s="12">
         <v>0.11</v>
       </c>
-      <c r="J6" s="103">
+      <c r="J6" s="13">
         <v>5209</v>
       </c>
-      <c r="K6" s="104">
+      <c r="K6" s="14">
         <v>0.10185185185185185</v>
       </c>
       <c r="L6" s="15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="16">
         <v>0.17</v>
       </c>
-      <c r="N6" s="105">
+      <c r="N6" s="16">
         <v>4503</v>
       </c>
       <c r="O6" s="17">
@@ -14606,30 +14536,30 @@
       <c r="P6" s="15">
         <v>40.799999999999997</v>
       </c>
-      <c r="Q6" s="105">
+      <c r="Q6" s="16">
         <v>4.0999999999999996</v>
       </c>
       <c r="R6" s="18">
         <v>1633</v>
       </c>
-      <c r="S6" s="105">
+      <c r="S6" s="16">
         <v>70.3</v>
       </c>
-      <c r="T6" s="105"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106">
+      <c r="T6" s="16"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21">
         <v>6.9</v>
       </c>
-      <c r="Y6" s="106">
+      <c r="Y6" s="21">
         <v>3534</v>
       </c>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="105"/>
+      <c r="AA6" s="16"/>
       <c r="AB6" s="18"/>
       <c r="AC6" s="15"/>
-      <c r="AD6" s="105"/>
+      <c r="AD6" s="16"/>
       <c r="AE6" s="18"/>
       <c r="AF6" s="19" t="s">
         <v>49</v>
@@ -14638,103 +14568,103 @@
       <c r="AH6" s="11">
         <v>59.1</v>
       </c>
-      <c r="AI6" s="102">
+      <c r="AI6" s="12">
         <v>0.94</v>
       </c>
-      <c r="AJ6" s="102">
+      <c r="AJ6" s="12">
         <v>17.8</v>
       </c>
-      <c r="AK6" s="102">
+      <c r="AK6" s="12">
         <v>6.43</v>
       </c>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="102">
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12">
         <v>3.05</v>
       </c>
-      <c r="AO6" s="102">
+      <c r="AO6" s="12">
         <v>6.85</v>
       </c>
-      <c r="AP6" s="102">
+      <c r="AP6" s="12">
         <v>4.2699999999999996</v>
       </c>
-      <c r="AQ6" s="102">
+      <c r="AQ6" s="12">
         <v>1.08</v>
       </c>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="102">
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12">
         <v>99.52</v>
       </c>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102">
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12">
         <v>0.74332445973082573</v>
       </c>
-      <c r="AV6" s="102">
+      <c r="AV6" s="12">
         <v>0.53080798161757692</v>
       </c>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102">
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12">
         <v>0.98352471293060406</v>
       </c>
-      <c r="AZ6" s="102">
+      <c r="AZ6" s="12">
         <v>1.1764705882352939E-2</v>
       </c>
-      <c r="BA6" s="102">
+      <c r="BA6" s="12">
         <v>0.17457826598666146</v>
       </c>
-      <c r="BB6" s="102">
+      <c r="BB6" s="12">
         <v>8.9491997216423105E-2</v>
       </c>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="102">
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="12">
         <v>7.5663607045398151E-2</v>
       </c>
-      <c r="BF6" s="102">
+      <c r="BF6" s="12">
         <v>0.12214693295292439</v>
       </c>
-      <c r="BG6" s="102">
+      <c r="BG6" s="12">
         <v>6.9093851132686082E-2</v>
       </c>
-      <c r="BH6" s="102">
+      <c r="BH6" s="12">
         <v>1.1464968152866243E-2</v>
       </c>
-      <c r="BI6" s="102">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="102">
+      <c r="BI6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="12">
         <v>1.5377290412999165</v>
       </c>
-      <c r="BL6" s="102"/>
-      <c r="BM6" s="102">
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12">
         <v>0.98352471293060406</v>
       </c>
-      <c r="BN6" s="102">
+      <c r="BN6" s="12">
         <v>1.1764705882352939E-2</v>
       </c>
-      <c r="BO6" s="102">
+      <c r="BO6" s="12">
         <v>0.34915653197332291</v>
       </c>
-      <c r="BP6" s="102">
+      <c r="BP6" s="12">
         <v>8.9491997216423105E-2</v>
       </c>
-      <c r="BQ6" s="102"/>
-      <c r="BR6" s="102">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="102">
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="12">
         <v>7.5663607045398151E-2</v>
       </c>
-      <c r="BT6" s="102">
+      <c r="BT6" s="12">
         <v>0.12214693295292439</v>
       </c>
-      <c r="BU6" s="102">
+      <c r="BU6" s="12">
         <v>0.13818770226537216</v>
       </c>
-      <c r="BV6" s="102">
+      <c r="BV6" s="12">
         <v>2.2929936305732486E-2</v>
       </c>
       <c r="BW6" s="35">
@@ -14745,13 +14675,13 @@
       <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="32" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -14763,49 +14693,49 @@
       <c r="G7" s="34">
         <v>0.50891778880721517</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="12">
         <v>1.07</v>
       </c>
-      <c r="I7" s="102">
+      <c r="I7" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104">
+      <c r="J7" s="13"/>
+      <c r="K7" s="14">
         <v>6.5420560747663559E-2</v>
       </c>
       <c r="L7" s="15">
         <v>0.79</v>
       </c>
-      <c r="M7" s="105">
+      <c r="M7" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N7" s="105"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="17">
         <v>8.8607594936708861E-2</v>
       </c>
       <c r="P7" s="15">
         <v>42.34</v>
       </c>
-      <c r="Q7" s="105">
+      <c r="Q7" s="16">
         <v>2.77</v>
       </c>
       <c r="R7" s="18"/>
-      <c r="S7" s="105">
+      <c r="S7" s="16">
         <v>62.32</v>
       </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105">
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16">
         <v>0.42</v>
       </c>
-      <c r="Y7" s="105"/>
+      <c r="Y7" s="16"/>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="105"/>
+      <c r="AA7" s="16"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="15"/>
-      <c r="AD7" s="105"/>
+      <c r="AD7" s="16"/>
       <c r="AE7" s="18"/>
       <c r="AF7" s="19" t="s">
         <v>67</v>
@@ -14814,108 +14744,108 @@
       <c r="AH7" s="11">
         <v>57.41</v>
       </c>
-      <c r="AI7" s="102">
+      <c r="AI7" s="12">
         <v>0.97</v>
       </c>
-      <c r="AJ7" s="102">
+      <c r="AJ7" s="12">
         <v>16.79</v>
       </c>
-      <c r="AK7" s="102">
+      <c r="AK7" s="12">
         <v>4.79</v>
       </c>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="102">
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AN7" s="102">
+      <c r="AN7" s="12">
         <v>3.12</v>
       </c>
-      <c r="AO7" s="102">
+      <c r="AO7" s="12">
         <v>6.83</v>
       </c>
-      <c r="AP7" s="102">
+      <c r="AP7" s="12">
         <v>3.9</v>
       </c>
-      <c r="AQ7" s="102">
+      <c r="AQ7" s="12">
         <v>1.25</v>
       </c>
-      <c r="AR7" s="102">
+      <c r="AR7" s="12">
         <v>0.3</v>
       </c>
-      <c r="AS7" s="102">
+      <c r="AS7" s="12">
         <v>95.5</v>
       </c>
-      <c r="AT7" s="125"/>
-      <c r="AU7" s="102">
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="12">
         <v>0.74620919839024646</v>
       </c>
-      <c r="AV7" s="102">
+      <c r="AV7" s="12">
         <v>0.50891778880721517</v>
       </c>
-      <c r="AW7" s="102"/>
-      <c r="AX7" s="102"/>
-      <c r="AY7" s="102">
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12">
         <v>0.95540023298385746</v>
       </c>
-      <c r="AZ7" s="102">
+      <c r="AZ7" s="12">
         <v>1.2140175219023778E-2</v>
       </c>
-      <c r="BA7" s="102">
+      <c r="BA7" s="12">
         <v>0.1646724205570812</v>
       </c>
-      <c r="BB7" s="102">
+      <c r="BB7" s="12">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="BC7" s="102"/>
-      <c r="BD7" s="102">
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12">
         <v>1.9734987313222443E-3</v>
       </c>
-      <c r="BE7" s="102">
+      <c r="BE7" s="12">
         <v>7.7400148846440087E-2</v>
       </c>
-      <c r="BF7" s="102">
+      <c r="BF7" s="12">
         <v>0.12179029957203995</v>
       </c>
-      <c r="BG7" s="102">
+      <c r="BG7" s="12">
         <v>6.3106796116504854E-2</v>
       </c>
-      <c r="BH7" s="102">
+      <c r="BH7" s="12">
         <v>1.3269639065817409E-2</v>
       </c>
-      <c r="BI7" s="102">
+      <c r="BI7" s="12">
         <v>2.1134202183867561E-3</v>
       </c>
-      <c r="BJ7" s="102">
+      <c r="BJ7" s="12">
         <v>1.4764198777587534</v>
       </c>
-      <c r="BK7" s="102"/>
-      <c r="BL7" s="102"/>
-      <c r="BM7" s="102">
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12">
         <v>0.95540023298385746</v>
       </c>
-      <c r="BN7" s="102">
+      <c r="BN7" s="12">
         <v>1.2140175219023778E-2</v>
       </c>
-      <c r="BO7" s="102">
+      <c r="BO7" s="12">
         <v>0.3293448411141624</v>
       </c>
-      <c r="BP7" s="102">
+      <c r="BP7" s="12">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="BQ7" s="102"/>
-      <c r="BR7" s="102">
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12">
         <v>1.9734987313222443E-3</v>
       </c>
-      <c r="BS7" s="102">
+      <c r="BS7" s="12">
         <v>7.7400148846440087E-2</v>
       </c>
-      <c r="BT7" s="102">
+      <c r="BT7" s="12">
         <v>0.12179029957203995</v>
       </c>
-      <c r="BU7" s="102">
+      <c r="BU7" s="12">
         <v>0.12621359223300971</v>
       </c>
-      <c r="BV7" s="102">
+      <c r="BV7" s="12">
         <v>2.6539278131634817E-2</v>
       </c>
       <c r="BW7" s="35">
@@ -14926,13 +14856,13 @@
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="32" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -14944,49 +14874,49 @@
       <c r="G8" s="34">
         <v>0.42511813048383329</v>
       </c>
-      <c r="H8" s="102">
+      <c r="H8" s="12">
         <v>1.46</v>
       </c>
-      <c r="I8" s="102">
+      <c r="I8" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104">
+      <c r="J8" s="13"/>
+      <c r="K8" s="14">
         <v>4.7945205479452059E-2</v>
       </c>
       <c r="L8" s="15">
         <v>0.89</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="105"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="17">
         <v>7.8651685393258439E-2</v>
       </c>
       <c r="P8" s="15">
         <v>52.05</v>
       </c>
-      <c r="Q8" s="105">
+      <c r="Q8" s="16">
         <v>2.85</v>
       </c>
       <c r="R8" s="18"/>
-      <c r="S8" s="105">
+      <c r="S8" s="16">
         <v>69.209999999999994</v>
       </c>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105">
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16">
         <v>0.52</v>
       </c>
-      <c r="Y8" s="105"/>
+      <c r="Y8" s="16"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="105"/>
+      <c r="AA8" s="16"/>
       <c r="AB8" s="18"/>
       <c r="AC8" s="15"/>
-      <c r="AD8" s="105"/>
+      <c r="AD8" s="16"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="19" t="s">
         <v>68</v>
@@ -14995,108 +14925,108 @@
       <c r="AH8" s="11">
         <v>61.58</v>
       </c>
-      <c r="AI8" s="102">
+      <c r="AI8" s="12">
         <v>1.07</v>
       </c>
-      <c r="AJ8" s="102">
+      <c r="AJ8" s="12">
         <v>16.7</v>
       </c>
-      <c r="AK8" s="102">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="102">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="102">
+      <c r="AK8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="12">
         <v>2.94</v>
       </c>
-      <c r="AO8" s="102">
+      <c r="AO8" s="12">
         <v>7.51</v>
       </c>
-      <c r="AP8" s="102">
+      <c r="AP8" s="12">
         <v>3.06</v>
       </c>
-      <c r="AQ8" s="102">
+      <c r="AQ8" s="12">
         <v>1.39</v>
       </c>
-      <c r="AR8" s="102">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="102">
+      <c r="AR8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="12">
         <v>94.25</v>
       </c>
-      <c r="AT8" s="125"/>
-      <c r="AU8" s="102">
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="12">
         <v>0.79497319669049726</v>
       </c>
-      <c r="AV8" s="102">
+      <c r="AV8" s="12">
         <v>0.42511813048383329</v>
       </c>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="102"/>
-      <c r="AY8" s="102">
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12">
         <v>1.0247961391246463</v>
       </c>
-      <c r="AZ8" s="102">
+      <c r="AZ8" s="12">
         <v>1.3391739674593242E-2</v>
       </c>
-      <c r="BA8" s="102">
+      <c r="BA8" s="12">
         <v>0.16378972145939585</v>
       </c>
-      <c r="BB8" s="102">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="102"/>
-      <c r="BD8" s="102">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="102">
+      <c r="BB8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="12">
         <v>7.2934755643760854E-2</v>
       </c>
-      <c r="BF8" s="102">
+      <c r="BF8" s="12">
         <v>0.13391583452211128</v>
       </c>
-      <c r="BG8" s="102">
+      <c r="BG8" s="12">
         <v>4.9514563106796118E-2</v>
       </c>
-      <c r="BH8" s="102">
+      <c r="BH8" s="12">
         <v>1.4755838641188958E-2</v>
       </c>
-      <c r="BI8" s="102">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="102">
+      <c r="BI8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="12">
         <v>1.4730985921724928</v>
       </c>
-      <c r="BK8" s="102"/>
-      <c r="BL8" s="102"/>
-      <c r="BM8" s="102">
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12">
         <v>1.0247961391246463</v>
       </c>
-      <c r="BN8" s="102">
+      <c r="BN8" s="12">
         <v>1.3391739674593242E-2</v>
       </c>
-      <c r="BO8" s="102">
+      <c r="BO8" s="12">
         <v>0.32757944291879171</v>
       </c>
-      <c r="BP8" s="102">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="102"/>
-      <c r="BR8" s="102">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="102">
+      <c r="BP8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="12">
         <v>7.2934755643760854E-2</v>
       </c>
-      <c r="BT8" s="102">
+      <c r="BT8" s="12">
         <v>0.13391583452211128</v>
       </c>
-      <c r="BU8" s="102">
+      <c r="BU8" s="12">
         <v>9.9029126213592236E-2</v>
       </c>
-      <c r="BV8" s="102">
+      <c r="BV8" s="12">
         <v>2.9511677282377916E-2</v>
       </c>
       <c r="BW8" s="35">
@@ -15107,13 +15037,13 @@
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -15123,99 +15053,99 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="G9" s="34"/>
-      <c r="H9" s="102">
+      <c r="H9" s="12">
         <v>1.61</v>
       </c>
-      <c r="I9" s="102">
+      <c r="I9" s="12">
         <v>0.05</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104">
+      <c r="J9" s="13"/>
+      <c r="K9" s="14">
         <v>3.1055900621118012E-2</v>
       </c>
       <c r="L9" s="15">
         <v>1.73</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="16">
         <v>0.02</v>
       </c>
-      <c r="N9" s="105"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="17">
         <v>1.1560693641618498E-2</v>
       </c>
       <c r="P9" s="15">
         <v>55</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="16">
         <v>2</v>
       </c>
       <c r="R9" s="18"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16">
         <v>100</v>
       </c>
-      <c r="U9" s="106">
+      <c r="U9" s="21">
         <v>2</v>
       </c>
-      <c r="V9" s="105">
+      <c r="V9" s="16">
         <v>56</v>
       </c>
-      <c r="W9" s="106">
+      <c r="W9" s="21">
         <v>4</v>
       </c>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="105"/>
+      <c r="AA9" s="16"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="105"/>
+      <c r="AD9" s="16"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="19" t="s">
         <v>63</v>
       </c>
       <c r="AG9" s="19"/>
       <c r="AH9" s="11"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
-      <c r="BJ9" s="102"/>
-      <c r="BK9" s="102"/>
-      <c r="BL9" s="102"/>
-      <c r="BM9" s="102"/>
-      <c r="BN9" s="102"/>
-      <c r="BO9" s="102"/>
-      <c r="BP9" s="102"/>
-      <c r="BQ9" s="102"/>
-      <c r="BR9" s="102"/>
-      <c r="BS9" s="102"/>
-      <c r="BT9" s="102"/>
-      <c r="BU9" s="102"/>
-      <c r="BV9" s="102"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="12"/>
+      <c r="BT9" s="12"/>
+      <c r="BU9" s="12"/>
+      <c r="BV9" s="12"/>
       <c r="BW9" s="35"/>
     </row>
     <row r="10" spans="1:75" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -15225,10 +15155,10 @@
       <c r="B10" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="103" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="52" t="s">
@@ -15400,8 +15330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F3C50D-B1DF-E247-95AB-3AD4B1033E27}">
   <dimension ref="A1:BY36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15634,20 +15564,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:77" s="132" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="36" t="s">
         <v>216</v>
       </c>
       <c r="F2" s="10">
@@ -15656,99 +15586,99 @@
       <c r="G2" s="34">
         <v>0.263039725111406</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="17"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
       <c r="S2" s="15"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
       <c r="Y2" s="62"/>
-      <c r="Z2" s="105">
+      <c r="Z2" s="16">
         <v>265</v>
       </c>
-      <c r="AA2" s="106" t="s">
+      <c r="AA2" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB2" s="15"/>
-      <c r="AC2" s="105"/>
+      <c r="AC2" s="117"/>
       <c r="AD2" s="18"/>
-      <c r="AE2" s="105">
+      <c r="AE2" s="16">
         <v>265</v>
       </c>
-      <c r="AF2" s="105">
+      <c r="AF2" s="16">
         <v>30</v>
       </c>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="139"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="113"/>
       <c r="AI2" s="19"/>
       <c r="AJ2" s="11"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="102"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
-      <c r="BJ2" s="102"/>
-      <c r="BK2" s="102"/>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102"/>
-      <c r="BN2" s="102"/>
-      <c r="BO2" s="102"/>
-      <c r="BP2" s="102"/>
-      <c r="BQ2" s="102"/>
-      <c r="BR2" s="102"/>
-      <c r="BS2" s="102"/>
-      <c r="BT2" s="102"/>
-      <c r="BU2" s="102"/>
-      <c r="BV2" s="102"/>
-      <c r="BW2" s="102"/>
-      <c r="BX2" s="102"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
       <c r="BY2" s="35"/>
     </row>
     <row r="3" spans="1:77" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="36" t="s">
         <v>145</v>
       </c>
       <c r="F3" s="10">
@@ -15757,153 +15687,153 @@
       <c r="G3" s="34">
         <v>0.4887569934165874</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="18"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="15"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
       <c r="Y3" s="62"/>
-      <c r="Z3" s="105">
+      <c r="Z3" s="16">
         <v>281</v>
       </c>
-      <c r="AA3" s="106" t="s">
+      <c r="AA3" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB3" s="15">
         <v>284</v>
       </c>
-      <c r="AC3" s="105">
+      <c r="AC3" s="117">
         <v>5</v>
       </c>
       <c r="AD3" s="18"/>
-      <c r="AE3" s="105">
+      <c r="AE3" s="16">
         <v>281</v>
       </c>
-      <c r="AF3" s="105">
+      <c r="AF3" s="16">
         <v>6</v>
       </c>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="139" t="s">
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="113" t="s">
         <v>140</v>
       </c>
       <c r="AI3" s="19"/>
       <c r="AJ3" s="11">
         <v>46</v>
       </c>
-      <c r="AK3" s="102">
+      <c r="AK3" s="12">
         <v>3.17</v>
       </c>
-      <c r="AL3" s="102">
+      <c r="AL3" s="12">
         <v>15.2</v>
       </c>
-      <c r="AM3" s="102">
+      <c r="AM3" s="12">
         <v>12</v>
       </c>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102">
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12">
         <v>0.23</v>
       </c>
-      <c r="AP3" s="102">
+      <c r="AP3" s="12">
         <v>9.06</v>
       </c>
-      <c r="AQ3" s="102">
+      <c r="AQ3" s="12">
         <v>8.2200000000000006</v>
       </c>
-      <c r="AR3" s="102">
+      <c r="AR3" s="12">
         <v>4.33</v>
       </c>
-      <c r="AS3" s="102">
+      <c r="AS3" s="12">
         <v>1.32</v>
       </c>
-      <c r="AT3" s="102">
+      <c r="AT3" s="12">
         <v>0.27</v>
       </c>
-      <c r="AU3" s="102">
+      <c r="AU3" s="12">
         <v>99.8</v>
       </c>
-      <c r="AV3" s="102"/>
-      <c r="AW3" s="102">
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12">
         <v>0.58543390193776523</v>
       </c>
-      <c r="AX3" s="102">
+      <c r="AX3" s="12">
         <v>0.4887569934165874</v>
       </c>
-      <c r="AY3" s="102"/>
-      <c r="AZ3" s="102"/>
-      <c r="BA3" s="102">
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12">
         <v>0.76551838908304204</v>
       </c>
-      <c r="BB3" s="102">
+      <c r="BB3" s="12">
         <v>3.9674593241551939E-2</v>
       </c>
-      <c r="BC3" s="102">
+      <c r="BC3" s="12">
         <v>0.14907806983130639</v>
       </c>
-      <c r="BD3" s="102">
+      <c r="BD3" s="12">
         <v>0.16701461377870566</v>
       </c>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102">
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12">
         <v>3.2421764871722585E-3</v>
       </c>
-      <c r="BG3" s="102">
+      <c r="BG3" s="12">
         <v>0.22475812453485489</v>
       </c>
-      <c r="BH3" s="102">
+      <c r="BH3" s="12">
         <v>0.14657631954350928</v>
       </c>
-      <c r="BI3" s="102">
+      <c r="BI3" s="12">
         <v>7.0064724919093851E-2</v>
       </c>
-      <c r="BJ3" s="102">
+      <c r="BJ3" s="12">
         <v>1.4012738853503185E-2</v>
       </c>
-      <c r="BK3" s="102">
+      <c r="BK3" s="12">
         <v>1.9020781965480805E-3</v>
       </c>
-      <c r="BL3" s="102">
+      <c r="BL3" s="12">
         <v>1.5799397502727393</v>
       </c>
-      <c r="BM3" s="102"/>
-      <c r="BN3" s="102"/>
-      <c r="BO3" s="102">
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12">
         <v>0.76551838908304204</v>
       </c>
-      <c r="BP3" s="102">
+      <c r="BP3" s="12">
         <v>3.9674593241551939E-2</v>
       </c>
-      <c r="BQ3" s="102">
+      <c r="BQ3" s="12">
         <v>0.29815613966261278</v>
       </c>
-      <c r="BR3" s="102">
+      <c r="BR3" s="12">
         <v>0.16701461377870566</v>
       </c>
-      <c r="BS3" s="102"/>
-      <c r="BT3" s="102">
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12">
         <v>3.2421764871722585E-3</v>
       </c>
-      <c r="BU3" s="102">
+      <c r="BU3" s="12">
         <v>0.22475812453485489</v>
       </c>
-      <c r="BV3" s="102">
+      <c r="BV3" s="12">
         <v>0.14657631954350928</v>
       </c>
-      <c r="BW3" s="102">
+      <c r="BW3" s="12">
         <v>0.1401294498381877</v>
       </c>
-      <c r="BX3" s="102">
+      <c r="BX3" s="12">
         <v>2.802547770700637E-2</v>
       </c>
       <c r="BY3" s="35">
@@ -15914,16 +15844,16 @@
       <c r="A4" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="36" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="10">
@@ -15932,153 +15862,153 @@
       <c r="G4" s="34">
         <v>0.84064893748481084</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="15"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
       <c r="S4" s="15"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
       <c r="Y4" s="62"/>
-      <c r="Z4" s="105">
+      <c r="Z4" s="16">
         <v>143</v>
       </c>
-      <c r="AA4" s="106" t="s">
+      <c r="AA4" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB4" s="15">
         <v>207</v>
       </c>
-      <c r="AC4" s="105">
+      <c r="AC4" s="117">
         <v>22</v>
       </c>
       <c r="AD4" s="18"/>
-      <c r="AE4" s="105">
+      <c r="AE4" s="16">
         <v>143</v>
       </c>
-      <c r="AF4" s="105">
+      <c r="AF4" s="16">
         <v>10</v>
       </c>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="139" t="s">
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI4" s="19"/>
       <c r="AJ4" s="11">
         <v>68.957142857142856</v>
       </c>
-      <c r="AK4" s="102">
+      <c r="AK4" s="12">
         <v>0.5</v>
       </c>
-      <c r="AL4" s="102">
+      <c r="AL4" s="12">
         <v>15.760000000000002</v>
       </c>
-      <c r="AM4" s="102">
+      <c r="AM4" s="12">
         <v>0.93571428571428583</v>
       </c>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102">
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12">
         <v>0.49285714285714288</v>
       </c>
-      <c r="AP4" s="102">
+      <c r="AP4" s="12">
         <v>0.24571428571428572</v>
       </c>
-      <c r="AQ4" s="102">
+      <c r="AQ4" s="12">
         <v>1.4542857142857142</v>
       </c>
-      <c r="AR4" s="102">
+      <c r="AR4" s="12">
         <v>4.2271428571428578</v>
       </c>
-      <c r="AS4" s="102">
+      <c r="AS4" s="12">
         <v>7.3514285714285705</v>
       </c>
-      <c r="AT4" s="102">
+      <c r="AT4" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AU4" s="102">
+      <c r="AU4" s="12">
         <v>100.21428571428572</v>
       </c>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102">
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12">
         <v>0.80524921389779802</v>
       </c>
-      <c r="AX4" s="102">
+      <c r="AX4" s="12">
         <v>0.84064893748481084</v>
       </c>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102">
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12">
         <v>1.147564367734113</v>
       </c>
-      <c r="BB4" s="102">
+      <c r="BB4" s="12">
         <v>6.25782227784731E-3</v>
       </c>
-      <c r="BC4" s="102">
+      <c r="BC4" s="12">
         <v>0.15457041977245978</v>
       </c>
-      <c r="BD4" s="102">
+      <c r="BD4" s="12">
         <v>1.3023163336315738E-2</v>
       </c>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="102">
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12">
         <v>6.9475210439405525E-3</v>
       </c>
-      <c r="BG4" s="102">
+      <c r="BG4" s="12">
         <v>6.095616117943084E-3</v>
       </c>
-      <c r="BH4" s="102">
+      <c r="BH4" s="12">
         <v>2.5932341552883632E-2</v>
       </c>
-      <c r="BI4" s="102">
+      <c r="BI4" s="12">
         <v>6.8400369856680548E-2</v>
       </c>
-      <c r="BJ4" s="102">
+      <c r="BJ4" s="12">
         <v>7.8040643008795874E-2</v>
       </c>
-      <c r="BK4" s="102">
+      <c r="BK4" s="12">
         <v>5.8370653650681827E-4</v>
       </c>
-      <c r="BL4" s="102">
+      <c r="BL4" s="12">
         <v>1.50683226470098</v>
       </c>
-      <c r="BM4" s="102"/>
-      <c r="BN4" s="102"/>
-      <c r="BO4" s="102">
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12">
         <v>1.147564367734113</v>
       </c>
-      <c r="BP4" s="102">
+      <c r="BP4" s="12">
         <v>6.25782227784731E-3</v>
       </c>
-      <c r="BQ4" s="102">
+      <c r="BQ4" s="12">
         <v>0.30914083954491955</v>
       </c>
-      <c r="BR4" s="102">
+      <c r="BR4" s="12">
         <v>1.3023163336315738E-2</v>
       </c>
-      <c r="BS4" s="102"/>
-      <c r="BT4" s="102">
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12">
         <v>6.9475210439405525E-3</v>
       </c>
-      <c r="BU4" s="102">
+      <c r="BU4" s="12">
         <v>6.095616117943084E-3</v>
       </c>
-      <c r="BV4" s="102">
+      <c r="BV4" s="12">
         <v>2.5932341552883632E-2</v>
       </c>
-      <c r="BW4" s="102">
+      <c r="BW4" s="12">
         <v>0.1368007397133611</v>
       </c>
-      <c r="BX4" s="102">
+      <c r="BX4" s="12">
         <v>0.15608128601759175</v>
       </c>
       <c r="BY4" s="35">
@@ -16089,16 +16019,16 @@
       <c r="A5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="36" t="s">
         <v>141</v>
       </c>
       <c r="F5" s="10">
@@ -16107,173 +16037,173 @@
       <c r="G5" s="34">
         <v>0.26802204287222281</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="17"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
       <c r="Y5" s="62"/>
-      <c r="Z5" s="105">
+      <c r="Z5" s="16">
         <v>375</v>
       </c>
-      <c r="AA5" s="106" t="s">
+      <c r="AA5" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB5" s="15">
         <v>375</v>
       </c>
-      <c r="AC5" s="105">
+      <c r="AC5" s="117">
         <v>20</v>
       </c>
       <c r="AD5" s="18"/>
-      <c r="AE5" s="105">
+      <c r="AE5" s="16">
         <v>375</v>
       </c>
-      <c r="AF5" s="105">
+      <c r="AF5" s="16">
         <v>20</v>
       </c>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="139" t="s">
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="113" t="s">
         <v>140</v>
       </c>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="11">
         <v>47.77</v>
       </c>
-      <c r="AK5" s="131">
+      <c r="AK5" s="97">
         <v>0.73</v>
       </c>
-      <c r="AL5" s="131">
+      <c r="AL5" s="97">
         <v>15.83</v>
       </c>
-      <c r="AM5" s="131">
+      <c r="AM5" s="97">
         <v>8.52</v>
       </c>
-      <c r="AN5" s="131"/>
-      <c r="AO5" s="131">
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97">
         <v>0.16</v>
       </c>
-      <c r="AP5" s="131">
+      <c r="AP5" s="97">
         <v>10.76</v>
       </c>
-      <c r="AQ5" s="131">
+      <c r="AQ5" s="97">
         <v>11.4</v>
       </c>
-      <c r="AR5" s="131">
+      <c r="AR5" s="97">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AS5" s="131">
+      <c r="AS5" s="97">
         <v>0.1</v>
       </c>
-      <c r="AT5" s="131"/>
-      <c r="AU5" s="131">
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97">
         <f>SUM(AJ5:AT5)</f>
         <v>97.57</v>
       </c>
-      <c r="AV5" s="131"/>
-      <c r="AW5" s="131">
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97">
         <f>(BA5+BC5)/BL5</f>
         <v>0.59817209210889832</v>
       </c>
-      <c r="AX5" s="130">
+      <c r="AX5" s="107">
         <f>BW5/(BW5+BV5)</f>
         <v>0.26744623595991968</v>
       </c>
-      <c r="AY5" s="130"/>
-      <c r="AZ5" s="131"/>
-      <c r="BA5" s="131">
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97">
         <f>AJ5/60.08</f>
         <v>0.7951065246338217</v>
       </c>
-      <c r="BB5" s="131">
+      <c r="BB5" s="97">
         <f>AK5/79.866</f>
         <v>9.1403100192822984E-3</v>
       </c>
-      <c r="BC5" s="131">
+      <c r="BC5" s="97">
         <f>AL5/101.96</f>
         <v>0.15525696351510399</v>
       </c>
-      <c r="BD5" s="131">
+      <c r="BD5" s="97">
         <f>AM5/71.844</f>
         <v>0.11859027893769836</v>
       </c>
-      <c r="BE5" s="131"/>
-      <c r="BF5" s="131">
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97">
         <f>AO5/70.9374</f>
         <v>2.2555097875027845E-3</v>
       </c>
-      <c r="BG5" s="131">
+      <c r="BG5" s="97">
         <f>AP5/40.3044</f>
         <v>0.26696837069898072</v>
       </c>
-      <c r="BH5" s="131">
+      <c r="BH5" s="97">
         <f>AQ5/56.0774</f>
         <v>0.20329045212509855</v>
       </c>
-      <c r="BI5" s="131">
+      <c r="BI5" s="97">
         <f>AR5/61.9789</f>
         <v>3.7109403361466557E-2</v>
       </c>
-      <c r="BJ5" s="131">
+      <c r="BJ5" s="97">
         <f>AS5/94.2</f>
         <v>1.0615711252653928E-3</v>
       </c>
-      <c r="BK5" s="131">
+      <c r="BK5" s="97">
         <f>AT5/141.9445</f>
         <v>0</v>
       </c>
-      <c r="BL5" s="131">
+      <c r="BL5" s="97">
         <f>SUM(BA5:BK5)</f>
         <v>1.5887793842042204</v>
       </c>
-      <c r="BM5" s="131"/>
-      <c r="BN5" s="131"/>
-      <c r="BO5" s="131">
+      <c r="BM5" s="97"/>
+      <c r="BN5" s="97"/>
+      <c r="BO5" s="97">
         <f>BA5</f>
         <v>0.7951065246338217</v>
       </c>
-      <c r="BP5" s="131">
+      <c r="BP5" s="97">
         <f>BB5</f>
         <v>9.1403100192822984E-3</v>
       </c>
-      <c r="BQ5" s="131">
+      <c r="BQ5" s="97">
         <f>BC5*2</f>
         <v>0.31051392703020797</v>
       </c>
-      <c r="BR5" s="131">
+      <c r="BR5" s="97">
         <f>BD5</f>
         <v>0.11859027893769836</v>
       </c>
-      <c r="BS5" s="131"/>
-      <c r="BT5" s="131">
+      <c r="BS5" s="97"/>
+      <c r="BT5" s="97">
         <f t="shared" ref="BT5:BV5" si="0">BF5</f>
         <v>2.2555097875027845E-3</v>
       </c>
-      <c r="BU5" s="131">
+      <c r="BU5" s="97">
         <f t="shared" si="0"/>
         <v>0.26696837069898072</v>
       </c>
-      <c r="BV5" s="131">
+      <c r="BV5" s="97">
         <f t="shared" si="0"/>
         <v>0.20329045212509855</v>
       </c>
-      <c r="BW5" s="131">
+      <c r="BW5" s="97">
         <f>BI5*2</f>
         <v>7.4218806722933114E-2</v>
       </c>
-      <c r="BX5" s="131">
+      <c r="BX5" s="97">
         <f>BJ5*2</f>
         <v>2.1231422505307855E-3</v>
       </c>
@@ -16286,16 +16216,16 @@
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="10">
@@ -16304,169 +16234,168 @@
       <c r="G6" s="34">
         <v>0.50738925282880565</v>
       </c>
-      <c r="H6" s="102">
+      <c r="H6" s="12">
         <v>1.25</v>
       </c>
-      <c r="I6" s="102">
+      <c r="I6" s="12">
         <v>0.05</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104">
+      <c r="J6" s="13"/>
+      <c r="K6" s="14">
         <v>0.04</v>
       </c>
       <c r="L6" s="15">
         <v>0.95</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="16">
         <v>0.1</v>
       </c>
-      <c r="N6" s="105"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="17">
         <v>0.10526315789473685</v>
       </c>
-      <c r="P6" s="105">
+      <c r="P6" s="16">
         <v>42</v>
       </c>
-      <c r="Q6" s="105">
+      <c r="Q6" s="16">
         <v>2</v>
       </c>
-      <c r="R6" s="105"/>
+      <c r="R6" s="16"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
       <c r="Y6" s="62"/>
-      <c r="Z6" s="105">
+      <c r="Z6" s="16">
         <v>190</v>
       </c>
-      <c r="AA6" s="106" t="s">
+      <c r="AA6" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB6" s="15">
         <v>180</v>
       </c>
-      <c r="AC6" s="105">
+      <c r="AC6" s="117">
         <v>15</v>
       </c>
       <c r="AD6" s="18"/>
-      <c r="AE6" s="105">
+      <c r="AE6" s="16">
         <v>190</v>
       </c>
-      <c r="AF6" s="105">
+      <c r="AF6" s="16">
         <v>15</v>
       </c>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="139" t="s">
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="113" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="11">
         <v>54.55</v>
       </c>
-      <c r="AK6" s="102">
+      <c r="AK6" s="12">
         <v>2.02</v>
       </c>
-      <c r="AL6" s="102">
+      <c r="AL6" s="12">
         <v>14.5</v>
       </c>
-      <c r="AM6" s="102">
+      <c r="AM6" s="12">
         <v>12.17</v>
       </c>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="102">
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12">
         <v>0.27</v>
       </c>
-      <c r="AP6" s="102">
+      <c r="AP6" s="12">
         <v>2.95</v>
       </c>
-      <c r="AQ6" s="102">
+      <c r="AQ6" s="12">
         <v>6.96</v>
       </c>
-      <c r="AR6" s="102">
+      <c r="AR6" s="12">
         <v>3.95</v>
       </c>
-      <c r="AS6" s="102">
+      <c r="AS6" s="12">
         <v>1.28</v>
       </c>
-      <c r="AT6" s="102">
+      <c r="AT6" s="12">
         <v>1.02</v>
       </c>
-      <c r="AU6" s="102">
+      <c r="AU6" s="12">
         <v>99.669999999999987</v>
       </c>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="102">
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12">
         <v>0.67841771052078004</v>
       </c>
-      <c r="AX6" s="102">
+      <c r="AX6" s="12">
         <v>0.50738925282880565</v>
       </c>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102">
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12">
         <v>0.90780495922782478</v>
       </c>
-      <c r="BB6" s="102">
+      <c r="BB6" s="12">
         <v>2.5281602002503126E-2</v>
       </c>
-      <c r="BC6" s="102">
+      <c r="BC6" s="12">
         <v>0.14221263240486468</v>
       </c>
-      <c r="BD6" s="102">
+      <c r="BD6" s="12">
         <v>0.16938065414057066</v>
       </c>
-      <c r="BE6" s="102"/>
-      <c r="BF6" s="102">
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12">
         <v>3.8060332675500428E-3</v>
       </c>
-      <c r="BG6" s="102">
+      <c r="BG6" s="12">
         <v>7.3182833043909698E-2</v>
       </c>
-      <c r="BH6" s="102">
+      <c r="BH6" s="12">
         <v>0.12410841654778888</v>
       </c>
-      <c r="BI6" s="102">
+      <c r="BI6" s="12">
         <v>6.3915857605177998E-2</v>
       </c>
-      <c r="BJ6" s="102">
+      <c r="BJ6" s="12">
         <v>1.3588110403397028E-2</v>
       </c>
-      <c r="BK6" s="102">
+      <c r="BK6" s="12">
         <v>7.1856287425149708E-3</v>
       </c>
-      <c r="BL6" s="102">
+      <c r="BL6" s="12">
         <v>1.5232810986435867</v>
       </c>
-      <c r="BM6" s="132"/>
-      <c r="BN6" s="102"/>
-      <c r="BO6" s="102">
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12">
         <v>0.90780495922782478</v>
       </c>
-      <c r="BP6" s="102">
+      <c r="BP6" s="12">
         <v>2.5281602002503126E-2</v>
       </c>
-      <c r="BQ6" s="102">
+      <c r="BQ6" s="12">
         <v>0.28442526480972935</v>
       </c>
-      <c r="BR6" s="102">
+      <c r="BR6" s="12">
         <v>0.16938065414057066</v>
       </c>
-      <c r="BS6" s="102"/>
-      <c r="BT6" s="102">
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12">
         <v>3.8060332675500428E-3</v>
       </c>
-      <c r="BU6" s="102">
+      <c r="BU6" s="12">
         <v>7.3182833043909698E-2</v>
       </c>
-      <c r="BV6" s="102">
+      <c r="BV6" s="12">
         <v>0.12410841654778888</v>
       </c>
-      <c r="BW6" s="102">
+      <c r="BW6" s="12">
         <v>0.127831715210356</v>
       </c>
-      <c r="BX6" s="102">
+      <c r="BX6" s="12">
         <v>2.7176220806794056E-2</v>
       </c>
       <c r="BY6" s="35">
@@ -16477,16 +16406,16 @@
       <c r="A7" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="36" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="10">
@@ -16495,157 +16424,156 @@
       <c r="G7" s="34">
         <v>0.24463806860177423</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
       <c r="S7" s="15">
         <v>78</v>
       </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105" t="s">
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16" t="s">
         <v>115</v>
       </c>
       <c r="Y7" s="62"/>
-      <c r="Z7" s="105">
+      <c r="Z7" s="16">
         <v>398</v>
       </c>
-      <c r="AA7" s="106" t="s">
+      <c r="AA7" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB7" s="15">
         <v>398</v>
       </c>
-      <c r="AC7" s="105">
+      <c r="AC7" s="117">
         <v>10</v>
       </c>
       <c r="AD7" s="18"/>
-      <c r="AE7" s="105">
+      <c r="AE7" s="16">
         <v>398</v>
       </c>
-      <c r="AF7" s="105">
+      <c r="AF7" s="16">
         <v>10</v>
       </c>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="139" t="s">
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="113" t="s">
         <v>114</v>
       </c>
       <c r="AI7" s="19"/>
       <c r="AJ7" s="11">
         <v>51.839999999999996</v>
       </c>
-      <c r="AK7" s="102">
+      <c r="AK7" s="12">
         <v>1.2600000000000002</v>
       </c>
-      <c r="AL7" s="102">
+      <c r="AL7" s="12">
         <v>14.331999999999999</v>
       </c>
-      <c r="AM7" s="102">
+      <c r="AM7" s="12">
         <v>9.6419999999999995</v>
       </c>
-      <c r="AN7" s="102"/>
-      <c r="AO7" s="102">
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12">
         <v>0.17400000000000002</v>
       </c>
-      <c r="AP7" s="102">
+      <c r="AP7" s="12">
         <v>7.7799999999999994</v>
       </c>
-      <c r="AQ7" s="102">
+      <c r="AQ7" s="12">
         <v>11.879999999999999</v>
       </c>
-      <c r="AR7" s="102">
+      <c r="AR7" s="12">
         <v>2.1199999999999997</v>
       </c>
-      <c r="AS7" s="102">
+      <c r="AS7" s="12">
         <v>0.04</v>
       </c>
-      <c r="AT7" s="102">
+      <c r="AT7" s="12">
         <v>0.11199999999999999</v>
       </c>
-      <c r="AU7" s="102">
+      <c r="AU7" s="12">
         <v>99.179999999999993</v>
       </c>
-      <c r="AV7" s="102"/>
-      <c r="AW7" s="102">
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12">
         <v>0.64545647626617619</v>
       </c>
-      <c r="AX7" s="102">
+      <c r="AX7" s="12">
         <v>0.24463806860177423</v>
       </c>
-      <c r="AY7" s="102"/>
-      <c r="AZ7" s="102"/>
-      <c r="BA7" s="102">
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12">
         <v>0.86270594108836729</v>
       </c>
-      <c r="BB7" s="102">
+      <c r="BB7" s="12">
         <v>1.576971214017522E-2</v>
       </c>
-      <c r="BC7" s="102">
+      <c r="BC7" s="12">
         <v>0.14056492742251864</v>
       </c>
-      <c r="BD7" s="102">
+      <c r="BD7" s="12">
         <v>0.13419624217118997</v>
       </c>
-      <c r="BE7" s="102"/>
-      <c r="BF7" s="102">
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12">
         <v>2.452776994643361E-3</v>
       </c>
-      <c r="BG7" s="102">
+      <c r="BG7" s="12">
         <v>0.1930042173158025</v>
       </c>
-      <c r="BH7" s="102">
+      <c r="BH7" s="12">
         <v>0.21184022824536375</v>
       </c>
-      <c r="BI7" s="102">
+      <c r="BI7" s="12">
         <v>3.4304207119741095E-2</v>
       </c>
-      <c r="BJ7" s="102">
+      <c r="BJ7" s="12">
         <v>4.2462845010615713E-4</v>
       </c>
-      <c r="BK7" s="102">
+      <c r="BK7" s="12">
         <v>7.890102148643889E-4</v>
       </c>
-      <c r="BL7" s="102">
+      <c r="BL7" s="12">
         <v>1.5952628809479079</v>
       </c>
-      <c r="BM7" s="132"/>
-      <c r="BN7" s="102"/>
-      <c r="BO7" s="102">
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12">
         <v>0.86270594108836729</v>
       </c>
-      <c r="BP7" s="102">
+      <c r="BP7" s="12">
         <v>1.576971214017522E-2</v>
       </c>
-      <c r="BQ7" s="102">
+      <c r="BQ7" s="12">
         <v>0.28112985484503727</v>
       </c>
-      <c r="BR7" s="102">
+      <c r="BR7" s="12">
         <v>0.13419624217118997</v>
       </c>
-      <c r="BS7" s="102"/>
-      <c r="BT7" s="102">
+      <c r="BS7" s="12"/>
+      <c r="BT7" s="12">
         <v>2.452776994643361E-3</v>
       </c>
-      <c r="BU7" s="102">
+      <c r="BU7" s="12">
         <v>0.1930042173158025</v>
       </c>
-      <c r="BV7" s="102">
+      <c r="BV7" s="12">
         <v>0.21184022824536375</v>
       </c>
-      <c r="BW7" s="102">
+      <c r="BW7" s="12">
         <v>6.8608414239482191E-2</v>
       </c>
-      <c r="BX7" s="102">
+      <c r="BX7" s="12">
         <v>8.4925690021231425E-4</v>
       </c>
       <c r="BY7" s="35">
@@ -16656,7 +16584,7 @@
       <c r="A8" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="23" t="s">
         <v>218</v>
       </c>
       <c r="C8" s="36" t="s">
@@ -16668,95 +16596,95 @@
       <c r="E8" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="10">
         <v>0.64822650199999998</v>
       </c>
-      <c r="G8" s="112">
+      <c r="G8" s="34">
         <v>0.235588467666666</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="116">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="T8" s="142">
-        <v>3.9</v>
-      </c>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="15">
+        <v>63.027000000000001</v>
+      </c>
+      <c r="T8" s="16">
+        <v>4.4649999999999999</v>
+      </c>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
       <c r="Y8" s="62"/>
-      <c r="Z8" s="116">
-        <v>305</v>
-      </c>
-      <c r="AA8" s="110" t="s">
+      <c r="Z8" s="16">
+        <v>303.435</v>
+      </c>
+      <c r="AA8" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB8" s="116">
-        <v>305</v>
-      </c>
-      <c r="AC8" s="110">
-        <v>8</v>
+      <c r="AB8" s="15">
+        <v>303.435</v>
+      </c>
+      <c r="AC8" s="117">
+        <v>9.1959999999999997</v>
       </c>
       <c r="AD8" s="18"/>
-      <c r="AE8" s="116">
-        <v>305</v>
-      </c>
-      <c r="AF8" s="110">
-        <v>8</v>
-      </c>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="143" t="s">
+      <c r="AE8" s="15">
+        <v>303</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>9</v>
+      </c>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="113" t="s">
         <v>222</v>
       </c>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="120">
+      <c r="AJ8" s="11">
         <v>46.637999999999998</v>
       </c>
-      <c r="AK8" s="113">
+      <c r="AK8" s="12">
         <v>0.72</v>
       </c>
-      <c r="AL8" s="113">
+      <c r="AL8" s="12">
         <v>14.448000000000002</v>
       </c>
-      <c r="AM8" s="113">
+      <c r="AM8" s="12">
         <v>8.2219999999999995</v>
       </c>
-      <c r="AN8" s="113">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="113">
+      <c r="AN8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="12">
         <v>0.13999999999999999</v>
       </c>
-      <c r="AP8" s="113">
+      <c r="AP8" s="12">
         <v>8.3659999999999997</v>
       </c>
-      <c r="AQ8" s="113">
+      <c r="AQ8" s="12">
         <v>12.916</v>
       </c>
-      <c r="AR8" s="113">
+      <c r="AR8" s="12">
         <v>2.2060000000000004</v>
       </c>
-      <c r="AS8" s="113">
+      <c r="AS8" s="12">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AT8" s="113">
+      <c r="AT8" s="12">
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="AU8" s="113">
+      <c r="AU8" s="12">
         <v>93.9</v>
       </c>
-      <c r="AV8" s="113"/>
+      <c r="AV8" s="12"/>
       <c r="AW8" s="97">
         <f>(BA8+BC8)/BL8</f>
         <v>0.60425890020906592</v>
@@ -16765,8 +16693,8 @@
         <f>BW8/(BW8+BV8)</f>
         <v>0.23609667599030759</v>
       </c>
-      <c r="AY8" s="113"/>
-      <c r="AZ8" s="113"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
       <c r="BA8" s="97">
         <f>AJ8/60.08</f>
         <v>0.77626498002663114</v>
@@ -16858,16 +16786,16 @@
       <c r="A9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="10">
@@ -16876,169 +16804,169 @@
       <c r="G9" s="34">
         <v>0.27655660483015931</v>
       </c>
-      <c r="H9" s="105">
+      <c r="H9" s="16">
         <v>0.65</v>
       </c>
-      <c r="I9" s="105">
+      <c r="I9" s="16">
         <v>0.08</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104">
+      <c r="J9" s="13"/>
+      <c r="K9" s="14">
         <v>0.12307692307692307</v>
       </c>
       <c r="L9" s="15">
         <v>0.69</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="16">
         <v>0.08</v>
       </c>
-      <c r="N9" s="105"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="17">
         <v>0.11594202898550726</v>
       </c>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="15">
         <v>65</v>
       </c>
-      <c r="T9" s="105"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106">
+      <c r="T9" s="16"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21">
         <v>2</v>
       </c>
       <c r="Y9" s="62"/>
-      <c r="Z9" s="105">
+      <c r="Z9" s="16">
         <v>317</v>
       </c>
-      <c r="AA9" s="106" t="s">
+      <c r="AA9" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB9" s="15">
         <v>361</v>
       </c>
-      <c r="AC9" s="105">
+      <c r="AC9" s="117">
         <v>43</v>
       </c>
       <c r="AD9" s="18"/>
-      <c r="AE9" s="105">
+      <c r="AE9" s="16">
         <v>317</v>
       </c>
-      <c r="AF9" s="105">
+      <c r="AF9" s="16">
         <v>23</v>
       </c>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="139" t="s">
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="113" t="s">
         <v>98</v>
       </c>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="11">
         <v>50.120000000000005</v>
       </c>
-      <c r="AK9" s="102">
+      <c r="AK9" s="12">
         <v>0.91</v>
       </c>
-      <c r="AL9" s="102">
+      <c r="AL9" s="12">
         <v>18.32</v>
       </c>
-      <c r="AM9" s="102">
+      <c r="AM9" s="12">
         <v>9.36</v>
       </c>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102">
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12">
         <v>0.17</v>
       </c>
-      <c r="AP9" s="102">
+      <c r="AP9" s="12">
         <v>7.01</v>
       </c>
-      <c r="AQ9" s="102">
+      <c r="AQ9" s="12">
         <v>11.344999999999999</v>
       </c>
-      <c r="AR9" s="102">
+      <c r="AR9" s="12">
         <v>2.39</v>
       </c>
-      <c r="AS9" s="102">
+      <c r="AS9" s="12">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AT9" s="102">
+      <c r="AT9" s="12">
         <v>0.15</v>
       </c>
-      <c r="AU9" s="102">
+      <c r="AU9" s="12">
         <v>100</v>
       </c>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102">
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12">
         <v>0.66378339566542666</v>
       </c>
-      <c r="AX9" s="102">
+      <c r="AX9" s="12">
         <v>0.27655660483015931</v>
       </c>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102">
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12">
         <v>0.83408221001830585</v>
       </c>
-      <c r="BB9" s="102">
+      <c r="BB9" s="12">
         <v>1.1389236545682102E-2</v>
       </c>
-      <c r="BC9" s="102">
+      <c r="BC9" s="12">
         <v>0.17967830521773248</v>
       </c>
-      <c r="BD9" s="102">
+      <c r="BD9" s="12">
         <v>0.13027139874739041</v>
       </c>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102">
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BG9" s="102">
+      <c r="BG9" s="12">
         <v>0.17390225750434135</v>
       </c>
-      <c r="BH9" s="102">
+      <c r="BH9" s="12">
         <v>0.20230028530670469</v>
       </c>
-      <c r="BI9" s="102">
+      <c r="BI9" s="12">
         <v>3.8673139158576057E-2</v>
       </c>
-      <c r="BJ9" s="102">
+      <c r="BJ9" s="12">
         <v>2.3885350318471337E-3</v>
       </c>
-      <c r="BK9" s="102">
+      <c r="BK9" s="12">
         <v>1.0567101091933781E-3</v>
       </c>
-      <c r="BL9" s="102">
+      <c r="BL9" s="12">
         <v>1.5761384689563791</v>
       </c>
-      <c r="BM9" s="102"/>
-      <c r="BN9" s="102"/>
-      <c r="BO9" s="102">
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12">
         <v>0.83408221001830585</v>
       </c>
-      <c r="BP9" s="102">
+      <c r="BP9" s="12">
         <v>1.1389236545682102E-2</v>
       </c>
-      <c r="BQ9" s="102">
+      <c r="BQ9" s="12">
         <v>0.35935661043546496</v>
       </c>
-      <c r="BR9" s="102">
+      <c r="BR9" s="12">
         <v>0.13027139874739041</v>
       </c>
-      <c r="BS9" s="102"/>
-      <c r="BT9" s="102">
+      <c r="BS9" s="12"/>
+      <c r="BT9" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BU9" s="102">
+      <c r="BU9" s="12">
         <v>0.17390225750434135</v>
       </c>
-      <c r="BV9" s="102">
+      <c r="BV9" s="12">
         <v>0.20230028530670469</v>
       </c>
-      <c r="BW9" s="102">
+      <c r="BW9" s="12">
         <v>7.7346278317152115E-2</v>
       </c>
-      <c r="BX9" s="102">
+      <c r="BX9" s="12">
         <v>4.7770700636942673E-3</v>
       </c>
       <c r="BY9" s="35">
@@ -17049,16 +16977,16 @@
       <c r="A10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="10">
@@ -17067,157 +16995,156 @@
       <c r="G10" s="34">
         <v>0.36103905373641304</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="18"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
       <c r="S10" s="15">
         <v>57.3</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106">
+      <c r="T10" s="16"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21">
         <v>1.8</v>
       </c>
       <c r="Y10" s="62"/>
-      <c r="Z10" s="105">
+      <c r="Z10" s="16">
         <v>306</v>
       </c>
-      <c r="AA10" s="106" t="s">
+      <c r="AA10" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB10" s="15">
         <v>349</v>
       </c>
-      <c r="AC10" s="105">
+      <c r="AC10" s="117">
         <v>25</v>
       </c>
       <c r="AD10" s="18"/>
-      <c r="AE10" s="105">
+      <c r="AE10" s="16">
         <v>306</v>
       </c>
-      <c r="AF10" s="105">
+      <c r="AF10" s="16">
         <v>32</v>
       </c>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="139" t="s">
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="11">
         <v>43.64</v>
       </c>
-      <c r="AK10" s="102">
+      <c r="AK10" s="12">
         <v>2.64</v>
       </c>
-      <c r="AL10" s="102">
+      <c r="AL10" s="12">
         <v>12.65</v>
       </c>
-      <c r="AM10" s="102">
+      <c r="AM10" s="12">
         <v>11.54</v>
       </c>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102">
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12">
         <v>0.19</v>
       </c>
-      <c r="AP10" s="102">
+      <c r="AP10" s="12">
         <v>12.07</v>
       </c>
-      <c r="AQ10" s="102">
+      <c r="AQ10" s="12">
         <v>11.82</v>
       </c>
-      <c r="AR10" s="102">
+      <c r="AR10" s="12">
         <v>3.68</v>
       </c>
-      <c r="AS10" s="102">
+      <c r="AS10" s="12">
         <v>1.01</v>
       </c>
-      <c r="AT10" s="102">
+      <c r="AT10" s="12">
         <v>0.7</v>
       </c>
-      <c r="AU10" s="102">
+      <c r="AU10" s="12">
         <v>99.94</v>
       </c>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102">
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12">
         <v>0.53206676081954596</v>
       </c>
-      <c r="AX10" s="102">
+      <c r="AX10" s="12">
         <v>0.36103905373641304</v>
       </c>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102">
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12">
         <v>0.72624396738225994</v>
       </c>
-      <c r="BB10" s="102">
+      <c r="BB10" s="12">
         <v>3.3041301627033788E-2</v>
       </c>
-      <c r="BC10" s="102">
+      <c r="BC10" s="12">
         <v>0.12406826206355434</v>
       </c>
-      <c r="BD10" s="102">
+      <c r="BD10" s="12">
         <v>0.1606123869171886</v>
       </c>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102">
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12">
         <v>2.6783197067944743E-3</v>
       </c>
-      <c r="BG10" s="102">
+      <c r="BG10" s="12">
         <v>0.29942942197965766</v>
       </c>
-      <c r="BH10" s="102">
+      <c r="BH10" s="12">
         <v>0.21077032810271043</v>
       </c>
-      <c r="BI10" s="102">
+      <c r="BI10" s="12">
         <v>5.9546925566343049E-2</v>
       </c>
-      <c r="BJ10" s="102">
+      <c r="BJ10" s="12">
         <v>1.0721868365180466E-2</v>
       </c>
-      <c r="BK10" s="102">
+      <c r="BK10" s="12">
         <v>4.9313138429024307E-3</v>
       </c>
-      <c r="BL10" s="102">
+      <c r="BL10" s="12">
         <v>1.6271127817107227</v>
       </c>
-      <c r="BM10" s="132"/>
-      <c r="BN10" s="102"/>
-      <c r="BO10" s="102">
+      <c r="BN10" s="12"/>
+      <c r="BO10" s="12">
         <v>0.72624396738225994</v>
       </c>
-      <c r="BP10" s="102">
+      <c r="BP10" s="12">
         <v>3.3041301627033788E-2</v>
       </c>
-      <c r="BQ10" s="102">
+      <c r="BQ10" s="12">
         <v>0.24813652412710868</v>
       </c>
-      <c r="BR10" s="102">
+      <c r="BR10" s="12">
         <v>0.1606123869171886</v>
       </c>
-      <c r="BS10" s="102"/>
-      <c r="BT10" s="102">
+      <c r="BS10" s="12"/>
+      <c r="BT10" s="12">
         <v>2.6783197067944743E-3</v>
       </c>
-      <c r="BU10" s="102">
+      <c r="BU10" s="12">
         <v>0.29942942197965766</v>
       </c>
-      <c r="BV10" s="102">
+      <c r="BV10" s="12">
         <v>0.21077032810271043</v>
       </c>
-      <c r="BW10" s="102">
+      <c r="BW10" s="12">
         <v>0.1190938511326861</v>
       </c>
-      <c r="BX10" s="102">
+      <c r="BX10" s="12">
         <v>2.1443736730360933E-2</v>
       </c>
       <c r="BY10" s="35">
@@ -17228,16 +17155,16 @@
       <c r="A11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F11" s="10">
@@ -17246,157 +17173,156 @@
       <c r="G11" s="34">
         <v>0.39124475074304188</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
       <c r="S11" s="15">
         <v>60.5</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106">
+      <c r="T11" s="16"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21">
         <v>3.3</v>
       </c>
       <c r="Y11" s="62"/>
-      <c r="Z11" s="105">
+      <c r="Z11" s="16">
         <v>311</v>
       </c>
-      <c r="AA11" s="106" t="s">
+      <c r="AA11" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB11" s="15">
         <v>380</v>
       </c>
-      <c r="AC11" s="105">
+      <c r="AC11" s="117">
         <v>30</v>
       </c>
       <c r="AD11" s="18"/>
-      <c r="AE11" s="105">
+      <c r="AE11" s="16">
         <v>311</v>
       </c>
-      <c r="AF11" s="105">
+      <c r="AF11" s="16">
         <v>41</v>
       </c>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="139" t="s">
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="11">
         <v>47.3</v>
       </c>
-      <c r="AK11" s="102">
+      <c r="AK11" s="12">
         <v>2.35</v>
       </c>
-      <c r="AL11" s="102">
+      <c r="AL11" s="12">
         <v>14.17</v>
       </c>
-      <c r="AM11" s="102">
+      <c r="AM11" s="12">
         <v>10.82</v>
       </c>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102">
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12">
         <v>0.17</v>
       </c>
-      <c r="AP11" s="102">
+      <c r="AP11" s="12">
         <v>10.36</v>
       </c>
-      <c r="AQ11" s="102">
+      <c r="AQ11" s="12">
         <v>9.94</v>
       </c>
-      <c r="AR11" s="102">
+      <c r="AR11" s="12">
         <v>3.52</v>
       </c>
-      <c r="AS11" s="102">
+      <c r="AS11" s="12">
         <v>0.83</v>
       </c>
-      <c r="AT11" s="102">
+      <c r="AT11" s="12">
         <v>0.47</v>
       </c>
-      <c r="AU11" s="102">
+      <c r="AU11" s="12">
         <v>99.929999999999993</v>
       </c>
-      <c r="AV11" s="102"/>
-      <c r="AW11" s="102">
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12">
         <v>0.58524831256813492</v>
       </c>
-      <c r="AX11" s="102">
+      <c r="AX11" s="12">
         <v>0.39124475074304188</v>
       </c>
-      <c r="AY11" s="102"/>
-      <c r="AZ11" s="102"/>
-      <c r="BA11" s="102">
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12">
         <v>0.78715260442669321</v>
       </c>
-      <c r="BB11" s="102">
+      <c r="BB11" s="12">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="BC11" s="102">
+      <c r="BC11" s="12">
         <v>0.13897606904668497</v>
       </c>
-      <c r="BD11" s="102">
+      <c r="BD11" s="12">
         <v>0.15059151009046626</v>
       </c>
-      <c r="BE11" s="102"/>
-      <c r="BF11" s="102">
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BG11" s="102">
+      <c r="BG11" s="12">
         <v>0.25700818655420488</v>
       </c>
-      <c r="BH11" s="102">
+      <c r="BH11" s="12">
         <v>0.17724679029957205</v>
       </c>
-      <c r="BI11" s="102">
+      <c r="BI11" s="12">
         <v>5.6957928802589E-2</v>
       </c>
-      <c r="BJ11" s="102">
+      <c r="BJ11" s="12">
         <v>8.8110403397027599E-3</v>
       </c>
-      <c r="BK11" s="102">
+      <c r="BK11" s="12">
         <v>3.3110250088059178E-3</v>
       </c>
-      <c r="BL11" s="102">
+      <c r="BL11" s="12">
         <v>1.608552285582401</v>
       </c>
-      <c r="BM11" s="132"/>
-      <c r="BN11" s="102"/>
-      <c r="BO11" s="102">
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="12">
         <v>0.78715260442669321</v>
       </c>
-      <c r="BP11" s="102">
+      <c r="BP11" s="12">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="BQ11" s="102">
+      <c r="BQ11" s="12">
         <v>0.27795213809336994</v>
       </c>
-      <c r="BR11" s="102">
+      <c r="BR11" s="12">
         <v>0.15059151009046626</v>
       </c>
-      <c r="BS11" s="102"/>
-      <c r="BT11" s="102">
+      <c r="BS11" s="12"/>
+      <c r="BT11" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BU11" s="102">
+      <c r="BU11" s="12">
         <v>0.25700818655420488</v>
       </c>
-      <c r="BV11" s="102">
+      <c r="BV11" s="12">
         <v>0.17724679029957205</v>
       </c>
-      <c r="BW11" s="102">
+      <c r="BW11" s="12">
         <v>0.113915857605178</v>
       </c>
-      <c r="BX11" s="102">
+      <c r="BX11" s="12">
         <v>1.762208067940552E-2</v>
       </c>
       <c r="BY11" s="35">
@@ -17407,16 +17333,16 @@
       <c r="A12" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="10">
@@ -17425,153 +17351,152 @@
       <c r="G12" s="34">
         <v>0.30280441831693838</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="105"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
       <c r="Y12" s="62"/>
-      <c r="Z12" s="105">
+      <c r="Z12" s="16">
         <v>329</v>
       </c>
-      <c r="AA12" s="106" t="s">
+      <c r="AA12" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB12" s="15">
         <v>372</v>
       </c>
-      <c r="AC12" s="105">
+      <c r="AC12" s="117">
         <v>14</v>
       </c>
       <c r="AD12" s="18"/>
-      <c r="AE12" s="105">
+      <c r="AE12" s="16">
         <v>329</v>
       </c>
-      <c r="AF12" s="105">
+      <c r="AF12" s="16">
         <v>15</v>
       </c>
-      <c r="AG12" s="105"/>
-      <c r="AH12" s="139" t="s">
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="11">
         <v>48.88</v>
       </c>
-      <c r="AK12" s="102">
+      <c r="AK12" s="12">
         <v>2.89</v>
       </c>
-      <c r="AL12" s="102">
+      <c r="AL12" s="12">
         <v>14.77</v>
       </c>
-      <c r="AM12" s="102">
+      <c r="AM12" s="12">
         <v>13.05</v>
       </c>
-      <c r="AN12" s="102"/>
-      <c r="AO12" s="102">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="102">
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="12">
         <v>6.47</v>
       </c>
-      <c r="AQ12" s="102">
+      <c r="AQ12" s="12">
         <v>10.99</v>
       </c>
-      <c r="AR12" s="102">
+      <c r="AR12" s="12">
         <v>2.63</v>
       </c>
-      <c r="AS12" s="102">
+      <c r="AS12" s="12">
         <v>0.3</v>
       </c>
-      <c r="AT12" s="102">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="102">
+      <c r="AT12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="12">
         <v>99.97999999999999</v>
       </c>
-      <c r="AV12" s="102"/>
-      <c r="AW12" s="102">
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12">
         <v>0.62363736213765231</v>
       </c>
-      <c r="AX12" s="102">
+      <c r="AX12" s="12">
         <v>0.30280441831693838</v>
       </c>
-      <c r="AY12" s="102"/>
-      <c r="AZ12" s="102"/>
-      <c r="BA12" s="102">
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12">
         <v>0.81344649692128479</v>
       </c>
-      <c r="BB12" s="102">
+      <c r="BB12" s="12">
         <v>3.6170212765957444E-2</v>
       </c>
-      <c r="BC12" s="102">
+      <c r="BC12" s="12">
         <v>0.14486072969792077</v>
       </c>
-      <c r="BD12" s="102">
+      <c r="BD12" s="12">
         <v>0.1816283924843424</v>
       </c>
-      <c r="BE12" s="102"/>
-      <c r="BF12" s="102">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="102">
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="12">
         <v>0.16050607789630364</v>
       </c>
-      <c r="BH12" s="102">
+      <c r="BH12" s="12">
         <v>0.19597004279600572</v>
       </c>
-      <c r="BI12" s="102">
+      <c r="BI12" s="12">
         <v>4.2556634304207121E-2</v>
       </c>
-      <c r="BJ12" s="102">
+      <c r="BJ12" s="12">
         <v>3.1847133757961781E-3</v>
       </c>
-      <c r="BK12" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="102">
+      <c r="BK12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="12">
         <v>1.5783233002418182</v>
       </c>
-      <c r="BM12" s="132"/>
-      <c r="BN12" s="102"/>
-      <c r="BO12" s="102">
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12">
         <v>0.81344649692128479</v>
       </c>
-      <c r="BP12" s="102">
+      <c r="BP12" s="12">
         <v>3.6170212765957444E-2</v>
       </c>
-      <c r="BQ12" s="102">
+      <c r="BQ12" s="12">
         <v>0.28972145939584154</v>
       </c>
-      <c r="BR12" s="102">
+      <c r="BR12" s="12">
         <v>0.1816283924843424</v>
       </c>
-      <c r="BS12" s="102"/>
-      <c r="BT12" s="102">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="102">
+      <c r="BS12" s="12"/>
+      <c r="BT12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="12">
         <v>0.16050607789630364</v>
       </c>
-      <c r="BV12" s="102">
+      <c r="BV12" s="12">
         <v>0.19597004279600572</v>
       </c>
-      <c r="BW12" s="102">
+      <c r="BW12" s="12">
         <v>8.5113268608414241E-2</v>
       </c>
-      <c r="BX12" s="102">
+      <c r="BX12" s="12">
         <v>6.3694267515923561E-3</v>
       </c>
       <c r="BY12" s="35">
@@ -17582,16 +17507,16 @@
       <c r="A13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="10">
@@ -17600,153 +17525,152 @@
       <c r="G13" s="34">
         <v>0.36701862247339523</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
       <c r="Y13" s="62"/>
-      <c r="Z13" s="105">
+      <c r="Z13" s="16">
         <v>360</v>
       </c>
-      <c r="AA13" s="106" t="s">
+      <c r="AA13" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB13" s="15">
         <v>394</v>
       </c>
-      <c r="AC13" s="105">
+      <c r="AC13" s="117">
         <v>27</v>
       </c>
       <c r="AD13" s="18"/>
-      <c r="AE13" s="105">
+      <c r="AE13" s="16">
         <v>360</v>
       </c>
-      <c r="AF13" s="105">
+      <c r="AF13" s="16">
         <v>24</v>
       </c>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="139" t="s">
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="11">
         <v>48.34</v>
       </c>
-      <c r="AK13" s="102">
+      <c r="AK13" s="12">
         <v>1.77</v>
       </c>
-      <c r="AL13" s="102">
+      <c r="AL13" s="12">
         <v>16.399999999999999</v>
       </c>
-      <c r="AM13" s="102">
+      <c r="AM13" s="12">
         <v>10.48</v>
       </c>
-      <c r="AN13" s="102"/>
-      <c r="AO13" s="102">
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12">
         <v>0.2</v>
       </c>
-      <c r="AP13" s="102">
+      <c r="AP13" s="12">
         <v>5.97</v>
       </c>
-      <c r="AQ13" s="102">
+      <c r="AQ13" s="12">
         <v>10.83</v>
       </c>
-      <c r="AR13" s="102">
+      <c r="AR13" s="12">
         <v>3.46</v>
       </c>
-      <c r="AS13" s="102">
+      <c r="AS13" s="12">
         <v>1.96</v>
       </c>
-      <c r="AT13" s="102">
+      <c r="AT13" s="12">
         <v>0.59</v>
       </c>
-      <c r="AU13" s="102">
+      <c r="AU13" s="12">
         <v>100</v>
       </c>
-      <c r="AV13" s="102"/>
-      <c r="AW13" s="102">
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12">
         <v>0.62560475030354845</v>
       </c>
-      <c r="AX13" s="102">
+      <c r="AX13" s="12">
         <v>0.36701862247339523</v>
       </c>
-      <c r="AY13" s="102"/>
-      <c r="AZ13" s="102"/>
-      <c r="BA13" s="102">
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12">
         <v>0.80445997670161429</v>
       </c>
-      <c r="BB13" s="102">
+      <c r="BB13" s="12">
         <v>2.2152690863579474E-2</v>
       </c>
-      <c r="BC13" s="102">
+      <c r="BC13" s="12">
         <v>0.16084739113377794</v>
       </c>
-      <c r="BD13" s="102">
+      <c r="BD13" s="12">
         <v>0.14585942936673627</v>
       </c>
-      <c r="BE13" s="102"/>
-      <c r="BF13" s="102">
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12">
         <v>2.8192839018889204E-3</v>
       </c>
-      <c r="BG13" s="102">
+      <c r="BG13" s="12">
         <v>0.1481022078888613</v>
       </c>
-      <c r="BH13" s="102">
+      <c r="BH13" s="12">
         <v>0.19311697574893011</v>
       </c>
-      <c r="BI13" s="102">
+      <c r="BI13" s="12">
         <v>5.5987055016181231E-2</v>
       </c>
-      <c r="BJ13" s="102">
+      <c r="BJ13" s="12">
         <v>2.0806794055201697E-2</v>
       </c>
-      <c r="BK13" s="102">
+      <c r="BK13" s="12">
         <v>4.1563930961606198E-3</v>
       </c>
-      <c r="BL13" s="102">
+      <c r="BL13" s="12">
         <v>1.5541518046767713</v>
       </c>
-      <c r="BM13" s="132"/>
-      <c r="BN13" s="102"/>
-      <c r="BO13" s="102">
+      <c r="BN13" s="12"/>
+      <c r="BO13" s="12">
         <v>0.80445997670161429</v>
       </c>
-      <c r="BP13" s="102">
+      <c r="BP13" s="12">
         <v>2.2152690863579474E-2</v>
       </c>
-      <c r="BQ13" s="102">
+      <c r="BQ13" s="12">
         <v>0.32169478226755588</v>
       </c>
-      <c r="BR13" s="102">
+      <c r="BR13" s="12">
         <v>0.14585942936673627</v>
       </c>
-      <c r="BS13" s="102"/>
-      <c r="BT13" s="102">
+      <c r="BS13" s="12"/>
+      <c r="BT13" s="12">
         <v>2.8192839018889204E-3</v>
       </c>
-      <c r="BU13" s="102">
+      <c r="BU13" s="12">
         <v>0.1481022078888613</v>
       </c>
-      <c r="BV13" s="102">
+      <c r="BV13" s="12">
         <v>0.19311697574893011</v>
       </c>
-      <c r="BW13" s="102">
+      <c r="BW13" s="12">
         <v>0.11197411003236246</v>
       </c>
-      <c r="BX13" s="102">
+      <c r="BX13" s="12">
         <v>4.1613588110403395E-2</v>
       </c>
       <c r="BY13" s="35">
@@ -17757,16 +17681,16 @@
       <c r="A14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="10">
@@ -17775,153 +17699,152 @@
       <c r="G14" s="34">
         <v>0.36694941616020388</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="104"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="17"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
       <c r="Y14" s="62"/>
-      <c r="Z14" s="105">
+      <c r="Z14" s="16">
         <v>341</v>
       </c>
-      <c r="AA14" s="106" t="s">
+      <c r="AA14" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB14" s="15">
         <v>385</v>
       </c>
-      <c r="AC14" s="105">
+      <c r="AC14" s="117">
         <v>18</v>
       </c>
       <c r="AD14" s="18"/>
-      <c r="AE14" s="105">
+      <c r="AE14" s="16">
         <v>341</v>
       </c>
-      <c r="AF14" s="105">
+      <c r="AF14" s="16">
         <v>19</v>
       </c>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="139" t="s">
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="11">
         <v>49.03</v>
       </c>
-      <c r="AK14" s="102">
+      <c r="AK14" s="12">
         <v>2.76</v>
       </c>
-      <c r="AL14" s="102">
+      <c r="AL14" s="12">
         <v>16.2</v>
       </c>
-      <c r="AM14" s="102">
+      <c r="AM14" s="12">
         <v>11.9</v>
       </c>
-      <c r="AN14" s="102"/>
-      <c r="AO14" s="102">
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12">
         <v>0.17</v>
       </c>
-      <c r="AP14" s="102">
+      <c r="AP14" s="12">
         <v>5.88</v>
       </c>
-      <c r="AQ14" s="102">
+      <c r="AQ14" s="12">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AR14" s="102">
+      <c r="AR14" s="12">
         <v>3.13</v>
       </c>
-      <c r="AS14" s="102">
+      <c r="AS14" s="12">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AT14" s="102">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="102">
+      <c r="AT14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="12">
         <v>99.99</v>
       </c>
-      <c r="AV14" s="102"/>
-      <c r="AW14" s="102">
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12">
         <v>0.63621395654255564</v>
       </c>
-      <c r="AX14" s="102">
+      <c r="AX14" s="12">
         <v>0.36694941616020388</v>
       </c>
-      <c r="AY14" s="102"/>
-      <c r="AZ14" s="102"/>
-      <c r="BA14" s="102">
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12">
         <v>0.81594275253785986</v>
       </c>
-      <c r="BB14" s="102">
+      <c r="BB14" s="12">
         <v>3.4543178973717142E-2</v>
       </c>
-      <c r="BC14" s="102">
+      <c r="BC14" s="12">
         <v>0.15888583758336602</v>
       </c>
-      <c r="BD14" s="102">
+      <c r="BD14" s="12">
         <v>0.16562282533054978</v>
       </c>
-      <c r="BE14" s="102"/>
-      <c r="BF14" s="102">
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BG14" s="102">
+      <c r="BG14" s="12">
         <v>0.14586951128752171</v>
       </c>
-      <c r="BH14" s="102">
+      <c r="BH14" s="12">
         <v>0.1747503566333809</v>
       </c>
-      <c r="BI14" s="102">
+      <c r="BI14" s="12">
         <v>5.0647249190938513E-2</v>
       </c>
-      <c r="BJ14" s="102">
+      <c r="BJ14" s="12">
         <v>1.18895966029724E-2</v>
       </c>
-      <c r="BK14" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL14" s="102">
+      <c r="BK14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="12">
         <v>1.5605476994569119</v>
       </c>
-      <c r="BM14" s="132"/>
-      <c r="BN14" s="102"/>
-      <c r="BO14" s="102">
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12">
         <v>0.81594275253785986</v>
       </c>
-      <c r="BP14" s="102">
+      <c r="BP14" s="12">
         <v>3.4543178973717142E-2</v>
       </c>
-      <c r="BQ14" s="102">
+      <c r="BQ14" s="12">
         <v>0.31777167516673205</v>
       </c>
-      <c r="BR14" s="102">
+      <c r="BR14" s="12">
         <v>0.16562282533054978</v>
       </c>
-      <c r="BS14" s="102"/>
-      <c r="BT14" s="102">
+      <c r="BS14" s="12"/>
+      <c r="BT14" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BU14" s="102">
+      <c r="BU14" s="12">
         <v>0.14586951128752171</v>
       </c>
-      <c r="BV14" s="102">
+      <c r="BV14" s="12">
         <v>0.1747503566333809</v>
       </c>
-      <c r="BW14" s="102">
+      <c r="BW14" s="12">
         <v>0.10129449838187703</v>
       </c>
-      <c r="BX14" s="102">
+      <c r="BX14" s="12">
         <v>2.37791932059448E-2</v>
       </c>
       <c r="BY14" s="35">
@@ -17932,16 +17855,16 @@
       <c r="A15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F15" s="10">
@@ -17950,153 +17873,152 @@
       <c r="G15" s="34">
         <v>0.27545460605486499</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
       <c r="Y15" s="62"/>
-      <c r="Z15" s="105">
+      <c r="Z15" s="16">
         <v>306</v>
       </c>
-      <c r="AA15" s="106" t="s">
+      <c r="AA15" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB15" s="15">
         <v>359</v>
       </c>
-      <c r="AC15" s="105">
+      <c r="AC15" s="117">
         <v>25</v>
       </c>
       <c r="AD15" s="18"/>
-      <c r="AE15" s="105">
+      <c r="AE15" s="16">
         <v>306</v>
       </c>
-      <c r="AF15" s="105">
+      <c r="AF15" s="16">
         <v>11</v>
       </c>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="139" t="s">
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="11">
         <v>50.69</v>
       </c>
-      <c r="AK15" s="102">
+      <c r="AK15" s="12">
         <v>1.46</v>
       </c>
-      <c r="AL15" s="102">
+      <c r="AL15" s="12">
         <v>16.95</v>
       </c>
-      <c r="AM15" s="102">
+      <c r="AM15" s="12">
         <v>8.51</v>
       </c>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="102">
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12">
         <v>0.13</v>
       </c>
-      <c r="AP15" s="102">
+      <c r="AP15" s="12">
         <v>7.48</v>
       </c>
-      <c r="AQ15" s="102">
+      <c r="AQ15" s="12">
         <v>12.03</v>
       </c>
-      <c r="AR15" s="102">
+      <c r="AR15" s="12">
         <v>2.52</v>
       </c>
-      <c r="AS15" s="102">
+      <c r="AS15" s="12">
         <v>0.22</v>
       </c>
-      <c r="AT15" s="102">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="102">
+      <c r="AT15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="12">
         <v>99.99</v>
       </c>
-      <c r="AV15" s="102"/>
-      <c r="AW15" s="102">
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12">
         <v>0.65303565903143468</v>
       </c>
-      <c r="AX15" s="102">
+      <c r="AX15" s="12">
         <v>0.27545460605486499</v>
       </c>
-      <c r="AY15" s="102"/>
-      <c r="AZ15" s="102"/>
-      <c r="BA15" s="102">
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12">
         <v>0.8435679813612913</v>
       </c>
-      <c r="BB15" s="102">
+      <c r="BB15" s="12">
         <v>1.8272841051314142E-2</v>
       </c>
-      <c r="BC15" s="102">
+      <c r="BC15" s="12">
         <v>0.16624166339741075</v>
       </c>
-      <c r="BD15" s="102">
+      <c r="BD15" s="12">
         <v>0.11844119693806542</v>
       </c>
-      <c r="BE15" s="102"/>
-      <c r="BF15" s="102">
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12">
         <v>1.8325345362277983E-3</v>
       </c>
-      <c r="BG15" s="102">
+      <c r="BG15" s="12">
         <v>0.18556189531133713</v>
       </c>
-      <c r="BH15" s="102">
+      <c r="BH15" s="12">
         <v>0.21451497860199714</v>
       </c>
-      <c r="BI15" s="102">
+      <c r="BI15" s="12">
         <v>4.0776699029126215E-2</v>
       </c>
-      <c r="BJ15" s="102">
+      <c r="BJ15" s="12">
         <v>2.335456475583864E-3</v>
       </c>
-      <c r="BK15" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="102">
+      <c r="BK15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="12">
         <v>1.5915452467023539</v>
       </c>
-      <c r="BM15" s="134"/>
-      <c r="BN15" s="102"/>
-      <c r="BO15" s="102">
+      <c r="BN15" s="12"/>
+      <c r="BO15" s="12">
         <v>0.8435679813612913</v>
       </c>
-      <c r="BP15" s="102">
+      <c r="BP15" s="12">
         <v>1.8272841051314142E-2</v>
       </c>
-      <c r="BQ15" s="102">
+      <c r="BQ15" s="12">
         <v>0.33248332679482151</v>
       </c>
-      <c r="BR15" s="102">
+      <c r="BR15" s="12">
         <v>0.11844119693806542</v>
       </c>
-      <c r="BS15" s="102"/>
-      <c r="BT15" s="102">
+      <c r="BS15" s="12"/>
+      <c r="BT15" s="12">
         <v>1.8325345362277983E-3</v>
       </c>
-      <c r="BU15" s="102">
+      <c r="BU15" s="12">
         <v>0.18556189531133713</v>
       </c>
-      <c r="BV15" s="102">
+      <c r="BV15" s="12">
         <v>0.21451497860199714</v>
       </c>
-      <c r="BW15" s="102">
+      <c r="BW15" s="12">
         <v>8.155339805825243E-2</v>
       </c>
-      <c r="BX15" s="102">
+      <c r="BX15" s="12">
         <v>4.6709129511677281E-3</v>
       </c>
       <c r="BY15" s="35">
@@ -18107,16 +18029,16 @@
       <c r="A16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="36" t="s">
         <v>73</v>
       </c>
       <c r="F16" s="10">
@@ -18125,147 +18047,146 @@
       <c r="G16" s="34">
         <v>0.28825402128623334</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="18"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
       <c r="S16" s="98"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
       <c r="Y16" s="62"/>
-      <c r="Z16" s="105">
+      <c r="Z16" s="16">
         <v>355</v>
       </c>
-      <c r="AA16" s="106" t="s">
+      <c r="AA16" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB16" s="15">
         <v>355</v>
       </c>
-      <c r="AC16" s="105"/>
+      <c r="AC16" s="117"/>
       <c r="AD16" s="18"/>
-      <c r="AE16" s="105">
+      <c r="AE16" s="16">
         <v>355</v>
       </c>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="139"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="113"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="11">
         <v>44.11</v>
       </c>
-      <c r="AK16" s="102">
+      <c r="AK16" s="12">
         <v>2.69</v>
       </c>
-      <c r="AL16" s="102">
+      <c r="AL16" s="12">
         <v>12.8</v>
       </c>
-      <c r="AM16" s="102">
+      <c r="AM16" s="12">
         <v>9.31</v>
       </c>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="102">
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12">
         <v>0.19</v>
       </c>
-      <c r="AP16" s="102">
+      <c r="AP16" s="12">
         <v>9.14</v>
       </c>
-      <c r="AQ16" s="102">
+      <c r="AQ16" s="12">
         <v>14.34</v>
       </c>
-      <c r="AR16" s="102">
+      <c r="AR16" s="12">
         <v>3.2</v>
       </c>
-      <c r="AS16" s="102">
+      <c r="AS16" s="12">
         <v>3.45</v>
       </c>
-      <c r="AT16" s="102">
+      <c r="AT16" s="12">
         <v>0.77</v>
       </c>
-      <c r="AU16" s="102">
+      <c r="AU16" s="12">
         <v>100</v>
       </c>
-      <c r="AV16" s="102"/>
-      <c r="AW16" s="102">
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12">
         <v>0.54093998787268649</v>
       </c>
-      <c r="AX16" s="102">
+      <c r="AX16" s="12">
         <v>0.28825402128623334</v>
       </c>
-      <c r="AY16" s="102"/>
-      <c r="AZ16" s="102"/>
-      <c r="BA16" s="102">
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12">
         <v>0.73406556831419534</v>
       </c>
-      <c r="BB16" s="102">
+      <c r="BB16" s="12">
         <v>3.3667083854818522E-2</v>
       </c>
-      <c r="BC16" s="102">
+      <c r="BC16" s="12">
         <v>0.1255394272263633</v>
       </c>
-      <c r="BD16" s="102">
+      <c r="BD16" s="12">
         <v>0.12957550452331248</v>
       </c>
-      <c r="BE16" s="102"/>
-      <c r="BF16" s="102">
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12">
         <v>2.6783197067944743E-3</v>
       </c>
-      <c r="BG16" s="102">
+      <c r="BG16" s="12">
         <v>0.22674274373604564</v>
       </c>
-      <c r="BH16" s="102">
+      <c r="BH16" s="12">
         <v>0.25570613409415122</v>
       </c>
-      <c r="BI16" s="102">
+      <c r="BI16" s="12">
         <v>5.1779935275080909E-2</v>
       </c>
-      <c r="BJ16" s="102">
+      <c r="BJ16" s="12">
         <v>3.662420382165605E-2</v>
       </c>
-      <c r="BK16" s="102">
+      <c r="BK16" s="12">
         <v>5.4244452271926744E-3</v>
       </c>
-      <c r="BL16" s="102">
+      <c r="BL16" s="12">
         <v>1.5963789205524179</v>
       </c>
-      <c r="BM16" s="132"/>
-      <c r="BN16" s="102"/>
-      <c r="BO16" s="102">
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12">
         <v>0.73406556831419534</v>
       </c>
-      <c r="BP16" s="102">
+      <c r="BP16" s="12">
         <v>3.3667083854818522E-2</v>
       </c>
-      <c r="BQ16" s="102">
+      <c r="BQ16" s="12">
         <v>0.2510788544527266</v>
       </c>
-      <c r="BR16" s="102">
+      <c r="BR16" s="12">
         <v>0.12957550452331248</v>
       </c>
-      <c r="BS16" s="102"/>
-      <c r="BT16" s="102">
+      <c r="BS16" s="12"/>
+      <c r="BT16" s="12">
         <v>2.6783197067944743E-3</v>
       </c>
-      <c r="BU16" s="102">
+      <c r="BU16" s="12">
         <v>0.22674274373604564</v>
       </c>
-      <c r="BV16" s="102">
+      <c r="BV16" s="12">
         <v>0.25570613409415122</v>
       </c>
-      <c r="BW16" s="102">
+      <c r="BW16" s="12">
         <v>0.10355987055016182</v>
       </c>
-      <c r="BX16" s="102">
+      <c r="BX16" s="12">
         <v>7.32484076433121E-2</v>
       </c>
       <c r="BY16" s="35">
@@ -18276,16 +18197,16 @@
       <c r="A17" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F17" s="10">
@@ -18294,157 +18215,156 @@
       <c r="G17" s="34">
         <v>0.43837596574883414</v>
       </c>
-      <c r="H17" s="102">
+      <c r="H17" s="12">
         <v>1.03</v>
       </c>
-      <c r="I17" s="102">
+      <c r="I17" s="12">
         <v>0.03</v>
       </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104">
+      <c r="J17" s="13"/>
+      <c r="K17" s="14">
         <v>2.9126213592233007E-2</v>
       </c>
       <c r="L17" s="15">
         <v>0.8</v>
       </c>
-      <c r="M17" s="105">
+      <c r="M17" s="16">
         <v>0.06</v>
       </c>
-      <c r="N17" s="105"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="105"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
       <c r="S17" s="15"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="105"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
       <c r="Y17" s="62"/>
-      <c r="Z17" s="105">
+      <c r="Z17" s="16">
         <v>356</v>
       </c>
-      <c r="AA17" s="106" t="s">
+      <c r="AA17" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB17" s="15"/>
-      <c r="AC17" s="105"/>
+      <c r="AC17" s="117"/>
       <c r="AD17" s="18"/>
-      <c r="AE17" s="105">
+      <c r="AE17" s="16">
         <v>356</v>
       </c>
-      <c r="AF17" s="105">
+      <c r="AF17" s="16">
         <v>18</v>
       </c>
-      <c r="AG17" s="105"/>
-      <c r="AH17" s="139"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="113"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="11">
         <v>53.47</v>
       </c>
-      <c r="AK17" s="102">
+      <c r="AK17" s="12">
         <v>0.71</v>
       </c>
-      <c r="AL17" s="102">
+      <c r="AL17" s="12">
         <v>15.48</v>
       </c>
-      <c r="AM17" s="102">
+      <c r="AM17" s="12">
         <v>8.39</v>
       </c>
-      <c r="AN17" s="102"/>
-      <c r="AO17" s="102">
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12">
         <v>0.1</v>
       </c>
-      <c r="AP17" s="102">
+      <c r="AP17" s="12">
         <v>4.88</v>
       </c>
-      <c r="AQ17" s="102">
+      <c r="AQ17" s="12">
         <v>8.51</v>
       </c>
-      <c r="AR17" s="102">
+      <c r="AR17" s="12">
         <v>3.66</v>
       </c>
-      <c r="AS17" s="102">
+      <c r="AS17" s="12">
         <v>4.72</v>
       </c>
-      <c r="AT17" s="102"/>
-      <c r="AU17" s="102">
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12">
         <v>99.919999999999987</v>
       </c>
-      <c r="AV17" s="102"/>
-      <c r="AW17" s="102">
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12">
         <v>0.65864804931274756</v>
       </c>
-      <c r="AX17" s="102">
+      <c r="AX17" s="12">
         <v>0.43837596574883414</v>
       </c>
-      <c r="AY17" s="102"/>
-      <c r="AZ17" s="102"/>
-      <c r="BA17" s="102">
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12">
         <v>0.88983191878848389</v>
       </c>
-      <c r="BB17" s="102">
+      <c r="BB17" s="12">
         <v>8.8861076345431774E-3</v>
       </c>
-      <c r="BC17" s="102">
+      <c r="BC17" s="12">
         <v>0.15182424480188311</v>
       </c>
-      <c r="BD17" s="102">
+      <c r="BD17" s="12">
         <v>0.11677105080027837</v>
       </c>
-      <c r="BE17" s="102"/>
-      <c r="BF17" s="102">
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12">
         <v>1.4096419509444602E-3</v>
       </c>
-      <c r="BG17" s="102">
+      <c r="BG17" s="12">
         <v>0.12106177127263705</v>
       </c>
-      <c r="BH17" s="102">
+      <c r="BH17" s="12">
         <v>0.15174750356633382</v>
       </c>
-      <c r="BI17" s="102">
+      <c r="BI17" s="12">
         <v>5.9223300970873791E-2</v>
       </c>
-      <c r="BJ17" s="102">
+      <c r="BJ17" s="12">
         <v>5.0106157112526535E-2</v>
       </c>
-      <c r="BK17" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="102">
+      <c r="BK17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="12">
         <v>1.5508616968985041</v>
       </c>
-      <c r="BM17" s="132"/>
-      <c r="BN17" s="102"/>
-      <c r="BO17" s="102">
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12">
         <v>0.88983191878848389</v>
       </c>
-      <c r="BP17" s="102">
+      <c r="BP17" s="12">
         <v>8.8861076345431774E-3</v>
       </c>
-      <c r="BQ17" s="102">
+      <c r="BQ17" s="12">
         <v>0.30364848960376623</v>
       </c>
-      <c r="BR17" s="102">
+      <c r="BR17" s="12">
         <v>0.11677105080027837</v>
       </c>
-      <c r="BS17" s="102"/>
-      <c r="BT17" s="102">
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12">
         <v>1.4096419509444602E-3</v>
       </c>
-      <c r="BU17" s="102">
+      <c r="BU17" s="12">
         <v>0.12106177127263705</v>
       </c>
-      <c r="BV17" s="102">
+      <c r="BV17" s="12">
         <v>0.15174750356633382</v>
       </c>
-      <c r="BW17" s="102">
+      <c r="BW17" s="12">
         <v>0.11844660194174758</v>
       </c>
-      <c r="BX17" s="102">
+      <c r="BX17" s="12">
         <v>0.10021231422505307</v>
       </c>
       <c r="BY17" s="35">
@@ -18455,16 +18375,16 @@
       <c r="A18" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F18" s="10">
@@ -18473,147 +18393,147 @@
       <c r="G18" s="34">
         <v>0.53685578640295406</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
       <c r="Y18" s="62"/>
-      <c r="Z18" s="105">
+      <c r="Z18" s="16">
         <v>264</v>
       </c>
-      <c r="AA18" s="106" t="s">
+      <c r="AA18" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB18" s="15"/>
-      <c r="AC18" s="105"/>
+      <c r="AC18" s="117"/>
       <c r="AD18" s="18"/>
-      <c r="AE18" s="105">
+      <c r="AE18" s="16">
         <v>264</v>
       </c>
-      <c r="AF18" s="105">
+      <c r="AF18" s="16">
         <v>15</v>
       </c>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="139" t="s">
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="11">
         <v>50.99</v>
       </c>
-      <c r="AK18" s="102">
+      <c r="AK18" s="12">
         <v>0.87</v>
       </c>
-      <c r="AL18" s="102">
+      <c r="AL18" s="12">
         <v>15.54</v>
       </c>
-      <c r="AM18" s="102">
+      <c r="AM18" s="12">
         <v>7.77</v>
       </c>
-      <c r="AN18" s="102"/>
-      <c r="AO18" s="102">
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12">
         <v>0.04</v>
       </c>
-      <c r="AP18" s="102">
+      <c r="AP18" s="12">
         <v>6.03</v>
       </c>
-      <c r="AQ18" s="102">
+      <c r="AQ18" s="12">
         <v>11.32</v>
       </c>
-      <c r="AR18" s="102">
+      <c r="AR18" s="12">
         <v>7.23</v>
       </c>
-      <c r="AS18" s="102">
+      <c r="AS18" s="12">
         <v>1.89</v>
       </c>
-      <c r="AT18" s="102"/>
-      <c r="AU18" s="102">
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12">
         <v>101.68</v>
       </c>
-      <c r="AV18" s="102"/>
-      <c r="AW18" s="102">
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12">
         <v>0.60751412905558377</v>
       </c>
-      <c r="AX18" s="102">
+      <c r="AX18" s="12">
         <v>0.53685578640295406</v>
       </c>
-      <c r="AY18" s="102"/>
-      <c r="AZ18" s="102"/>
-      <c r="BA18" s="102">
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12">
         <v>0.84856049259444166</v>
       </c>
-      <c r="BB18" s="102">
+      <c r="BB18" s="12">
         <v>1.0888610763454317E-2</v>
       </c>
-      <c r="BC18" s="102">
+      <c r="BC18" s="12">
         <v>0.15241271086700667</v>
       </c>
-      <c r="BD18" s="102">
+      <c r="BD18" s="12">
         <v>0.1081419624217119</v>
       </c>
-      <c r="BE18" s="102"/>
-      <c r="BF18" s="102">
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12">
         <v>5.6385678037778404E-4</v>
       </c>
-      <c r="BG18" s="102">
+      <c r="BG18" s="12">
         <v>0.1495906722897544</v>
       </c>
-      <c r="BH18" s="102">
+      <c r="BH18" s="12">
         <v>0.20185449358059915</v>
       </c>
-      <c r="BI18" s="102">
+      <c r="BI18" s="12">
         <v>0.11699029126213593</v>
       </c>
-      <c r="BJ18" s="102">
+      <c r="BJ18" s="12">
         <v>2.0063694267515923E-2</v>
       </c>
-      <c r="BK18" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="102">
+      <c r="BK18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="12">
         <v>1.6090667848269977</v>
       </c>
-      <c r="BM18" s="102"/>
-      <c r="BN18" s="102"/>
-      <c r="BO18" s="102">
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12">
         <v>0.84856049259444166</v>
       </c>
-      <c r="BP18" s="102">
+      <c r="BP18" s="12">
         <v>1.0888610763454317E-2</v>
       </c>
-      <c r="BQ18" s="102">
+      <c r="BQ18" s="12">
         <v>0.30482542173401334</v>
       </c>
-      <c r="BR18" s="102">
+      <c r="BR18" s="12">
         <v>0.1081419624217119</v>
       </c>
-      <c r="BS18" s="102"/>
-      <c r="BT18" s="102">
+      <c r="BS18" s="12"/>
+      <c r="BT18" s="12">
         <v>5.6385678037778404E-4</v>
       </c>
-      <c r="BU18" s="102">
+      <c r="BU18" s="12">
         <v>0.1495906722897544</v>
       </c>
-      <c r="BV18" s="102">
+      <c r="BV18" s="12">
         <v>0.20185449358059915</v>
       </c>
-      <c r="BW18" s="102">
+      <c r="BW18" s="12">
         <v>0.23398058252427187</v>
       </c>
-      <c r="BX18" s="102">
+      <c r="BX18" s="12">
         <v>4.0127388535031845E-2</v>
       </c>
       <c r="BY18" s="35">
@@ -18624,16 +18544,16 @@
       <c r="A19" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="10">
@@ -18642,147 +18562,147 @@
       <c r="G19" s="34">
         <v>0.42411331623924359</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
       <c r="S19" s="15"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
       <c r="Y19" s="62"/>
-      <c r="Z19" s="105">
+      <c r="Z19" s="16">
         <v>244</v>
       </c>
-      <c r="AA19" s="106" t="s">
+      <c r="AA19" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="105"/>
+      <c r="AC19" s="117"/>
       <c r="AD19" s="18"/>
-      <c r="AE19" s="105">
+      <c r="AE19" s="16">
         <v>244</v>
       </c>
-      <c r="AF19" s="105">
+      <c r="AF19" s="16">
         <v>15</v>
       </c>
-      <c r="AG19" s="105"/>
-      <c r="AH19" s="139" t="s">
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="11">
         <v>49.65</v>
       </c>
-      <c r="AK19" s="102">
+      <c r="AK19" s="12">
         <v>0.84</v>
       </c>
-      <c r="AL19" s="102">
+      <c r="AL19" s="12">
         <v>14.99</v>
       </c>
-      <c r="AM19" s="102">
+      <c r="AM19" s="12">
         <v>7.76</v>
       </c>
-      <c r="AN19" s="102"/>
-      <c r="AO19" s="102">
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12">
         <v>0.06</v>
       </c>
-      <c r="AP19" s="102">
+      <c r="AP19" s="12">
         <v>5.49</v>
       </c>
-      <c r="AQ19" s="102">
+      <c r="AQ19" s="12">
         <v>11.41</v>
       </c>
-      <c r="AR19" s="102">
+      <c r="AR19" s="12">
         <v>4.63</v>
       </c>
-      <c r="AS19" s="102">
+      <c r="AS19" s="12">
         <v>4.71</v>
       </c>
-      <c r="AT19" s="102"/>
-      <c r="AU19" s="102">
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12">
         <v>99.539999999999992</v>
       </c>
-      <c r="AV19" s="102"/>
-      <c r="AW19" s="102">
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12">
         <v>0.61246849011068027</v>
       </c>
-      <c r="AX19" s="102">
+      <c r="AX19" s="12">
         <v>0.42411331623924359</v>
       </c>
-      <c r="AY19" s="102"/>
-      <c r="AZ19" s="102"/>
-      <c r="BA19" s="102">
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12">
         <v>0.82626060908637033</v>
       </c>
-      <c r="BB19" s="102">
+      <c r="BB19" s="12">
         <v>1.0513141426783479E-2</v>
       </c>
-      <c r="BC19" s="102">
+      <c r="BC19" s="12">
         <v>0.14701843860337388</v>
       </c>
-      <c r="BD19" s="102">
+      <c r="BD19" s="12">
         <v>0.10800278357689631</v>
       </c>
-      <c r="BE19" s="102"/>
-      <c r="BF19" s="102">
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12">
         <v>8.4578517056667607E-4</v>
       </c>
-      <c r="BG19" s="102">
+      <c r="BG19" s="12">
         <v>0.13619449268171668</v>
       </c>
-      <c r="BH19" s="102">
+      <c r="BH19" s="12">
         <v>0.20345934379457919</v>
       </c>
-      <c r="BI19" s="102">
+      <c r="BI19" s="12">
         <v>7.4919093851132684E-2</v>
       </c>
-      <c r="BJ19" s="102">
+      <c r="BJ19" s="12">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="BK19" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="102">
+      <c r="BK19" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="12">
         <v>1.5572136881914196</v>
       </c>
-      <c r="BM19" s="102"/>
-      <c r="BN19" s="102"/>
-      <c r="BO19" s="102">
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12">
         <v>0.82626060908637033</v>
       </c>
-      <c r="BP19" s="102">
+      <c r="BP19" s="12">
         <v>1.0513141426783479E-2</v>
       </c>
-      <c r="BQ19" s="102">
+      <c r="BQ19" s="12">
         <v>0.29403687720674776</v>
       </c>
-      <c r="BR19" s="102">
+      <c r="BR19" s="12">
         <v>0.10800278357689631</v>
       </c>
-      <c r="BS19" s="102"/>
-      <c r="BT19" s="102">
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12">
         <v>8.4578517056667607E-4</v>
       </c>
-      <c r="BU19" s="102">
+      <c r="BU19" s="12">
         <v>0.13619449268171668</v>
       </c>
-      <c r="BV19" s="102">
+      <c r="BV19" s="12">
         <v>0.20345934379457919</v>
       </c>
-      <c r="BW19" s="102">
+      <c r="BW19" s="12">
         <v>0.14983818770226537</v>
       </c>
-      <c r="BX19" s="102">
+      <c r="BX19" s="12">
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="BY19" s="35">
@@ -18793,16 +18713,16 @@
       <c r="A20" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F20" s="10">
@@ -18811,147 +18731,147 @@
       <c r="G20" s="34">
         <v>0.23689820110221482</v>
       </c>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
       <c r="S20" s="15"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
       <c r="Y20" s="62"/>
-      <c r="Z20" s="105">
+      <c r="Z20" s="16">
         <v>294</v>
       </c>
-      <c r="AA20" s="106" t="s">
+      <c r="AA20" s="21" t="s">
         <v>148</v>
       </c>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="105"/>
+      <c r="AC20" s="117"/>
       <c r="AD20" s="18"/>
-      <c r="AE20" s="105">
+      <c r="AE20" s="16">
         <v>294</v>
       </c>
-      <c r="AF20" s="105">
+      <c r="AF20" s="16">
         <v>16</v>
       </c>
-      <c r="AG20" s="105"/>
-      <c r="AH20" s="139" t="s">
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="11">
         <v>49.89</v>
       </c>
-      <c r="AK20" s="102">
+      <c r="AK20" s="12">
         <v>0.89</v>
       </c>
-      <c r="AL20" s="102">
+      <c r="AL20" s="12">
         <v>15.57</v>
       </c>
-      <c r="AM20" s="102">
+      <c r="AM20" s="12">
         <v>7.82</v>
       </c>
-      <c r="AN20" s="102"/>
-      <c r="AO20" s="102">
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12">
         <v>0.02</v>
       </c>
-      <c r="AP20" s="102">
+      <c r="AP20" s="12">
         <v>5.75</v>
       </c>
-      <c r="AQ20" s="102">
+      <c r="AQ20" s="12">
         <v>11.4</v>
       </c>
-      <c r="AR20" s="102">
+      <c r="AR20" s="12">
         <v>1.95</v>
       </c>
-      <c r="AS20" s="102">
+      <c r="AS20" s="12">
         <v>7.52</v>
       </c>
-      <c r="AT20" s="102"/>
-      <c r="AU20" s="102">
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12">
         <v>100.80999999999999</v>
       </c>
-      <c r="AV20" s="102"/>
-      <c r="AW20" s="102">
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12">
         <v>0.62241376582004049</v>
       </c>
-      <c r="AX20" s="102">
+      <c r="AX20" s="12">
         <v>0.23689820110221482</v>
       </c>
-      <c r="AY20" s="102"/>
-      <c r="AZ20" s="102"/>
-      <c r="BA20" s="102">
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12">
         <v>0.83025461807289058</v>
       </c>
-      <c r="BB20" s="102">
+      <c r="BB20" s="12">
         <v>1.1138923654568209E-2</v>
       </c>
-      <c r="BC20" s="102">
+      <c r="BC20" s="12">
         <v>0.15270694389956846</v>
       </c>
-      <c r="BD20" s="102">
+      <c r="BD20" s="12">
         <v>0.10883785664578985</v>
       </c>
-      <c r="BE20" s="102"/>
-      <c r="BF20" s="102">
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12">
         <v>2.8192839018889202E-4</v>
       </c>
-      <c r="BG20" s="102">
+      <c r="BG20" s="12">
         <v>0.14264450508558668</v>
       </c>
-      <c r="BH20" s="102">
+      <c r="BH20" s="12">
         <v>0.20328102710413695</v>
       </c>
-      <c r="BI20" s="102">
+      <c r="BI20" s="12">
         <v>3.1553398058252427E-2</v>
       </c>
-      <c r="BJ20" s="102">
+      <c r="BJ20" s="12">
         <v>7.9830148619957533E-2</v>
       </c>
-      <c r="BK20" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="102">
+      <c r="BK20" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="12">
         <v>1.5605293495309398</v>
       </c>
-      <c r="BM20" s="102"/>
-      <c r="BN20" s="102"/>
-      <c r="BO20" s="102">
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12">
         <v>0.83025461807289058</v>
       </c>
-      <c r="BP20" s="102">
+      <c r="BP20" s="12">
         <v>1.1138923654568209E-2</v>
       </c>
-      <c r="BQ20" s="102">
+      <c r="BQ20" s="12">
         <v>0.30541388779913692</v>
       </c>
-      <c r="BR20" s="102">
+      <c r="BR20" s="12">
         <v>0.10883785664578985</v>
       </c>
-      <c r="BS20" s="102"/>
-      <c r="BT20" s="102">
+      <c r="BS20" s="12"/>
+      <c r="BT20" s="12">
         <v>2.8192839018889202E-4</v>
       </c>
-      <c r="BU20" s="102">
+      <c r="BU20" s="12">
         <v>0.14264450508558668</v>
       </c>
-      <c r="BV20" s="102">
+      <c r="BV20" s="12">
         <v>0.20328102710413695</v>
       </c>
-      <c r="BW20" s="102">
+      <c r="BW20" s="12">
         <v>6.3106796116504854E-2</v>
       </c>
-      <c r="BX20" s="102">
+      <c r="BX20" s="12">
         <v>0.15966029723991507</v>
       </c>
       <c r="BY20" s="35">
@@ -18968,7 +18888,7 @@
       <c r="C21" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="111" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="70" t="s">
@@ -19014,7 +18934,7 @@
         <v>8</v>
       </c>
       <c r="AG21" s="44"/>
-      <c r="AH21" s="140" t="s">
+      <c r="AH21" s="114" t="s">
         <v>90</v>
       </c>
       <c r="AI21" s="43"/>
@@ -19131,16 +19051,16 @@
       <c r="A22" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="109" t="s">
         <v>105</v>
       </c>
       <c r="F22" s="10">
@@ -19160,10 +19080,10 @@
       <c r="L22" s="11">
         <v>0.62</v>
       </c>
-      <c r="M22" s="102">
+      <c r="M22" s="12">
         <v>0.06</v>
       </c>
-      <c r="N22" s="102"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="35"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -19171,139 +19091,139 @@
       <c r="S22" s="11">
         <v>63.9</v>
       </c>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102">
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12">
         <v>5.4</v>
       </c>
       <c r="Y22" s="66"/>
-      <c r="Z22" s="103">
+      <c r="Z22" s="13">
         <v>308</v>
       </c>
-      <c r="AA22" s="131" t="s">
+      <c r="AA22" s="97" t="s">
         <v>133</v>
       </c>
       <c r="AB22" s="94">
         <v>308</v>
       </c>
-      <c r="AC22" s="103">
+      <c r="AC22" s="118">
         <v>110</v>
       </c>
       <c r="AD22" s="35"/>
-      <c r="AE22" s="102"/>
+      <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="102"/>
-      <c r="AH22" s="141" t="s">
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="AI22" s="144"/>
+      <c r="AI22" s="116"/>
       <c r="AJ22" s="92">
         <v>47.645000000000003</v>
       </c>
-      <c r="AK22" s="131">
+      <c r="AK22" s="97">
         <v>0.85750000000000004</v>
       </c>
-      <c r="AL22" s="131">
+      <c r="AL22" s="97">
         <v>14.969999999999999</v>
       </c>
-      <c r="AM22" s="131">
+      <c r="AM22" s="97">
         <v>7.1875</v>
       </c>
-      <c r="AN22" s="131"/>
-      <c r="AO22" s="131">
+      <c r="AN22" s="97"/>
+      <c r="AO22" s="97">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AP22" s="131">
+      <c r="AP22" s="97">
         <v>5.4974999999999996</v>
       </c>
-      <c r="AQ22" s="131">
+      <c r="AQ22" s="97">
         <v>10.82</v>
       </c>
-      <c r="AR22" s="131">
+      <c r="AR22" s="97">
         <v>1.7949999999999999</v>
       </c>
-      <c r="AS22" s="131">
+      <c r="AS22" s="97">
         <v>6.902499999999999</v>
       </c>
-      <c r="AT22" s="131">
+      <c r="AT22" s="97">
         <v>0.5</v>
       </c>
-      <c r="AU22" s="131">
+      <c r="AU22" s="97">
         <v>96.24</v>
       </c>
-      <c r="AV22" s="131"/>
-      <c r="AW22" s="131">
+      <c r="AV22" s="97"/>
+      <c r="AW22" s="97">
         <v>0.62682687850579211</v>
       </c>
-      <c r="AX22" s="131">
+      <c r="AX22" s="97">
         <v>0.23157895182099122</v>
       </c>
-      <c r="AY22" s="131"/>
-      <c r="AZ22" s="131"/>
-      <c r="BA22" s="131">
+      <c r="AY22" s="97"/>
+      <c r="AZ22" s="97"/>
+      <c r="BA22" s="97">
         <v>0.79289399234481606</v>
       </c>
-      <c r="BB22" s="131">
+      <c r="BB22" s="97">
         <v>1.0732165206508135E-2</v>
       </c>
-      <c r="BC22" s="131">
+      <c r="BC22" s="97">
         <v>0.14682228324833269</v>
       </c>
-      <c r="BD22" s="131">
+      <c r="BD22" s="97">
         <v>0.10003479471120391</v>
       </c>
-      <c r="BE22" s="131"/>
-      <c r="BF22" s="131">
+      <c r="BE22" s="97"/>
+      <c r="BF22" s="97">
         <v>9.1626726811389915E-4</v>
       </c>
-      <c r="BG22" s="131">
+      <c r="BG22" s="97">
         <v>0.13638055073182834</v>
       </c>
-      <c r="BH22" s="131">
+      <c r="BH22" s="97">
         <v>0.19293865905848787</v>
       </c>
-      <c r="BI22" s="131">
+      <c r="BI22" s="97">
         <v>2.9045307443365698E-2</v>
       </c>
-      <c r="BJ22" s="131">
+      <c r="BJ22" s="97">
         <v>7.3274946921443734E-2</v>
       </c>
-      <c r="BK22" s="131">
+      <c r="BK22" s="97">
         <v>8.8059175766114835E-4</v>
       </c>
-      <c r="BL22" s="131">
+      <c r="BL22" s="97">
         <v>1.4839195586917615</v>
       </c>
-      <c r="BM22" s="131"/>
-      <c r="BN22" s="131"/>
-      <c r="BO22" s="131">
+      <c r="BM22" s="97"/>
+      <c r="BN22" s="97"/>
+      <c r="BO22" s="97">
         <v>0.79289399234481606</v>
       </c>
-      <c r="BP22" s="131">
+      <c r="BP22" s="97">
         <v>1.0732165206508135E-2</v>
       </c>
-      <c r="BQ22" s="131">
+      <c r="BQ22" s="97">
         <v>0.29364456649666537</v>
       </c>
-      <c r="BR22" s="131">
+      <c r="BR22" s="97">
         <v>0.10003479471120391</v>
       </c>
-      <c r="BS22" s="131"/>
-      <c r="BT22" s="131">
+      <c r="BS22" s="97"/>
+      <c r="BT22" s="97">
         <v>9.1626726811389915E-4</v>
       </c>
-      <c r="BU22" s="131">
+      <c r="BU22" s="97">
         <v>0.13638055073182834</v>
       </c>
-      <c r="BV22" s="131">
+      <c r="BV22" s="97">
         <v>0.19293865905848787</v>
       </c>
-      <c r="BW22" s="131">
+      <c r="BW22" s="97">
         <v>5.8090614886731395E-2</v>
       </c>
-      <c r="BX22" s="131">
+      <c r="BX22" s="97">
         <v>0.14654989384288747</v>
       </c>
       <c r="BY22" s="66">
@@ -19314,16 +19234,16 @@
       <c r="A23" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="101" t="s">
+      <c r="E23" s="36" t="s">
         <v>145</v>
       </c>
       <c r="F23" s="10">
@@ -19337,148 +19257,148 @@
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="18"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
       <c r="Y23" s="62"/>
-      <c r="Z23" s="105">
+      <c r="Z23" s="16">
         <v>284</v>
       </c>
-      <c r="AA23" s="106" t="s">
+      <c r="AA23" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB23" s="15">
         <v>284</v>
       </c>
-      <c r="AC23" s="105">
+      <c r="AC23" s="117">
         <v>5</v>
       </c>
       <c r="AD23" s="18"/>
-      <c r="AE23" s="105">
+      <c r="AE23" s="16">
         <v>281</v>
       </c>
       <c r="AF23" s="16">
         <v>6</v>
       </c>
-      <c r="AG23" s="105"/>
-      <c r="AH23" s="139" t="s">
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="113" t="s">
         <v>140</v>
       </c>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="11">
         <v>46</v>
       </c>
-      <c r="AK23" s="102">
+      <c r="AK23" s="12">
         <v>3.17</v>
       </c>
-      <c r="AL23" s="102">
+      <c r="AL23" s="12">
         <v>15.2</v>
       </c>
-      <c r="AM23" s="102">
+      <c r="AM23" s="12">
         <v>12</v>
       </c>
-      <c r="AN23" s="102"/>
-      <c r="AO23" s="102">
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12">
         <v>0.23</v>
       </c>
-      <c r="AP23" s="102">
+      <c r="AP23" s="12">
         <v>9.06</v>
       </c>
-      <c r="AQ23" s="102">
+      <c r="AQ23" s="12">
         <v>8.2200000000000006</v>
       </c>
-      <c r="AR23" s="102">
+      <c r="AR23" s="12">
         <v>4.33</v>
       </c>
-      <c r="AS23" s="102">
+      <c r="AS23" s="12">
         <v>1.32</v>
       </c>
-      <c r="AT23" s="102">
+      <c r="AT23" s="12">
         <v>0.27</v>
       </c>
-      <c r="AU23" s="102">
+      <c r="AU23" s="12">
         <v>99.8</v>
       </c>
-      <c r="AV23" s="102"/>
-      <c r="AW23" s="102">
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12">
         <v>0.58543390193776523</v>
       </c>
-      <c r="AX23" s="102">
+      <c r="AX23" s="12">
         <v>0.4887569934165874</v>
       </c>
-      <c r="AY23" s="102"/>
-      <c r="AZ23" s="102"/>
-      <c r="BA23" s="102">
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12">
         <v>0.76551838908304204</v>
       </c>
-      <c r="BB23" s="102">
+      <c r="BB23" s="12">
         <v>3.9674593241551939E-2</v>
       </c>
-      <c r="BC23" s="102">
+      <c r="BC23" s="12">
         <v>0.14907806983130639</v>
       </c>
-      <c r="BD23" s="102">
+      <c r="BD23" s="12">
         <v>0.16701461377870566</v>
       </c>
-      <c r="BE23" s="102"/>
-      <c r="BF23" s="102">
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12">
         <v>3.2421764871722585E-3</v>
       </c>
-      <c r="BG23" s="102">
+      <c r="BG23" s="12">
         <v>0.22475812453485489</v>
       </c>
-      <c r="BH23" s="102">
+      <c r="BH23" s="12">
         <v>0.14657631954350928</v>
       </c>
-      <c r="BI23" s="102">
+      <c r="BI23" s="12">
         <v>7.0064724919093851E-2</v>
       </c>
-      <c r="BJ23" s="102">
+      <c r="BJ23" s="12">
         <v>1.4012738853503185E-2</v>
       </c>
-      <c r="BK23" s="102">
+      <c r="BK23" s="12">
         <v>1.9020781965480805E-3</v>
       </c>
-      <c r="BL23" s="102">
+      <c r="BL23" s="12">
         <v>1.5799397502727393</v>
       </c>
-      <c r="BM23" s="102"/>
-      <c r="BN23" s="102"/>
-      <c r="BO23" s="102">
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12">
         <v>0.76551838908304204</v>
       </c>
-      <c r="BP23" s="102">
+      <c r="BP23" s="12">
         <v>3.9674593241551939E-2</v>
       </c>
-      <c r="BQ23" s="102">
+      <c r="BQ23" s="12">
         <v>0.29815613966261278</v>
       </c>
-      <c r="BR23" s="102">
+      <c r="BR23" s="12">
         <v>0.16701461377870566</v>
       </c>
-      <c r="BS23" s="102"/>
-      <c r="BT23" s="102">
+      <c r="BS23" s="12"/>
+      <c r="BT23" s="12">
         <v>3.2421764871722585E-3</v>
       </c>
-      <c r="BU23" s="102">
+      <c r="BU23" s="12">
         <v>0.22475812453485489</v>
       </c>
-      <c r="BV23" s="102">
+      <c r="BV23" s="12">
         <v>0.14657631954350928</v>
       </c>
-      <c r="BW23" s="102">
+      <c r="BW23" s="12">
         <v>0.1401294498381877</v>
       </c>
-      <c r="BX23" s="102">
+      <c r="BX23" s="12">
         <v>2.802547770700637E-2</v>
       </c>
       <c r="BY23" s="35">
@@ -19489,16 +19409,16 @@
       <c r="A24" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="36" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="10">
@@ -19512,148 +19432,148 @@
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="17"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
       <c r="Y24" s="62"/>
-      <c r="Z24" s="105">
+      <c r="Z24" s="16">
         <v>207</v>
       </c>
-      <c r="AA24" s="106" t="s">
+      <c r="AA24" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB24" s="15">
         <v>207</v>
       </c>
-      <c r="AC24" s="105">
+      <c r="AC24" s="117">
         <v>22</v>
       </c>
       <c r="AD24" s="18"/>
-      <c r="AE24" s="105">
+      <c r="AE24" s="16">
         <v>143</v>
       </c>
       <c r="AF24" s="16">
         <v>10</v>
       </c>
-      <c r="AG24" s="105"/>
-      <c r="AH24" s="139" t="s">
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="11">
         <v>68.957142857142856</v>
       </c>
-      <c r="AK24" s="102">
+      <c r="AK24" s="12">
         <v>0.5</v>
       </c>
-      <c r="AL24" s="102">
+      <c r="AL24" s="12">
         <v>15.760000000000002</v>
       </c>
-      <c r="AM24" s="102">
+      <c r="AM24" s="12">
         <v>0.93571428571428583</v>
       </c>
-      <c r="AN24" s="102"/>
-      <c r="AO24" s="102">
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12">
         <v>0.49285714285714288</v>
       </c>
-      <c r="AP24" s="102">
+      <c r="AP24" s="12">
         <v>0.24571428571428572</v>
       </c>
-      <c r="AQ24" s="102">
+      <c r="AQ24" s="12">
         <v>1.4542857142857142</v>
       </c>
-      <c r="AR24" s="102">
+      <c r="AR24" s="12">
         <v>4.2271428571428578</v>
       </c>
-      <c r="AS24" s="102">
+      <c r="AS24" s="12">
         <v>7.3514285714285705</v>
       </c>
-      <c r="AT24" s="102">
+      <c r="AT24" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AU24" s="102">
+      <c r="AU24" s="12">
         <v>100.21428571428572</v>
       </c>
-      <c r="AV24" s="102"/>
-      <c r="AW24" s="102">
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12">
         <v>0.80524921389779802</v>
       </c>
-      <c r="AX24" s="102">
+      <c r="AX24" s="12">
         <v>0.84064893748481084</v>
       </c>
-      <c r="AY24" s="102"/>
-      <c r="AZ24" s="102"/>
-      <c r="BA24" s="102">
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12">
         <v>1.147564367734113</v>
       </c>
-      <c r="BB24" s="102">
+      <c r="BB24" s="12">
         <v>6.25782227784731E-3</v>
       </c>
-      <c r="BC24" s="102">
+      <c r="BC24" s="12">
         <v>0.15457041977245978</v>
       </c>
-      <c r="BD24" s="102">
+      <c r="BD24" s="12">
         <v>1.3023163336315738E-2</v>
       </c>
-      <c r="BE24" s="102"/>
-      <c r="BF24" s="102">
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12">
         <v>6.9475210439405525E-3</v>
       </c>
-      <c r="BG24" s="102">
+      <c r="BG24" s="12">
         <v>6.095616117943084E-3</v>
       </c>
-      <c r="BH24" s="102">
+      <c r="BH24" s="12">
         <v>2.5932341552883632E-2</v>
       </c>
-      <c r="BI24" s="102">
+      <c r="BI24" s="12">
         <v>6.8400369856680548E-2</v>
       </c>
-      <c r="BJ24" s="102">
+      <c r="BJ24" s="12">
         <v>7.8040643008795874E-2</v>
       </c>
-      <c r="BK24" s="102">
+      <c r="BK24" s="12">
         <v>5.8370653650681827E-4</v>
       </c>
-      <c r="BL24" s="102">
+      <c r="BL24" s="12">
         <v>1.50683226470098</v>
       </c>
-      <c r="BM24" s="102"/>
-      <c r="BN24" s="102"/>
-      <c r="BO24" s="102">
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12">
         <v>1.147564367734113</v>
       </c>
-      <c r="BP24" s="102">
+      <c r="BP24" s="12">
         <v>6.25782227784731E-3</v>
       </c>
-      <c r="BQ24" s="102">
+      <c r="BQ24" s="12">
         <v>0.30914083954491955</v>
       </c>
-      <c r="BR24" s="102">
+      <c r="BR24" s="12">
         <v>1.3023163336315738E-2</v>
       </c>
-      <c r="BS24" s="102"/>
-      <c r="BT24" s="102">
+      <c r="BS24" s="12"/>
+      <c r="BT24" s="12">
         <v>6.9475210439405525E-3</v>
       </c>
-      <c r="BU24" s="102">
+      <c r="BU24" s="12">
         <v>6.095616117943084E-3</v>
       </c>
-      <c r="BV24" s="102">
+      <c r="BV24" s="12">
         <v>2.5932341552883632E-2</v>
       </c>
-      <c r="BW24" s="102">
+      <c r="BW24" s="12">
         <v>0.1368007397133611</v>
       </c>
-      <c r="BX24" s="102">
+      <c r="BX24" s="12">
         <v>0.15608128601759175</v>
       </c>
       <c r="BY24" s="35">
@@ -19664,16 +19584,16 @@
       <c r="A25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="36" t="s">
         <v>141</v>
       </c>
       <c r="F25" s="10">
@@ -19687,100 +19607,100 @@
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
       <c r="O25" s="17"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="15"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
       <c r="Y25" s="62"/>
-      <c r="Z25" s="105">
+      <c r="Z25" s="16">
         <v>375</v>
       </c>
-      <c r="AA25" s="106" t="s">
+      <c r="AA25" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB25" s="15">
         <v>375</v>
       </c>
-      <c r="AC25" s="105">
+      <c r="AC25" s="117">
         <v>20</v>
       </c>
       <c r="AD25" s="18"/>
-      <c r="AE25" s="105">
+      <c r="AE25" s="16">
         <v>375</v>
       </c>
       <c r="AF25" s="16">
         <v>20</v>
       </c>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="139" t="s">
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="113" t="s">
         <v>140</v>
       </c>
       <c r="AI25" s="19"/>
       <c r="AJ25" s="95"/>
-      <c r="AK25" s="131"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="131"/>
-      <c r="AN25" s="131"/>
-      <c r="AO25" s="131"/>
-      <c r="AP25" s="131"/>
-      <c r="AQ25" s="131"/>
-      <c r="AR25" s="131"/>
-      <c r="AS25" s="131"/>
-      <c r="AT25" s="131"/>
-      <c r="AU25" s="131"/>
-      <c r="AV25" s="131"/>
-      <c r="AW25" s="131"/>
-      <c r="AX25" s="131"/>
-      <c r="AY25" s="131"/>
-      <c r="AZ25" s="131"/>
-      <c r="BA25" s="131"/>
-      <c r="BB25" s="131"/>
-      <c r="BC25" s="131"/>
-      <c r="BD25" s="131"/>
-      <c r="BE25" s="131"/>
-      <c r="BF25" s="131"/>
-      <c r="BG25" s="131"/>
-      <c r="BH25" s="131"/>
-      <c r="BI25" s="131"/>
-      <c r="BJ25" s="131"/>
-      <c r="BK25" s="131"/>
-      <c r="BL25" s="131"/>
-      <c r="BM25" s="131"/>
-      <c r="BN25" s="131"/>
-      <c r="BO25" s="131"/>
-      <c r="BP25" s="131"/>
-      <c r="BQ25" s="131"/>
-      <c r="BR25" s="131"/>
-      <c r="BS25" s="131"/>
-      <c r="BT25" s="131"/>
-      <c r="BU25" s="131"/>
-      <c r="BV25" s="131"/>
-      <c r="BW25" s="131"/>
-      <c r="BX25" s="131"/>
+      <c r="AK25" s="97"/>
+      <c r="AL25" s="97"/>
+      <c r="AM25" s="97"/>
+      <c r="AN25" s="97"/>
+      <c r="AO25" s="97"/>
+      <c r="AP25" s="97"/>
+      <c r="AQ25" s="97"/>
+      <c r="AR25" s="97"/>
+      <c r="AS25" s="97"/>
+      <c r="AT25" s="97"/>
+      <c r="AU25" s="97"/>
+      <c r="AV25" s="97"/>
+      <c r="AW25" s="97"/>
+      <c r="AX25" s="97"/>
+      <c r="AY25" s="97"/>
+      <c r="AZ25" s="97"/>
+      <c r="BA25" s="97"/>
+      <c r="BB25" s="97"/>
+      <c r="BC25" s="97"/>
+      <c r="BD25" s="97"/>
+      <c r="BE25" s="97"/>
+      <c r="BF25" s="97"/>
+      <c r="BG25" s="97"/>
+      <c r="BH25" s="97"/>
+      <c r="BI25" s="97"/>
+      <c r="BJ25" s="97"/>
+      <c r="BK25" s="97"/>
+      <c r="BL25" s="97"/>
+      <c r="BM25" s="97"/>
+      <c r="BN25" s="97"/>
+      <c r="BO25" s="97"/>
+      <c r="BP25" s="97"/>
+      <c r="BQ25" s="97"/>
+      <c r="BR25" s="97"/>
+      <c r="BS25" s="97"/>
+      <c r="BT25" s="97"/>
+      <c r="BU25" s="97"/>
+      <c r="BV25" s="97"/>
+      <c r="BW25" s="97"/>
+      <c r="BX25" s="97"/>
       <c r="BY25" s="66"/>
     </row>
     <row r="26" spans="1:77" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="32" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="10">
@@ -19802,10 +19722,10 @@
       <c r="L26" s="15">
         <v>0.95</v>
       </c>
-      <c r="M26" s="105">
+      <c r="M26" s="16">
         <v>0.1</v>
       </c>
-      <c r="N26" s="105"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="17">
         <v>0.10526315789473685</v>
       </c>
@@ -19817,141 +19737,140 @@
       </c>
       <c r="R26" s="16"/>
       <c r="S26" s="15"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
       <c r="Y26" s="62"/>
-      <c r="Z26" s="105">
+      <c r="Z26" s="16">
         <v>180</v>
       </c>
-      <c r="AA26" s="106" t="s">
+      <c r="AA26" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB26" s="15">
         <v>180</v>
       </c>
-      <c r="AC26" s="105">
+      <c r="AC26" s="117">
         <v>15</v>
       </c>
       <c r="AD26" s="18"/>
-      <c r="AE26" s="105">
+      <c r="AE26" s="16">
         <v>190</v>
       </c>
       <c r="AF26" s="16">
         <v>15</v>
       </c>
-      <c r="AG26" s="105"/>
-      <c r="AH26" s="139" t="s">
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="113" t="s">
         <v>44</v>
       </c>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="11">
         <v>54.55</v>
       </c>
-      <c r="AK26" s="102">
+      <c r="AK26" s="12">
         <v>2.02</v>
       </c>
-      <c r="AL26" s="102">
+      <c r="AL26" s="12">
         <v>14.5</v>
       </c>
-      <c r="AM26" s="102">
+      <c r="AM26" s="12">
         <v>12.17</v>
       </c>
-      <c r="AN26" s="102"/>
-      <c r="AO26" s="102">
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12">
         <v>0.27</v>
       </c>
-      <c r="AP26" s="102">
+      <c r="AP26" s="12">
         <v>2.95</v>
       </c>
-      <c r="AQ26" s="102">
+      <c r="AQ26" s="12">
         <v>6.96</v>
       </c>
-      <c r="AR26" s="102">
+      <c r="AR26" s="12">
         <v>3.95</v>
       </c>
-      <c r="AS26" s="102">
+      <c r="AS26" s="12">
         <v>1.28</v>
       </c>
-      <c r="AT26" s="102">
+      <c r="AT26" s="12">
         <v>1.02</v>
       </c>
-      <c r="AU26" s="102">
+      <c r="AU26" s="12">
         <v>99.669999999999987</v>
       </c>
-      <c r="AV26" s="102"/>
-      <c r="AW26" s="102">
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12">
         <v>0.67841771052078004</v>
       </c>
-      <c r="AX26" s="102">
+      <c r="AX26" s="12">
         <v>0.50738925282880565</v>
       </c>
-      <c r="AY26" s="102"/>
-      <c r="AZ26" s="102"/>
-      <c r="BA26" s="102">
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12">
         <v>0.90780495922782478</v>
       </c>
-      <c r="BB26" s="102">
+      <c r="BB26" s="12">
         <v>2.5281602002503126E-2</v>
       </c>
-      <c r="BC26" s="102">
+      <c r="BC26" s="12">
         <v>0.14221263240486468</v>
       </c>
-      <c r="BD26" s="102">
+      <c r="BD26" s="12">
         <v>0.16938065414057066</v>
       </c>
-      <c r="BE26" s="102"/>
-      <c r="BF26" s="102">
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12">
         <v>3.8060332675500428E-3</v>
       </c>
-      <c r="BG26" s="102">
+      <c r="BG26" s="12">
         <v>7.3182833043909698E-2</v>
       </c>
-      <c r="BH26" s="102">
+      <c r="BH26" s="12">
         <v>0.12410841654778888</v>
       </c>
-      <c r="BI26" s="102">
+      <c r="BI26" s="12">
         <v>6.3915857605177998E-2</v>
       </c>
-      <c r="BJ26" s="102">
+      <c r="BJ26" s="12">
         <v>1.3588110403397028E-2</v>
       </c>
-      <c r="BK26" s="102">
+      <c r="BK26" s="12">
         <v>7.1856287425149708E-3</v>
       </c>
-      <c r="BL26" s="102">
+      <c r="BL26" s="12">
         <v>1.5232810986435867</v>
       </c>
-      <c r="BM26" s="132"/>
-      <c r="BN26" s="102"/>
-      <c r="BO26" s="102">
+      <c r="BN26" s="12"/>
+      <c r="BO26" s="12">
         <v>0.90780495922782478</v>
       </c>
-      <c r="BP26" s="102">
+      <c r="BP26" s="12">
         <v>2.5281602002503126E-2</v>
       </c>
-      <c r="BQ26" s="102">
+      <c r="BQ26" s="12">
         <v>0.28442526480972935</v>
       </c>
-      <c r="BR26" s="102">
+      <c r="BR26" s="12">
         <v>0.16938065414057066</v>
       </c>
-      <c r="BS26" s="102"/>
-      <c r="BT26" s="102">
+      <c r="BS26" s="12"/>
+      <c r="BT26" s="12">
         <v>3.8060332675500428E-3</v>
       </c>
-      <c r="BU26" s="102">
+      <c r="BU26" s="12">
         <v>7.3182833043909698E-2</v>
       </c>
-      <c r="BV26" s="102">
+      <c r="BV26" s="12">
         <v>0.12410841654778888</v>
       </c>
-      <c r="BW26" s="102">
+      <c r="BW26" s="12">
         <v>0.127831715210356</v>
       </c>
-      <c r="BX26" s="102">
+      <c r="BX26" s="12">
         <v>2.7176220806794056E-2</v>
       </c>
       <c r="BY26" s="35">
@@ -19962,16 +19881,16 @@
       <c r="A27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E27" s="36" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="10">
@@ -19985,8 +19904,8 @@
       <c r="J27" s="13"/>
       <c r="K27" s="14"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -19994,143 +19913,142 @@
       <c r="S27" s="15">
         <v>78</v>
       </c>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105" t="s">
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16" t="s">
         <v>115</v>
       </c>
       <c r="Y27" s="62"/>
-      <c r="Z27" s="105">
+      <c r="Z27" s="16">
         <v>398</v>
       </c>
-      <c r="AA27" s="106" t="s">
+      <c r="AA27" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB27" s="15">
         <v>398</v>
       </c>
-      <c r="AC27" s="105">
+      <c r="AC27" s="117">
         <v>10</v>
       </c>
       <c r="AD27" s="18"/>
-      <c r="AE27" s="105">
+      <c r="AE27" s="16">
         <v>398</v>
       </c>
       <c r="AF27" s="16">
         <v>10</v>
       </c>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="139" t="s">
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="113" t="s">
         <v>114</v>
       </c>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="11">
         <v>51.839999999999996</v>
       </c>
-      <c r="AK27" s="102">
+      <c r="AK27" s="12">
         <v>1.2600000000000002</v>
       </c>
-      <c r="AL27" s="102">
+      <c r="AL27" s="12">
         <v>14.331999999999999</v>
       </c>
-      <c r="AM27" s="102">
+      <c r="AM27" s="12">
         <v>9.6419999999999995</v>
       </c>
-      <c r="AN27" s="102"/>
-      <c r="AO27" s="102">
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12">
         <v>0.17400000000000002</v>
       </c>
-      <c r="AP27" s="102">
+      <c r="AP27" s="12">
         <v>7.7799999999999994</v>
       </c>
-      <c r="AQ27" s="102">
+      <c r="AQ27" s="12">
         <v>11.879999999999999</v>
       </c>
-      <c r="AR27" s="102">
+      <c r="AR27" s="12">
         <v>2.1199999999999997</v>
       </c>
-      <c r="AS27" s="102">
+      <c r="AS27" s="12">
         <v>0.04</v>
       </c>
-      <c r="AT27" s="102">
+      <c r="AT27" s="12">
         <v>0.11199999999999999</v>
       </c>
-      <c r="AU27" s="102">
+      <c r="AU27" s="12">
         <v>99.179999999999993</v>
       </c>
-      <c r="AV27" s="102"/>
-      <c r="AW27" s="102">
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12">
         <v>0.64545647626617619</v>
       </c>
-      <c r="AX27" s="102">
+      <c r="AX27" s="12">
         <v>0.24463806860177423</v>
       </c>
-      <c r="AY27" s="102"/>
-      <c r="AZ27" s="102"/>
-      <c r="BA27" s="102">
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12">
         <v>0.86270594108836729</v>
       </c>
-      <c r="BB27" s="102">
+      <c r="BB27" s="12">
         <v>1.576971214017522E-2</v>
       </c>
-      <c r="BC27" s="102">
+      <c r="BC27" s="12">
         <v>0.14056492742251864</v>
       </c>
-      <c r="BD27" s="102">
+      <c r="BD27" s="12">
         <v>0.13419624217118997</v>
       </c>
-      <c r="BE27" s="102"/>
-      <c r="BF27" s="102">
+      <c r="BE27" s="12"/>
+      <c r="BF27" s="12">
         <v>2.452776994643361E-3</v>
       </c>
-      <c r="BG27" s="102">
+      <c r="BG27" s="12">
         <v>0.1930042173158025</v>
       </c>
-      <c r="BH27" s="102">
+      <c r="BH27" s="12">
         <v>0.21184022824536375</v>
       </c>
-      <c r="BI27" s="102">
+      <c r="BI27" s="12">
         <v>3.4304207119741095E-2</v>
       </c>
-      <c r="BJ27" s="102">
+      <c r="BJ27" s="12">
         <v>4.2462845010615713E-4</v>
       </c>
-      <c r="BK27" s="102">
+      <c r="BK27" s="12">
         <v>7.890102148643889E-4</v>
       </c>
-      <c r="BL27" s="102">
+      <c r="BL27" s="12">
         <v>1.5952628809479079</v>
       </c>
-      <c r="BM27" s="132"/>
-      <c r="BN27" s="102"/>
-      <c r="BO27" s="102">
+      <c r="BN27" s="12"/>
+      <c r="BO27" s="12">
         <v>0.86270594108836729</v>
       </c>
-      <c r="BP27" s="102">
+      <c r="BP27" s="12">
         <v>1.576971214017522E-2</v>
       </c>
-      <c r="BQ27" s="102">
+      <c r="BQ27" s="12">
         <v>0.28112985484503727</v>
       </c>
-      <c r="BR27" s="102">
+      <c r="BR27" s="12">
         <v>0.13419624217118997</v>
       </c>
-      <c r="BS27" s="102"/>
-      <c r="BT27" s="102">
+      <c r="BS27" s="12"/>
+      <c r="BT27" s="12">
         <v>2.452776994643361E-3</v>
       </c>
-      <c r="BU27" s="102">
+      <c r="BU27" s="12">
         <v>0.1930042173158025</v>
       </c>
-      <c r="BV27" s="102">
+      <c r="BV27" s="12">
         <v>0.21184022824536375</v>
       </c>
-      <c r="BW27" s="102">
+      <c r="BW27" s="12">
         <v>6.8608414239482191E-2</v>
       </c>
-      <c r="BX27" s="102">
+      <c r="BX27" s="12">
         <v>8.4925690021231425E-4</v>
       </c>
       <c r="BY27" s="35">
@@ -20141,7 +20059,7 @@
       <c r="A28" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="23" t="s">
         <v>218</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -20153,10 +20071,10 @@
       <c r="E28" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="F28" s="111">
+      <c r="F28" s="10">
         <v>0.64822650199999998</v>
       </c>
-      <c r="G28" s="112">
+      <c r="G28" s="34">
         <v>0.235588467666666</v>
       </c>
       <c r="H28" s="12"/>
@@ -20164,84 +20082,84 @@
       <c r="J28" s="13"/>
       <c r="K28" s="14"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
       <c r="O28" s="17"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
-      <c r="S28" s="116">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="T28" s="142">
-        <v>3.9</v>
-      </c>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
+      <c r="S28" s="15">
+        <v>63.027000000000001</v>
+      </c>
+      <c r="T28" s="16">
+        <v>4.4649999999999999</v>
+      </c>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
       <c r="Y28" s="62"/>
-      <c r="Z28" s="105">
-        <v>305</v>
-      </c>
-      <c r="AA28" s="106" t="s">
+      <c r="Z28" s="16">
+        <v>303.435</v>
+      </c>
+      <c r="AA28" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="AB28" s="116">
-        <v>305</v>
-      </c>
-      <c r="AC28" s="110">
-        <v>8</v>
+      <c r="AB28" s="15">
+        <v>303.435</v>
+      </c>
+      <c r="AC28" s="117">
+        <v>9.1959999999999997</v>
       </c>
       <c r="AD28" s="18"/>
-      <c r="AE28" s="116">
-        <v>305</v>
-      </c>
-      <c r="AF28" s="110">
-        <v>8</v>
-      </c>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="143" t="s">
+      <c r="AE28" s="15">
+        <v>303</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>9</v>
+      </c>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="113" t="s">
         <v>222</v>
       </c>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="120">
+      <c r="AJ28" s="11">
         <v>46.637999999999998</v>
       </c>
-      <c r="AK28" s="113">
+      <c r="AK28" s="12">
         <v>0.72</v>
       </c>
-      <c r="AL28" s="113">
+      <c r="AL28" s="12">
         <v>14.448000000000002</v>
       </c>
-      <c r="AM28" s="113">
+      <c r="AM28" s="12">
         <v>8.2219999999999995</v>
       </c>
-      <c r="AN28" s="113">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="113">
+      <c r="AN28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="12">
         <v>0.13999999999999999</v>
       </c>
-      <c r="AP28" s="113">
+      <c r="AP28" s="12">
         <v>8.3659999999999997</v>
       </c>
-      <c r="AQ28" s="113">
+      <c r="AQ28" s="12">
         <v>12.916</v>
       </c>
-      <c r="AR28" s="113">
+      <c r="AR28" s="12">
         <v>2.2060000000000004</v>
       </c>
-      <c r="AS28" s="113">
+      <c r="AS28" s="12">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AT28" s="113">
+      <c r="AT28" s="12">
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="AU28" s="113">
+      <c r="AU28" s="12">
         <v>93.9</v>
       </c>
-      <c r="AV28" s="113"/>
+      <c r="AV28" s="12"/>
       <c r="AW28" s="97">
         <f>(BA28+BC28)/BL28</f>
         <v>0.60425890020906592</v>
@@ -20250,8 +20168,8 @@
         <f>BW28/(BW28+BV28)</f>
         <v>0.23609667599030759</v>
       </c>
-      <c r="AY28" s="113"/>
-      <c r="AZ28" s="113"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
       <c r="BA28" s="97">
         <f>AJ28/60.08</f>
         <v>0.77626498002663114</v>
@@ -20343,16 +20261,16 @@
       <c r="A29" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="107" t="s">
+      <c r="D29" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="101" t="s">
+      <c r="E29" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F29" s="10">
@@ -20374,10 +20292,10 @@
       <c r="L29" s="15">
         <v>0.69</v>
       </c>
-      <c r="M29" s="105">
+      <c r="M29" s="16">
         <v>0.08</v>
       </c>
-      <c r="N29" s="105"/>
+      <c r="N29" s="16"/>
       <c r="O29" s="17">
         <v>0.11594202898550726</v>
       </c>
@@ -20387,143 +20305,143 @@
       <c r="S29" s="15">
         <v>65</v>
       </c>
-      <c r="T29" s="105"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106">
+      <c r="T29" s="16"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21">
         <v>2</v>
       </c>
       <c r="Y29" s="62"/>
-      <c r="Z29" s="105">
+      <c r="Z29" s="16">
         <v>361</v>
       </c>
-      <c r="AA29" s="106" t="s">
+      <c r="AA29" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB29" s="15">
         <v>361</v>
       </c>
-      <c r="AC29" s="105">
+      <c r="AC29" s="117">
         <v>43</v>
       </c>
       <c r="AD29" s="18"/>
-      <c r="AE29" s="105">
+      <c r="AE29" s="16">
         <v>317</v>
       </c>
       <c r="AF29" s="16">
         <v>23</v>
       </c>
-      <c r="AG29" s="105"/>
-      <c r="AH29" s="139" t="s">
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="113" t="s">
         <v>98</v>
       </c>
       <c r="AI29" s="19"/>
       <c r="AJ29" s="11">
         <v>50.120000000000005</v>
       </c>
-      <c r="AK29" s="102">
+      <c r="AK29" s="12">
         <v>0.91</v>
       </c>
-      <c r="AL29" s="102">
+      <c r="AL29" s="12">
         <v>18.32</v>
       </c>
-      <c r="AM29" s="102">
+      <c r="AM29" s="12">
         <v>9.36</v>
       </c>
-      <c r="AN29" s="102"/>
-      <c r="AO29" s="102">
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12">
         <v>0.17</v>
       </c>
-      <c r="AP29" s="102">
+      <c r="AP29" s="12">
         <v>7.01</v>
       </c>
-      <c r="AQ29" s="102">
+      <c r="AQ29" s="12">
         <v>11.344999999999999</v>
       </c>
-      <c r="AR29" s="102">
+      <c r="AR29" s="12">
         <v>2.39</v>
       </c>
-      <c r="AS29" s="102">
+      <c r="AS29" s="12">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AT29" s="102">
+      <c r="AT29" s="12">
         <v>0.15</v>
       </c>
-      <c r="AU29" s="102">
+      <c r="AU29" s="12">
         <v>100</v>
       </c>
-      <c r="AV29" s="102"/>
-      <c r="AW29" s="102">
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12">
         <v>0.66378339566542666</v>
       </c>
-      <c r="AX29" s="102">
+      <c r="AX29" s="12">
         <v>0.27655660483015931</v>
       </c>
-      <c r="AY29" s="102"/>
-      <c r="AZ29" s="102"/>
-      <c r="BA29" s="102">
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12">
         <v>0.83408221001830585</v>
       </c>
-      <c r="BB29" s="102">
+      <c r="BB29" s="12">
         <v>1.1389236545682102E-2</v>
       </c>
-      <c r="BC29" s="102">
+      <c r="BC29" s="12">
         <v>0.17967830521773248</v>
       </c>
-      <c r="BD29" s="102">
+      <c r="BD29" s="12">
         <v>0.13027139874739041</v>
       </c>
-      <c r="BE29" s="102"/>
-      <c r="BF29" s="102">
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BG29" s="102">
+      <c r="BG29" s="12">
         <v>0.17390225750434135</v>
       </c>
-      <c r="BH29" s="102">
+      <c r="BH29" s="12">
         <v>0.20230028530670469</v>
       </c>
-      <c r="BI29" s="102">
+      <c r="BI29" s="12">
         <v>3.8673139158576057E-2</v>
       </c>
-      <c r="BJ29" s="102">
+      <c r="BJ29" s="12">
         <v>2.3885350318471337E-3</v>
       </c>
-      <c r="BK29" s="102">
+      <c r="BK29" s="12">
         <v>1.0567101091933781E-3</v>
       </c>
-      <c r="BL29" s="102">
+      <c r="BL29" s="12">
         <v>1.5761384689563791</v>
       </c>
-      <c r="BM29" s="102"/>
-      <c r="BN29" s="102"/>
-      <c r="BO29" s="102">
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12">
         <v>0.83408221001830585</v>
       </c>
-      <c r="BP29" s="102">
+      <c r="BP29" s="12">
         <v>1.1389236545682102E-2</v>
       </c>
-      <c r="BQ29" s="102">
+      <c r="BQ29" s="12">
         <v>0.35935661043546496</v>
       </c>
-      <c r="BR29" s="102">
+      <c r="BR29" s="12">
         <v>0.13027139874739041</v>
       </c>
-      <c r="BS29" s="102"/>
-      <c r="BT29" s="102">
+      <c r="BS29" s="12"/>
+      <c r="BT29" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BU29" s="102">
+      <c r="BU29" s="12">
         <v>0.17390225750434135</v>
       </c>
-      <c r="BV29" s="102">
+      <c r="BV29" s="12">
         <v>0.20230028530670469</v>
       </c>
-      <c r="BW29" s="102">
+      <c r="BW29" s="12">
         <v>7.7346278317152115E-2</v>
       </c>
-      <c r="BX29" s="102">
+      <c r="BX29" s="12">
         <v>4.7770700636942673E-3</v>
       </c>
       <c r="BY29" s="35">
@@ -20534,16 +20452,16 @@
       <c r="A30" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E30" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F30" s="10">
@@ -20557,8 +20475,8 @@
       <c r="J30" s="13"/>
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
       <c r="O30" s="18"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
@@ -20566,143 +20484,142 @@
       <c r="S30" s="15">
         <v>57.3</v>
       </c>
-      <c r="T30" s="105"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="105"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106">
+      <c r="T30" s="16"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21">
         <v>1.8</v>
       </c>
       <c r="Y30" s="62"/>
-      <c r="Z30" s="105">
+      <c r="Z30" s="16">
         <v>349</v>
       </c>
-      <c r="AA30" s="106" t="s">
+      <c r="AA30" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB30" s="15">
         <v>349</v>
       </c>
-      <c r="AC30" s="105">
+      <c r="AC30" s="117">
         <v>25</v>
       </c>
       <c r="AD30" s="18"/>
-      <c r="AE30" s="105">
+      <c r="AE30" s="16">
         <v>306</v>
       </c>
       <c r="AF30" s="16">
         <v>32</v>
       </c>
-      <c r="AG30" s="105"/>
-      <c r="AH30" s="139" t="s">
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="11">
         <v>43.64</v>
       </c>
-      <c r="AK30" s="102">
+      <c r="AK30" s="12">
         <v>2.64</v>
       </c>
-      <c r="AL30" s="102">
+      <c r="AL30" s="12">
         <v>12.65</v>
       </c>
-      <c r="AM30" s="102">
+      <c r="AM30" s="12">
         <v>11.54</v>
       </c>
-      <c r="AN30" s="102"/>
-      <c r="AO30" s="102">
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12">
         <v>0.19</v>
       </c>
-      <c r="AP30" s="102">
+      <c r="AP30" s="12">
         <v>12.07</v>
       </c>
-      <c r="AQ30" s="102">
+      <c r="AQ30" s="12">
         <v>11.82</v>
       </c>
-      <c r="AR30" s="102">
+      <c r="AR30" s="12">
         <v>3.68</v>
       </c>
-      <c r="AS30" s="102">
+      <c r="AS30" s="12">
         <v>1.01</v>
       </c>
-      <c r="AT30" s="102">
+      <c r="AT30" s="12">
         <v>0.7</v>
       </c>
-      <c r="AU30" s="102">
+      <c r="AU30" s="12">
         <v>99.94</v>
       </c>
-      <c r="AV30" s="102"/>
-      <c r="AW30" s="102">
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12">
         <v>0.53206676081954596</v>
       </c>
-      <c r="AX30" s="102">
+      <c r="AX30" s="12">
         <v>0.36103905373641304</v>
       </c>
-      <c r="AY30" s="102"/>
-      <c r="AZ30" s="102"/>
-      <c r="BA30" s="102">
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12">
         <v>0.72624396738225994</v>
       </c>
-      <c r="BB30" s="102">
+      <c r="BB30" s="12">
         <v>3.3041301627033788E-2</v>
       </c>
-      <c r="BC30" s="102">
+      <c r="BC30" s="12">
         <v>0.12406826206355434</v>
       </c>
-      <c r="BD30" s="102">
+      <c r="BD30" s="12">
         <v>0.1606123869171886</v>
       </c>
-      <c r="BE30" s="102"/>
-      <c r="BF30" s="102">
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12">
         <v>2.6783197067944743E-3</v>
       </c>
-      <c r="BG30" s="102">
+      <c r="BG30" s="12">
         <v>0.29942942197965766</v>
       </c>
-      <c r="BH30" s="102">
+      <c r="BH30" s="12">
         <v>0.21077032810271043</v>
       </c>
-      <c r="BI30" s="102">
+      <c r="BI30" s="12">
         <v>5.9546925566343049E-2</v>
       </c>
-      <c r="BJ30" s="102">
+      <c r="BJ30" s="12">
         <v>1.0721868365180466E-2</v>
       </c>
-      <c r="BK30" s="102">
+      <c r="BK30" s="12">
         <v>4.9313138429024307E-3</v>
       </c>
-      <c r="BL30" s="102">
+      <c r="BL30" s="12">
         <v>1.6271127817107227</v>
       </c>
-      <c r="BM30" s="132"/>
-      <c r="BN30" s="102"/>
-      <c r="BO30" s="102">
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12">
         <v>0.72624396738225994</v>
       </c>
-      <c r="BP30" s="102">
+      <c r="BP30" s="12">
         <v>3.3041301627033788E-2</v>
       </c>
-      <c r="BQ30" s="102">
+      <c r="BQ30" s="12">
         <v>0.24813652412710868</v>
       </c>
-      <c r="BR30" s="102">
+      <c r="BR30" s="12">
         <v>0.1606123869171886</v>
       </c>
-      <c r="BS30" s="102"/>
-      <c r="BT30" s="102">
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12">
         <v>2.6783197067944743E-3</v>
       </c>
-      <c r="BU30" s="102">
+      <c r="BU30" s="12">
         <v>0.29942942197965766</v>
       </c>
-      <c r="BV30" s="102">
+      <c r="BV30" s="12">
         <v>0.21077032810271043</v>
       </c>
-      <c r="BW30" s="102">
+      <c r="BW30" s="12">
         <v>0.1190938511326861</v>
       </c>
-      <c r="BX30" s="102">
+      <c r="BX30" s="12">
         <v>2.1443736730360933E-2</v>
       </c>
       <c r="BY30" s="35">
@@ -20713,16 +20630,16 @@
       <c r="A31" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="107" t="s">
+      <c r="D31" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="101" t="s">
+      <c r="E31" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F31" s="10">
@@ -20736,8 +20653,8 @@
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="18"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
@@ -20745,143 +20662,142 @@
       <c r="S31" s="15">
         <v>60.5</v>
       </c>
-      <c r="T31" s="105"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="105"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106">
+      <c r="T31" s="16"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21">
         <v>3.3</v>
       </c>
       <c r="Y31" s="62"/>
-      <c r="Z31" s="105">
+      <c r="Z31" s="16">
         <v>380</v>
       </c>
-      <c r="AA31" s="106" t="s">
+      <c r="AA31" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB31" s="15">
         <v>380</v>
       </c>
-      <c r="AC31" s="105">
+      <c r="AC31" s="117">
         <v>30</v>
       </c>
       <c r="AD31" s="18"/>
-      <c r="AE31" s="105">
+      <c r="AE31" s="16">
         <v>311</v>
       </c>
       <c r="AF31" s="16">
         <v>41</v>
       </c>
-      <c r="AG31" s="105"/>
-      <c r="AH31" s="139" t="s">
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI31" s="19"/>
       <c r="AJ31" s="11">
         <v>47.3</v>
       </c>
-      <c r="AK31" s="102">
+      <c r="AK31" s="12">
         <v>2.35</v>
       </c>
-      <c r="AL31" s="102">
+      <c r="AL31" s="12">
         <v>14.17</v>
       </c>
-      <c r="AM31" s="102">
+      <c r="AM31" s="12">
         <v>10.82</v>
       </c>
-      <c r="AN31" s="102"/>
-      <c r="AO31" s="102">
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12">
         <v>0.17</v>
       </c>
-      <c r="AP31" s="102">
+      <c r="AP31" s="12">
         <v>10.36</v>
       </c>
-      <c r="AQ31" s="102">
+      <c r="AQ31" s="12">
         <v>9.94</v>
       </c>
-      <c r="AR31" s="102">
+      <c r="AR31" s="12">
         <v>3.52</v>
       </c>
-      <c r="AS31" s="102">
+      <c r="AS31" s="12">
         <v>0.83</v>
       </c>
-      <c r="AT31" s="102">
+      <c r="AT31" s="12">
         <v>0.47</v>
       </c>
-      <c r="AU31" s="102">
+      <c r="AU31" s="12">
         <v>99.929999999999993</v>
       </c>
-      <c r="AV31" s="102"/>
-      <c r="AW31" s="102">
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12">
         <v>0.58524831256813492</v>
       </c>
-      <c r="AX31" s="102">
+      <c r="AX31" s="12">
         <v>0.39124475074304188</v>
       </c>
-      <c r="AY31" s="102"/>
-      <c r="AZ31" s="102"/>
-      <c r="BA31" s="102">
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12">
         <v>0.78715260442669321</v>
       </c>
-      <c r="BB31" s="102">
+      <c r="BB31" s="12">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="BC31" s="102">
+      <c r="BC31" s="12">
         <v>0.13897606904668497</v>
       </c>
-      <c r="BD31" s="102">
+      <c r="BD31" s="12">
         <v>0.15059151009046626</v>
       </c>
-      <c r="BE31" s="102"/>
-      <c r="BF31" s="102">
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BG31" s="102">
+      <c r="BG31" s="12">
         <v>0.25700818655420488</v>
       </c>
-      <c r="BH31" s="102">
+      <c r="BH31" s="12">
         <v>0.17724679029957205</v>
       </c>
-      <c r="BI31" s="102">
+      <c r="BI31" s="12">
         <v>5.6957928802589E-2</v>
       </c>
-      <c r="BJ31" s="102">
+      <c r="BJ31" s="12">
         <v>8.8110403397027599E-3</v>
       </c>
-      <c r="BK31" s="102">
+      <c r="BK31" s="12">
         <v>3.3110250088059178E-3</v>
       </c>
-      <c r="BL31" s="102">
+      <c r="BL31" s="12">
         <v>1.608552285582401</v>
       </c>
-      <c r="BM31" s="132"/>
-      <c r="BN31" s="102"/>
-      <c r="BO31" s="102">
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12">
         <v>0.78715260442669321</v>
       </c>
-      <c r="BP31" s="102">
+      <c r="BP31" s="12">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="BQ31" s="102">
+      <c r="BQ31" s="12">
         <v>0.27795213809336994</v>
       </c>
-      <c r="BR31" s="102">
+      <c r="BR31" s="12">
         <v>0.15059151009046626</v>
       </c>
-      <c r="BS31" s="102"/>
-      <c r="BT31" s="102">
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BU31" s="102">
+      <c r="BU31" s="12">
         <v>0.25700818655420488</v>
       </c>
-      <c r="BV31" s="102">
+      <c r="BV31" s="12">
         <v>0.17724679029957205</v>
       </c>
-      <c r="BW31" s="102">
+      <c r="BW31" s="12">
         <v>0.113915857605178</v>
       </c>
-      <c r="BX31" s="102">
+      <c r="BX31" s="12">
         <v>1.762208067940552E-2</v>
       </c>
       <c r="BY31" s="35">
@@ -20892,16 +20808,16 @@
       <c r="A32" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F32" s="10">
@@ -20915,148 +20831,147 @@
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="17"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="15"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="105"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
       <c r="Y32" s="62"/>
-      <c r="Z32" s="105">
+      <c r="Z32" s="16">
         <v>372</v>
       </c>
-      <c r="AA32" s="106" t="s">
+      <c r="AA32" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB32" s="15">
         <v>372</v>
       </c>
-      <c r="AC32" s="105">
+      <c r="AC32" s="117">
         <v>14</v>
       </c>
       <c r="AD32" s="18"/>
-      <c r="AE32" s="105">
+      <c r="AE32" s="16">
         <v>329</v>
       </c>
       <c r="AF32" s="16">
         <v>15</v>
       </c>
-      <c r="AG32" s="105"/>
-      <c r="AH32" s="139" t="s">
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI32" s="19"/>
       <c r="AJ32" s="11">
         <v>48.88</v>
       </c>
-      <c r="AK32" s="102">
+      <c r="AK32" s="12">
         <v>2.89</v>
       </c>
-      <c r="AL32" s="102">
+      <c r="AL32" s="12">
         <v>14.77</v>
       </c>
-      <c r="AM32" s="102">
+      <c r="AM32" s="12">
         <v>13.05</v>
       </c>
-      <c r="AN32" s="102"/>
-      <c r="AO32" s="102">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="102">
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="12">
         <v>6.47</v>
       </c>
-      <c r="AQ32" s="102">
+      <c r="AQ32" s="12">
         <v>10.99</v>
       </c>
-      <c r="AR32" s="102">
+      <c r="AR32" s="12">
         <v>2.63</v>
       </c>
-      <c r="AS32" s="102">
+      <c r="AS32" s="12">
         <v>0.3</v>
       </c>
-      <c r="AT32" s="102">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="102">
+      <c r="AT32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="12">
         <v>99.97999999999999</v>
       </c>
-      <c r="AV32" s="102"/>
-      <c r="AW32" s="102">
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12">
         <v>0.62363736213765231</v>
       </c>
-      <c r="AX32" s="102">
+      <c r="AX32" s="12">
         <v>0.30280441831693838</v>
       </c>
-      <c r="AY32" s="102"/>
-      <c r="AZ32" s="102"/>
-      <c r="BA32" s="102">
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12">
         <v>0.81344649692128479</v>
       </c>
-      <c r="BB32" s="102">
+      <c r="BB32" s="12">
         <v>3.6170212765957444E-2</v>
       </c>
-      <c r="BC32" s="102">
+      <c r="BC32" s="12">
         <v>0.14486072969792077</v>
       </c>
-      <c r="BD32" s="102">
+      <c r="BD32" s="12">
         <v>0.1816283924843424</v>
       </c>
-      <c r="BE32" s="102"/>
-      <c r="BF32" s="102">
-        <v>0</v>
-      </c>
-      <c r="BG32" s="102">
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="12">
         <v>0.16050607789630364</v>
       </c>
-      <c r="BH32" s="102">
+      <c r="BH32" s="12">
         <v>0.19597004279600572</v>
       </c>
-      <c r="BI32" s="102">
+      <c r="BI32" s="12">
         <v>4.2556634304207121E-2</v>
       </c>
-      <c r="BJ32" s="102">
+      <c r="BJ32" s="12">
         <v>3.1847133757961781E-3</v>
       </c>
-      <c r="BK32" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL32" s="102">
+      <c r="BK32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL32" s="12">
         <v>1.5783233002418182</v>
       </c>
-      <c r="BM32" s="132"/>
-      <c r="BN32" s="102"/>
-      <c r="BO32" s="102">
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12">
         <v>0.81344649692128479</v>
       </c>
-      <c r="BP32" s="102">
+      <c r="BP32" s="12">
         <v>3.6170212765957444E-2</v>
       </c>
-      <c r="BQ32" s="102">
+      <c r="BQ32" s="12">
         <v>0.28972145939584154</v>
       </c>
-      <c r="BR32" s="102">
+      <c r="BR32" s="12">
         <v>0.1816283924843424</v>
       </c>
-      <c r="BS32" s="102"/>
-      <c r="BT32" s="102">
-        <v>0</v>
-      </c>
-      <c r="BU32" s="102">
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BU32" s="12">
         <v>0.16050607789630364</v>
       </c>
-      <c r="BV32" s="102">
+      <c r="BV32" s="12">
         <v>0.19597004279600572</v>
       </c>
-      <c r="BW32" s="102">
+      <c r="BW32" s="12">
         <v>8.5113268608414241E-2</v>
       </c>
-      <c r="BX32" s="102">
+      <c r="BX32" s="12">
         <v>6.3694267515923561E-3</v>
       </c>
       <c r="BY32" s="35">
@@ -21067,16 +20982,16 @@
       <c r="A33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="107" t="s">
+      <c r="D33" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="101" t="s">
+      <c r="E33" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="10">
@@ -21090,148 +21005,147 @@
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="17"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="15"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="105"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
       <c r="Y33" s="62"/>
-      <c r="Z33" s="105">
+      <c r="Z33" s="16">
         <v>394</v>
       </c>
-      <c r="AA33" s="106" t="s">
+      <c r="AA33" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB33" s="15">
         <v>394</v>
       </c>
-      <c r="AC33" s="105">
+      <c r="AC33" s="117">
         <v>27</v>
       </c>
       <c r="AD33" s="18"/>
-      <c r="AE33" s="105">
+      <c r="AE33" s="16">
         <v>360</v>
       </c>
       <c r="AF33" s="16">
         <v>24</v>
       </c>
-      <c r="AG33" s="105"/>
-      <c r="AH33" s="139" t="s">
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI33" s="19"/>
       <c r="AJ33" s="11">
         <v>48.34</v>
       </c>
-      <c r="AK33" s="102">
+      <c r="AK33" s="12">
         <v>1.77</v>
       </c>
-      <c r="AL33" s="102">
+      <c r="AL33" s="12">
         <v>16.399999999999999</v>
       </c>
-      <c r="AM33" s="102">
+      <c r="AM33" s="12">
         <v>10.48</v>
       </c>
-      <c r="AN33" s="102"/>
-      <c r="AO33" s="102">
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12">
         <v>0.2</v>
       </c>
-      <c r="AP33" s="102">
+      <c r="AP33" s="12">
         <v>5.97</v>
       </c>
-      <c r="AQ33" s="102">
+      <c r="AQ33" s="12">
         <v>10.83</v>
       </c>
-      <c r="AR33" s="102">
+      <c r="AR33" s="12">
         <v>3.46</v>
       </c>
-      <c r="AS33" s="102">
+      <c r="AS33" s="12">
         <v>1.96</v>
       </c>
-      <c r="AT33" s="102">
+      <c r="AT33" s="12">
         <v>0.59</v>
       </c>
-      <c r="AU33" s="102">
+      <c r="AU33" s="12">
         <v>100</v>
       </c>
-      <c r="AV33" s="102"/>
-      <c r="AW33" s="102">
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12">
         <v>0.62560475030354845</v>
       </c>
-      <c r="AX33" s="102">
+      <c r="AX33" s="12">
         <v>0.36701862247339523</v>
       </c>
-      <c r="AY33" s="102"/>
-      <c r="AZ33" s="102"/>
-      <c r="BA33" s="102">
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12">
         <v>0.80445997670161429</v>
       </c>
-      <c r="BB33" s="102">
+      <c r="BB33" s="12">
         <v>2.2152690863579474E-2</v>
       </c>
-      <c r="BC33" s="102">
+      <c r="BC33" s="12">
         <v>0.16084739113377794</v>
       </c>
-      <c r="BD33" s="102">
+      <c r="BD33" s="12">
         <v>0.14585942936673627</v>
       </c>
-      <c r="BE33" s="102"/>
-      <c r="BF33" s="102">
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12">
         <v>2.8192839018889204E-3</v>
       </c>
-      <c r="BG33" s="102">
+      <c r="BG33" s="12">
         <v>0.1481022078888613</v>
       </c>
-      <c r="BH33" s="102">
+      <c r="BH33" s="12">
         <v>0.19311697574893011</v>
       </c>
-      <c r="BI33" s="102">
+      <c r="BI33" s="12">
         <v>5.5987055016181231E-2</v>
       </c>
-      <c r="BJ33" s="102">
+      <c r="BJ33" s="12">
         <v>2.0806794055201697E-2</v>
       </c>
-      <c r="BK33" s="102">
+      <c r="BK33" s="12">
         <v>4.1563930961606198E-3</v>
       </c>
-      <c r="BL33" s="102">
+      <c r="BL33" s="12">
         <v>1.5541518046767713</v>
       </c>
-      <c r="BM33" s="132"/>
-      <c r="BN33" s="102"/>
-      <c r="BO33" s="102">
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12">
         <v>0.80445997670161429</v>
       </c>
-      <c r="BP33" s="102">
+      <c r="BP33" s="12">
         <v>2.2152690863579474E-2</v>
       </c>
-      <c r="BQ33" s="102">
+      <c r="BQ33" s="12">
         <v>0.32169478226755588</v>
       </c>
-      <c r="BR33" s="102">
+      <c r="BR33" s="12">
         <v>0.14585942936673627</v>
       </c>
-      <c r="BS33" s="102"/>
-      <c r="BT33" s="102">
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12">
         <v>2.8192839018889204E-3</v>
       </c>
-      <c r="BU33" s="102">
+      <c r="BU33" s="12">
         <v>0.1481022078888613</v>
       </c>
-      <c r="BV33" s="102">
+      <c r="BV33" s="12">
         <v>0.19311697574893011</v>
       </c>
-      <c r="BW33" s="102">
+      <c r="BW33" s="12">
         <v>0.11197411003236246</v>
       </c>
-      <c r="BX33" s="102">
+      <c r="BX33" s="12">
         <v>4.1613588110403395E-2</v>
       </c>
       <c r="BY33" s="35">
@@ -21242,16 +21156,16 @@
       <c r="A34" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="101" t="s">
+      <c r="E34" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="10">
@@ -21265,148 +21179,147 @@
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="17"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="15"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
       <c r="Y34" s="62"/>
-      <c r="Z34" s="105">
+      <c r="Z34" s="16">
         <v>385</v>
       </c>
-      <c r="AA34" s="106" t="s">
+      <c r="AA34" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB34" s="15">
         <v>385</v>
       </c>
-      <c r="AC34" s="105">
+      <c r="AC34" s="117">
         <v>18</v>
       </c>
       <c r="AD34" s="18"/>
-      <c r="AE34" s="105">
+      <c r="AE34" s="16">
         <v>341</v>
       </c>
       <c r="AF34" s="16">
         <v>19</v>
       </c>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="139" t="s">
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI34" s="19"/>
       <c r="AJ34" s="11">
         <v>49.03</v>
       </c>
-      <c r="AK34" s="102">
+      <c r="AK34" s="12">
         <v>2.76</v>
       </c>
-      <c r="AL34" s="102">
+      <c r="AL34" s="12">
         <v>16.2</v>
       </c>
-      <c r="AM34" s="102">
+      <c r="AM34" s="12">
         <v>11.9</v>
       </c>
-      <c r="AN34" s="102"/>
-      <c r="AO34" s="102">
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12">
         <v>0.17</v>
       </c>
-      <c r="AP34" s="102">
+      <c r="AP34" s="12">
         <v>5.88</v>
       </c>
-      <c r="AQ34" s="102">
+      <c r="AQ34" s="12">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AR34" s="102">
+      <c r="AR34" s="12">
         <v>3.13</v>
       </c>
-      <c r="AS34" s="102">
+      <c r="AS34" s="12">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AT34" s="102">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="102">
+      <c r="AT34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="12">
         <v>99.99</v>
       </c>
-      <c r="AV34" s="102"/>
-      <c r="AW34" s="102">
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12">
         <v>0.63621395654255564</v>
       </c>
-      <c r="AX34" s="102">
+      <c r="AX34" s="12">
         <v>0.36694941616020388</v>
       </c>
-      <c r="AY34" s="102"/>
-      <c r="AZ34" s="102"/>
-      <c r="BA34" s="102">
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12">
         <v>0.81594275253785986</v>
       </c>
-      <c r="BB34" s="102">
+      <c r="BB34" s="12">
         <v>3.4543178973717142E-2</v>
       </c>
-      <c r="BC34" s="102">
+      <c r="BC34" s="12">
         <v>0.15888583758336602</v>
       </c>
-      <c r="BD34" s="102">
+      <c r="BD34" s="12">
         <v>0.16562282533054978</v>
       </c>
-      <c r="BE34" s="102"/>
-      <c r="BF34" s="102">
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BG34" s="102">
+      <c r="BG34" s="12">
         <v>0.14586951128752171</v>
       </c>
-      <c r="BH34" s="102">
+      <c r="BH34" s="12">
         <v>0.1747503566333809</v>
       </c>
-      <c r="BI34" s="102">
+      <c r="BI34" s="12">
         <v>5.0647249190938513E-2</v>
       </c>
-      <c r="BJ34" s="102">
+      <c r="BJ34" s="12">
         <v>1.18895966029724E-2</v>
       </c>
-      <c r="BK34" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL34" s="102">
+      <c r="BK34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="12">
         <v>1.5605476994569119</v>
       </c>
-      <c r="BM34" s="132"/>
-      <c r="BN34" s="102"/>
-      <c r="BO34" s="102">
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12">
         <v>0.81594275253785986</v>
       </c>
-      <c r="BP34" s="102">
+      <c r="BP34" s="12">
         <v>3.4543178973717142E-2</v>
       </c>
-      <c r="BQ34" s="102">
+      <c r="BQ34" s="12">
         <v>0.31777167516673205</v>
       </c>
-      <c r="BR34" s="102">
+      <c r="BR34" s="12">
         <v>0.16562282533054978</v>
       </c>
-      <c r="BS34" s="102"/>
-      <c r="BT34" s="102">
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12">
         <v>2.3963913166055823E-3</v>
       </c>
-      <c r="BU34" s="102">
+      <c r="BU34" s="12">
         <v>0.14586951128752171</v>
       </c>
-      <c r="BV34" s="102">
+      <c r="BV34" s="12">
         <v>0.1747503566333809</v>
       </c>
-      <c r="BW34" s="102">
+      <c r="BW34" s="12">
         <v>0.10129449838187703</v>
       </c>
-      <c r="BX34" s="102">
+      <c r="BX34" s="12">
         <v>2.37791932059448E-2</v>
       </c>
       <c r="BY34" s="35">
@@ -21417,16 +21330,16 @@
       <c r="A35" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="107" t="s">
+      <c r="D35" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="36" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="10">
@@ -21440,148 +21353,147 @@
       <c r="J35" s="13"/>
       <c r="K35" s="14"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
       <c r="O35" s="17"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="105"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
       <c r="Y35" s="62"/>
-      <c r="Z35" s="105">
+      <c r="Z35" s="16">
         <v>359</v>
       </c>
-      <c r="AA35" s="106" t="s">
+      <c r="AA35" s="21" t="s">
         <v>133</v>
       </c>
       <c r="AB35" s="15">
         <v>359</v>
       </c>
-      <c r="AC35" s="105">
+      <c r="AC35" s="117">
         <v>25</v>
       </c>
       <c r="AD35" s="18"/>
-      <c r="AE35" s="105">
+      <c r="AE35" s="16">
         <v>306</v>
       </c>
       <c r="AF35" s="16">
         <v>11</v>
       </c>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="139" t="s">
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="113" t="s">
         <v>90</v>
       </c>
       <c r="AI35" s="19"/>
       <c r="AJ35" s="11">
         <v>50.69</v>
       </c>
-      <c r="AK35" s="102">
+      <c r="AK35" s="12">
         <v>1.46</v>
       </c>
-      <c r="AL35" s="102">
+      <c r="AL35" s="12">
         <v>16.95</v>
       </c>
-      <c r="AM35" s="102">
+      <c r="AM35" s="12">
         <v>8.51</v>
       </c>
-      <c r="AN35" s="102"/>
-      <c r="AO35" s="102">
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12">
         <v>0.13</v>
       </c>
-      <c r="AP35" s="102">
+      <c r="AP35" s="12">
         <v>7.48</v>
       </c>
-      <c r="AQ35" s="102">
+      <c r="AQ35" s="12">
         <v>12.03</v>
       </c>
-      <c r="AR35" s="102">
+      <c r="AR35" s="12">
         <v>2.52</v>
       </c>
-      <c r="AS35" s="102">
+      <c r="AS35" s="12">
         <v>0.22</v>
       </c>
-      <c r="AT35" s="102">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="102">
+      <c r="AT35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="12">
         <v>99.99</v>
       </c>
-      <c r="AV35" s="102"/>
-      <c r="AW35" s="102">
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12">
         <v>0.65303565903143468</v>
       </c>
-      <c r="AX35" s="102">
+      <c r="AX35" s="12">
         <v>0.27545460605486499</v>
       </c>
-      <c r="AY35" s="102"/>
-      <c r="AZ35" s="102"/>
-      <c r="BA35" s="102">
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12">
         <v>0.8435679813612913</v>
       </c>
-      <c r="BB35" s="102">
+      <c r="BB35" s="12">
         <v>1.8272841051314142E-2</v>
       </c>
-      <c r="BC35" s="102">
+      <c r="BC35" s="12">
         <v>0.16624166339741075</v>
       </c>
-      <c r="BD35" s="102">
+      <c r="BD35" s="12">
         <v>0.11844119693806542</v>
       </c>
-      <c r="BE35" s="102"/>
-      <c r="BF35" s="102">
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12">
         <v>1.8325345362277983E-3</v>
       </c>
-      <c r="BG35" s="102">
+      <c r="BG35" s="12">
         <v>0.18556189531133713</v>
       </c>
-      <c r="BH35" s="102">
+      <c r="BH35" s="12">
         <v>0.21451497860199714</v>
       </c>
-      <c r="BI35" s="102">
+      <c r="BI35" s="12">
         <v>4.0776699029126215E-2</v>
       </c>
-      <c r="BJ35" s="102">
+      <c r="BJ35" s="12">
         <v>2.335456475583864E-3</v>
       </c>
-      <c r="BK35" s="102">
-        <v>0</v>
-      </c>
-      <c r="BL35" s="102">
+      <c r="BK35" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL35" s="12">
         <v>1.5915452467023539</v>
       </c>
-      <c r="BM35" s="134"/>
-      <c r="BN35" s="102"/>
-      <c r="BO35" s="102">
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12">
         <v>0.8435679813612913</v>
       </c>
-      <c r="BP35" s="102">
+      <c r="BP35" s="12">
         <v>1.8272841051314142E-2</v>
       </c>
-      <c r="BQ35" s="102">
+      <c r="BQ35" s="12">
         <v>0.33248332679482151</v>
       </c>
-      <c r="BR35" s="102">
+      <c r="BR35" s="12">
         <v>0.11844119693806542</v>
       </c>
-      <c r="BS35" s="102"/>
-      <c r="BT35" s="102">
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12">
         <v>1.8325345362277983E-3</v>
       </c>
-      <c r="BU35" s="102">
+      <c r="BU35" s="12">
         <v>0.18556189531133713</v>
       </c>
-      <c r="BV35" s="102">
+      <c r="BV35" s="12">
         <v>0.21451497860199714</v>
       </c>
-      <c r="BW35" s="102">
+      <c r="BW35" s="12">
         <v>8.155339805825243E-2</v>
       </c>
-      <c r="BX35" s="102">
+      <c r="BX35" s="12">
         <v>4.6709129511677281E-3</v>
       </c>
       <c r="BY35" s="35">
@@ -21598,7 +21510,7 @@
       <c r="C36" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="137" t="s">
+      <c r="D36" s="111" t="s">
         <v>116</v>
       </c>
       <c r="E36" s="70" t="s">
@@ -21644,7 +21556,7 @@
       </c>
       <c r="AF36" s="44"/>
       <c r="AG36" s="44"/>
-      <c r="AH36" s="140"/>
+      <c r="AH36" s="114"/>
       <c r="AI36" s="43"/>
       <c r="AJ36" s="68">
         <v>44.11</v>
@@ -21723,7 +21635,7 @@
       <c r="BL36" s="41">
         <v>1.5963789205524179</v>
       </c>
-      <c r="BM36" s="133"/>
+      <c r="BM36" s="108"/>
       <c r="BN36" s="41"/>
       <c r="BO36" s="41">
         <v>0.73406556831419534</v>

--- a/Epsilon_Inversion/EpsilonRegression.xlsx
+++ b/Epsilon_Inversion/EpsilonRegression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahshi/Documents/GitHub/PyIRoGlass/Epsilon_Inversion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4695F1DF-C0D0-4A45-8B55-EF000BB74DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE461C43-FDE2-794A-9B2F-FD8A833475CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="31920" windowHeight="20380" activeTab="3" xr2:uid="{FEE6C955-F107-534A-8F98-4BC8B7F4190E}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="31920" windowHeight="20380" activeTab="3" xr2:uid="{FEE6C955-F107-534A-8F98-4BC8B7F4190E}"/>
   </bookViews>
   <sheets>
     <sheet name="NIRRegress" sheetId="4" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1415,12 +1415,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7739,8 +7733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D56AC5-DAA9-8140-A576-6658D6B454A7}">
   <dimension ref="A1:BW36"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15330,8 +15324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F3C50D-B1DF-E247-95AB-3AD4B1033E27}">
   <dimension ref="A1:BY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8:T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15611,7 +15605,7 @@
         <v>148</v>
       </c>
       <c r="AB2" s="15"/>
-      <c r="AC2" s="117"/>
+      <c r="AC2" s="16"/>
       <c r="AD2" s="18"/>
       <c r="AE2" s="16">
         <v>265</v>
@@ -15714,7 +15708,7 @@
       <c r="AB3" s="15">
         <v>284</v>
       </c>
-      <c r="AC3" s="117">
+      <c r="AC3" s="16">
         <v>5</v>
       </c>
       <c r="AD3" s="18"/>
@@ -15889,7 +15883,7 @@
       <c r="AB4" s="15">
         <v>207</v>
       </c>
-      <c r="AC4" s="117">
+      <c r="AC4" s="16">
         <v>22</v>
       </c>
       <c r="AD4" s="18"/>
@@ -16064,7 +16058,7 @@
       <c r="AB5" s="15">
         <v>375</v>
       </c>
-      <c r="AC5" s="117">
+      <c r="AC5" s="16">
         <v>20</v>
       </c>
       <c r="AD5" s="18"/>
@@ -16277,7 +16271,7 @@
       <c r="AB6" s="15">
         <v>180</v>
       </c>
-      <c r="AC6" s="117">
+      <c r="AC6" s="16">
         <v>15</v>
       </c>
       <c r="AD6" s="18"/>
@@ -16455,7 +16449,7 @@
       <c r="AB7" s="15">
         <v>398</v>
       </c>
-      <c r="AC7" s="117">
+      <c r="AC7" s="16">
         <v>10</v>
       </c>
       <c r="AD7" s="18"/>
@@ -16633,7 +16627,7 @@
       <c r="AB8" s="15">
         <v>303.435</v>
       </c>
-      <c r="AC8" s="117">
+      <c r="AC8" s="16">
         <v>9.1959999999999997</v>
       </c>
       <c r="AD8" s="18"/>
@@ -16847,7 +16841,7 @@
       <c r="AB9" s="15">
         <v>361</v>
       </c>
-      <c r="AC9" s="117">
+      <c r="AC9" s="16">
         <v>43</v>
       </c>
       <c r="AD9" s="18"/>
@@ -17026,7 +17020,7 @@
       <c r="AB10" s="15">
         <v>349</v>
       </c>
-      <c r="AC10" s="117">
+      <c r="AC10" s="16">
         <v>25</v>
       </c>
       <c r="AD10" s="18"/>
@@ -17204,7 +17198,7 @@
       <c r="AB11" s="15">
         <v>380</v>
       </c>
-      <c r="AC11" s="117">
+      <c r="AC11" s="16">
         <v>30</v>
       </c>
       <c r="AD11" s="18"/>
@@ -17378,7 +17372,7 @@
       <c r="AB12" s="15">
         <v>372</v>
       </c>
-      <c r="AC12" s="117">
+      <c r="AC12" s="16">
         <v>14</v>
       </c>
       <c r="AD12" s="18"/>
@@ -17552,7 +17546,7 @@
       <c r="AB13" s="15">
         <v>394</v>
       </c>
-      <c r="AC13" s="117">
+      <c r="AC13" s="16">
         <v>27</v>
       </c>
       <c r="AD13" s="18"/>
@@ -17726,7 +17720,7 @@
       <c r="AB14" s="15">
         <v>385</v>
       </c>
-      <c r="AC14" s="117">
+      <c r="AC14" s="16">
         <v>18</v>
       </c>
       <c r="AD14" s="18"/>
@@ -17900,7 +17894,7 @@
       <c r="AB15" s="15">
         <v>359</v>
       </c>
-      <c r="AC15" s="117">
+      <c r="AC15" s="16">
         <v>25</v>
       </c>
       <c r="AD15" s="18"/>
@@ -18074,7 +18068,7 @@
       <c r="AB16" s="15">
         <v>355</v>
       </c>
-      <c r="AC16" s="117"/>
+      <c r="AC16" s="16"/>
       <c r="AD16" s="18"/>
       <c r="AE16" s="16">
         <v>355</v>
@@ -18252,7 +18246,7 @@
         <v>148</v>
       </c>
       <c r="AB17" s="15"/>
-      <c r="AC17" s="117"/>
+      <c r="AC17" s="16"/>
       <c r="AD17" s="18"/>
       <c r="AE17" s="16">
         <v>356</v>
@@ -18418,7 +18412,7 @@
         <v>148</v>
       </c>
       <c r="AB18" s="15"/>
-      <c r="AC18" s="117"/>
+      <c r="AC18" s="16"/>
       <c r="AD18" s="18"/>
       <c r="AE18" s="16">
         <v>264</v>
@@ -18587,7 +18581,7 @@
         <v>148</v>
       </c>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="117"/>
+      <c r="AC19" s="16"/>
       <c r="AD19" s="18"/>
       <c r="AE19" s="16">
         <v>244</v>
@@ -18756,7 +18750,7 @@
         <v>148</v>
       </c>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="117"/>
+      <c r="AC20" s="16"/>
       <c r="AD20" s="18"/>
       <c r="AE20" s="16">
         <v>294</v>
@@ -19108,7 +19102,7 @@
       <c r="AB22" s="94">
         <v>308</v>
       </c>
-      <c r="AC22" s="118">
+      <c r="AC22" s="13">
         <v>110</v>
       </c>
       <c r="AD22" s="35"/>
@@ -19279,7 +19273,7 @@
       <c r="AB23" s="15">
         <v>284</v>
       </c>
-      <c r="AC23" s="117">
+      <c r="AC23" s="16">
         <v>5</v>
       </c>
       <c r="AD23" s="18"/>
@@ -19454,7 +19448,7 @@
       <c r="AB24" s="15">
         <v>207</v>
       </c>
-      <c r="AC24" s="117">
+      <c r="AC24" s="16">
         <v>22</v>
       </c>
       <c r="AD24" s="18"/>
@@ -19629,7 +19623,7 @@
       <c r="AB25" s="15">
         <v>375</v>
       </c>
-      <c r="AC25" s="117">
+      <c r="AC25" s="16">
         <v>20</v>
       </c>
       <c r="AD25" s="18"/>
@@ -19752,7 +19746,7 @@
       <c r="AB26" s="15">
         <v>180</v>
       </c>
-      <c r="AC26" s="117">
+      <c r="AC26" s="16">
         <v>15</v>
       </c>
       <c r="AD26" s="18"/>
@@ -19930,7 +19924,7 @@
       <c r="AB27" s="15">
         <v>398</v>
       </c>
-      <c r="AC27" s="117">
+      <c r="AC27" s="16">
         <v>10</v>
       </c>
       <c r="AD27" s="18"/>
@@ -20108,7 +20102,7 @@
       <c r="AB28" s="15">
         <v>303.435</v>
       </c>
-      <c r="AC28" s="117">
+      <c r="AC28" s="16">
         <v>9.1959999999999997</v>
       </c>
       <c r="AD28" s="18"/>
@@ -20322,7 +20316,7 @@
       <c r="AB29" s="15">
         <v>361</v>
       </c>
-      <c r="AC29" s="117">
+      <c r="AC29" s="16">
         <v>43</v>
       </c>
       <c r="AD29" s="18"/>
@@ -20501,7 +20495,7 @@
       <c r="AB30" s="15">
         <v>349</v>
       </c>
-      <c r="AC30" s="117">
+      <c r="AC30" s="16">
         <v>25</v>
       </c>
       <c r="AD30" s="18"/>
@@ -20679,7 +20673,7 @@
       <c r="AB31" s="15">
         <v>380</v>
       </c>
-      <c r="AC31" s="117">
+      <c r="AC31" s="16">
         <v>30</v>
       </c>
       <c r="AD31" s="18"/>
@@ -20853,7 +20847,7 @@
       <c r="AB32" s="15">
         <v>372</v>
       </c>
-      <c r="AC32" s="117">
+      <c r="AC32" s="16">
         <v>14</v>
       </c>
       <c r="AD32" s="18"/>
@@ -21027,7 +21021,7 @@
       <c r="AB33" s="15">
         <v>394</v>
       </c>
-      <c r="AC33" s="117">
+      <c r="AC33" s="16">
         <v>27</v>
       </c>
       <c r="AD33" s="18"/>
@@ -21201,7 +21195,7 @@
       <c r="AB34" s="15">
         <v>385</v>
       </c>
-      <c r="AC34" s="117">
+      <c r="AC34" s="16">
         <v>18</v>
       </c>
       <c r="AD34" s="18"/>
@@ -21375,7 +21369,7 @@
       <c r="AB35" s="15">
         <v>359</v>
       </c>
-      <c r="AC35" s="117">
+      <c r="AC35" s="16">
         <v>25</v>
       </c>
       <c r="AD35" s="18"/>
